--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z118"/>
+  <dimension ref="A1:Z119"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,14 +2167,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38860-2025</t>
+          <t>A 13556-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45887.5609375</v>
+        <v>45736.54759259259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2221,132 +2221,132 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Tvåblad
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 38860-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45887.5609375</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot
 Revlummer</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 13556-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45736.54759259259</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Tvåblad
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
         <v/>
       </c>
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="inlineStr">
         <is>
-          <t>A 60140-2025</t>
+          <t>A 28779-2025</t>
         </is>
       </c>
       <c r="B21" s="1" t="n">
-        <v>45994.36274305556</v>
+        <v>45820.44920138889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2358,17 +2358,22 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G21" t="n">
-        <v>0.8</v>
+        <v>4.1</v>
       </c>
       <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
-        <v>2</v>
-      </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
@@ -2383,7 +2388,7 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -2393,580 +2398,575 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Z21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 44008-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 60140-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45994.36274305556</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>2</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot
 Strävlosta</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 32174-2022</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44781</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C25" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G25" t="n">
         <v>1.6</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Tvåblad</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 34944-2022</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H23" t="n">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 43756-2022</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 4164-2023</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 43756-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H25" t="n">
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 4164-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I27" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 44008-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>2</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>2</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Z26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 28779-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45820.44920138889</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46059</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Skogsknipprot</t>
-        </is>
-      </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3238,14 +3238,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44280</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,31 +3258,31 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>1</v>
-      </c>
-      <c r="I31" t="n">
-        <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3292,45 +3292,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 43603-2024</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45569.44700231482</v>
+        <v>45175</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3343,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>3.8</v>
+        <v>5</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3355,7 +3355,7 @@
         <v>0</v>
       </c>
       <c r="K32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L32" t="n">
         <v>0</v>
@@ -3367,55 +3367,55 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32" t="n">
         <v>1</v>
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>44984</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3427,18 +3427,23 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
       </c>
       <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3452,7 +3457,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3462,45 +3467,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 45693-2025</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45923</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3513,16 +3522,16 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3537,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3547,45 +3556,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Stjälkröksvamp</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>46041</v>
+        <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3598,23 +3607,23 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
-        <v>0</v>
-      </c>
-      <c r="L35" t="n">
-        <v>0</v>
-      </c>
       <c r="M35" t="n">
         <v>0</v>
       </c>
@@ -3622,55 +3631,55 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 45693-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44270</v>
+        <v>45923</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3683,7 +3692,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3692,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3710,52 +3719,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Stjälkröksvamp</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 34885-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45084</v>
+        <v>45849.47128472223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3768,7 +3777,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3777,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3795,52 +3804,52 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Backfryle</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>44984</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3853,16 +3862,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3877,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3887,45 +3896,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24048-2025</t>
+          <t>A 43603-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45796.4959375</v>
+        <v>45569.44700231482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3938,19 +3947,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
       <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>1</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3965,52 +3974,52 @@
         <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Loppstarr</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45175</v>
+        <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4023,13 +4032,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
         <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -4057,45 +4066,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>46041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4107,13 +4116,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G41" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
@@ -4122,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -4137,7 +4141,7 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4147,49 +4151,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>44270</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,23 +4202,23 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>1</v>
       </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
-      </c>
       <c r="M42" t="n">
         <v>0</v>
       </c>
@@ -4226,55 +4226,55 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 34885-2025</t>
+          <t>A 24048-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45849.47128472223</v>
+        <v>45796.4959375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4287,7 +4287,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>4.4</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -4321,31 +4321,31 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Backfryle</t>
+          <t>Loppstarr</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4585,14 +4585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10348-2022</t>
+          <t>A 28345-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44623</v>
+        <v>44747</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28345-2022</t>
+          <t>A 10348-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44747</v>
+        <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4989,14 +4989,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62631-2021</t>
+          <t>A 27437-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44503</v>
+        <v>44742.55567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 27437-2022</t>
+          <t>A 62631-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44742.55567129629</v>
+        <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5066,7 +5066,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5110,7 +5110,7 @@
         <v>44781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5165,14 +5165,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 42785-2021</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5185,7 +5185,7 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>2.4</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5222,14 +5222,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>44951</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5241,13 +5241,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>3.3</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5284,14 +5279,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 42785-2021</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44428</v>
+        <v>44642</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5303,8 +5298,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>2.8</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5341,14 +5341,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44776</v>
+        <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5366,7 +5366,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5403,14 +5403,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45280</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5423,7 +5423,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5460,14 +5460,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45713.6275</v>
+        <v>45280</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5479,13 +5479,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>4</v>
+        <v>1.2</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5522,14 +5517,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44435</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5542,7 +5537,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.4</v>
+        <v>3.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5579,14 +5574,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45273</v>
+        <v>44725</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5599,7 +5594,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.1</v>
+        <v>10.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5636,14 +5631,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>44711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5656,7 +5651,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>4.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5693,14 +5688,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5712,13 +5707,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F67" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>0.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5755,14 +5745,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5775,7 +5765,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5812,14 +5802,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44456</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5832,7 +5822,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5869,14 +5859,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 27357-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45468</v>
+        <v>45812.63650462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5888,8 +5878,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G70" t="n">
-        <v>0.4</v>
+        <v>4.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5922,38 +5917,18 @@
         <v>0</v>
       </c>
       <c r="R70" s="2" t="inlineStr"/>
-      <c r="T70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y70">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 27366-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45812.64475694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5965,8 +5940,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G71" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6003,14 +5983,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6023,7 +6003,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6060,14 +6040,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6079,8 +6059,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6117,14 +6102,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6137,7 +6122,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>4.5</v>
+        <v>1.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6159,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>45323</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6194,7 +6179,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>1.9</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6231,14 +6216,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45928</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6250,8 +6235,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>2.7</v>
+        <v>1.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6278,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6308,7 +6298,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6345,14 +6335,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45323</v>
+        <v>45125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6365,7 +6355,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6402,14 +6392,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44467</v>
+        <v>44776</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6421,8 +6411,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>3.6</v>
+        <v>1.6</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6459,14 +6454,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44776</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6478,13 +6473,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6521,14 +6511,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45107</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6541,7 +6531,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.1</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6578,14 +6568,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44953</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6598,7 +6588,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6635,14 +6625,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>45928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6655,7 +6645,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6692,14 +6682,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6712,7 +6702,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6749,14 +6739,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6768,8 +6758,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>1</v>
+        <v>3.3</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6806,14 +6801,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6825,8 +6820,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6863,14 +6863,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45125</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6883,7 +6883,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.9</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6920,14 +6920,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44795</v>
+        <v>44973</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6939,13 +6939,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>6.7</v>
+        <v>2.1</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6982,14 +6977,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>45107</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7002,7 +6997,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7039,14 +7034,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7058,8 +7053,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>2.5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7096,14 +7096,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44370</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7115,13 +7115,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7158,14 +7153,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7177,13 +7172,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7220,14 +7210,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45125</v>
+        <v>44370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7239,8 +7229,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7277,14 +7272,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44711</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7297,7 +7292,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.7</v>
+        <v>1.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7334,14 +7329,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44796</v>
+        <v>45125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7353,13 +7348,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F95" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G95" t="n">
-        <v>4.6</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7396,14 +7386,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45713</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7415,13 +7405,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>6.8</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7458,14 +7443,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45330</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7478,7 +7463,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.5</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7515,14 +7500,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44951</v>
+        <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7534,8 +7519,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7572,14 +7562,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45433</v>
+        <v>44435</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7592,7 +7582,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7629,14 +7619,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45005</v>
+        <v>45330</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7649,7 +7639,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7686,14 +7676,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44642</v>
+        <v>44796</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7711,7 +7701,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.8</v>
+        <v>4.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7748,14 +7738,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44973</v>
+        <v>45433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7768,7 +7758,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.1</v>
+        <v>3.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7805,14 +7795,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45264</v>
+        <v>45005</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7825,7 +7815,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.1</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7862,14 +7852,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>45264</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7882,7 +7872,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7919,14 +7909,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7939,7 +7929,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7976,14 +7966,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7996,7 +7986,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>5</v>
+        <v>3.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8033,14 +8023,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>44953</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8052,13 +8042,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8095,14 +8080,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>44456</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8115,7 +8100,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>1.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8152,14 +8137,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 17978-2021</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44301</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8172,7 +8157,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8209,14 +8194,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 22785-2025</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45789.64186342592</v>
+        <v>44795</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8228,8 +8213,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>6.7</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8266,14 +8256,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44638</v>
+        <v>45713.6275</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8285,8 +8275,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>8.6</v>
+        <v>4</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8323,14 +8318,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8343,7 +8338,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.8</v>
+        <v>1.9</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8380,14 +8375,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44725</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8400,7 +8395,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>10.7</v>
+        <v>0.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8437,14 +8432,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8457,7 +8452,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8494,14 +8489,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 26160-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>45468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8514,7 +8509,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.2</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8547,18 +8542,38 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="inlineStr"/>
+      <c r="T115">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V115">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W115">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X115">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y115">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 27357-2025</t>
+          <t>A 63075-2023</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45812.63650462963</v>
+        <v>45273</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8570,13 +8585,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>4.5</v>
+        <v>1.1</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8613,14 +8623,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8632,13 +8642,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>2.5</v>
+        <v>6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8672,17 +8677,17 @@
       </c>
       <c r="R117" s="2" t="inlineStr"/>
     </row>
-    <row r="118">
+    <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46059</v>
+        <v>46060</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8694,13 +8699,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8733,6 +8733,63 @@
         <v>0</v>
       </c>
       <c r="R118" s="2" t="inlineStr"/>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>A 12534-2022</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>44638</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>46060</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>45736.54759259259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45887.5609375</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45820.44920138889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>44838</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>45994.36274305556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>44953</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45736.54974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45175</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45820.46159722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45826.48184027777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>45923</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45849.47128472223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44984</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>45569.44700231482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>46041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44270</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>45796.4959375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44747</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44742.55567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>44951</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44642</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45736.53827546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>45280</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45169.62733796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44725</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45621.87075231481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45805.48349537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>45805.4490162037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45812.63650462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>45812.64475694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45902.67887731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45820.45572916666</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45903.45767361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45323</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45904.55591435185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45911.61123842592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44776</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45923.46512731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45923.65313657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45273.82195601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45670.60094907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45867.61736111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45713.6596875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45671.42195601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44973</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45107</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45713.63512731482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45348.82498842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45994.36873842592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>46002.58388888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44840.65100694444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>46059.51359953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44435</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45330</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44796</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45005</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45264</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45385.60065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44953</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44456</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45385.60111111111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44795</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45713.6275</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45439.44748842593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>45758.41846064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45774.60741898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45273</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45789.64186342592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46060</v>
+        <v>46061</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>45736.54759259259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45887.5609375</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45820.44920138889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>44838</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2536,7 +2536,7 @@
         <v>44796</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2631,7 +2631,7 @@
         <v>45994.36274305556</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2808,7 +2808,7 @@
         <v>44837</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2894,7 +2894,7 @@
         <v>44953</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45736.54974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45175</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45820.46159722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3509,7 +3509,7 @@
         <v>45826.48184027777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45084</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3679,7 +3679,7 @@
         <v>45923</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3764,7 +3764,7 @@
         <v>45849.47128472223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3849,7 +3849,7 @@
         <v>44984</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3934,7 +3934,7 @@
         <v>45569.44700231482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4019,7 +4019,7 @@
         <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4104,7 +4104,7 @@
         <v>46041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44270</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>45796.4959375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44747</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44742.55567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>44951</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44642</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45736.53827546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5467,7 +5467,7 @@
         <v>45280</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5524,7 +5524,7 @@
         <v>45169.62733796296</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5581,7 +5581,7 @@
         <v>44725</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5638,7 +5638,7 @@
         <v>44711</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5695,7 +5695,7 @@
         <v>45621.87075231481</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5752,7 +5752,7 @@
         <v>45805.48349537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5809,7 +5809,7 @@
         <v>45805.4490162037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5866,7 +5866,7 @@
         <v>45812.63650462963</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5928,7 +5928,7 @@
         <v>45812.64475694444</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5990,7 +5990,7 @@
         <v>45902.67887731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6047,7 +6047,7 @@
         <v>45820.45572916666</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6109,7 +6109,7 @@
         <v>45903.45767361111</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6166,7 +6166,7 @@
         <v>45323</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6223,7 +6223,7 @@
         <v>45904.55591435185</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6285,7 +6285,7 @@
         <v>45911.61123842592</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6342,7 +6342,7 @@
         <v>45125</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6399,7 +6399,7 @@
         <v>44776</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6461,7 +6461,7 @@
         <v>45923.46512731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6518,7 +6518,7 @@
         <v>45923.65313657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6575,7 +6575,7 @@
         <v>45273.82195601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6632,7 +6632,7 @@
         <v>45928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6689,7 +6689,7 @@
         <v>45670.60094907408</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6746,7 +6746,7 @@
         <v>45867.61736111111</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6808,7 +6808,7 @@
         <v>45713.6596875</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6870,7 +6870,7 @@
         <v>45671.42195601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6927,7 +6927,7 @@
         <v>44973</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6984,7 +6984,7 @@
         <v>45107</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7041,7 +7041,7 @@
         <v>45713.63512731482</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7103,7 +7103,7 @@
         <v>45348.82498842593</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7160,7 +7160,7 @@
         <v>45994.36873842592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7217,7 +7217,7 @@
         <v>44370</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7279,7 +7279,7 @@
         <v>46002.58388888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7336,7 +7336,7 @@
         <v>45125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7393,7 +7393,7 @@
         <v>44840.65100694444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7450,7 +7450,7 @@
         <v>46059.51359953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7507,7 +7507,7 @@
         <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7569,7 +7569,7 @@
         <v>44435</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7626,7 +7626,7 @@
         <v>45330</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7683,7 +7683,7 @@
         <v>44796</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7745,7 +7745,7 @@
         <v>45433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7802,7 +7802,7 @@
         <v>45005</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7859,7 +7859,7 @@
         <v>45264</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7916,7 +7916,7 @@
         <v>45385.60065972222</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7973,7 +7973,7 @@
         <v>44467</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8030,7 +8030,7 @@
         <v>44953</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8087,7 +8087,7 @@
         <v>44456</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8144,7 +8144,7 @@
         <v>45385.60111111111</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8201,7 +8201,7 @@
         <v>44795</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8263,7 +8263,7 @@
         <v>45713.6275</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8325,7 +8325,7 @@
         <v>45439.44748842593</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8382,7 +8382,7 @@
         <v>45758.41846064815</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8439,7 +8439,7 @@
         <v>45774.60741898148</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8496,7 +8496,7 @@
         <v>45468</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8573,7 +8573,7 @@
         <v>45273</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8630,7 +8630,7 @@
         <v>44301</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8687,7 +8687,7 @@
         <v>45789.64186342592</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8744,7 +8744,7 @@
         <v>44638</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46061</v>
+        <v>46062</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,14 +2167,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 13556-2025</t>
+          <t>A 28779-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45736.54759259259</v>
+        <v>45820.44920138889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,8 +2186,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2196,7 +2201,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2211,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2221,752 +2226,747 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 38860-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45887.5609375</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 32174-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Tvåblad</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 13556-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45736.54759259259</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Tvåblad
 Nattviol</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 38860-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45887.5609375</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H20" t="n">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 60140-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45994.36274305556</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R23" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 28779-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45820.44920138889</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H24" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 44008-2022</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H22" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 34944-2022</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 4164-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 43756-2022</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 44008-2022</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46063</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G23" t="n">
+      <c r="G27" t="n">
         <v>1.7</v>
       </c>
-      <c r="H23" t="n">
+      <c r="H27" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
+      <c r="I27" t="n">
+        <v>0</v>
+      </c>
+      <c r="J27" t="n">
         <v>2</v>
       </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
         <v>2</v>
       </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 60140-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45994.36274305556</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>2</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 32174-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44781</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Tvåblad</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 43756-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 4164-2023</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46062</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Blåsippa</t>
-        </is>
-      </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Z27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
         <v/>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3153,14 +3153,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24701-2023</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45084</v>
+        <v>44280</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3197,55 +3197,55 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>44984</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,16 +3258,16 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>1.2</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>0</v>
@@ -3282,7 +3282,7 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3292,45 +3292,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45175</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3342,8 +3342,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G32" t="n">
-        <v>5</v>
+        <v>2.3</v>
       </c>
       <c r="H32" t="n">
         <v>1</v>
@@ -3352,7 +3357,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3367,7 +3372,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3377,45 +3382,49 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z32">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3427,13 +3436,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G33" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3442,7 +3446,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -3457,7 +3461,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3467,49 +3471,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>44270</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3522,23 +3522,23 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>3.3</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
+        <v>0</v>
+      </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
+        <v>0</v>
+      </c>
+      <c r="L34" t="n">
         <v>1</v>
       </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
-        <v>0</v>
-      </c>
-      <c r="L34" t="n">
-        <v>0</v>
-      </c>
       <c r="M34" t="n">
         <v>0</v>
       </c>
@@ -3546,55 +3546,55 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 34885-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45084</v>
+        <v>45849.47128472223</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3607,7 +3607,7 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3616,13 +3616,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -3634,52 +3634,52 @@
         <v>1</v>
       </c>
       <c r="P35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>1</v>
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Backfryle</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 45693-2025</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45923</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3726,45 +3726,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Stjälkröksvamp</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34885-2025</t>
+          <t>A 24701-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45849.47128472223</v>
+        <v>45084</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3786,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
         <v>1</v>
-      </c>
-      <c r="K37" t="n">
-        <v>0</v>
-      </c>
-      <c r="L37" t="n">
-        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3804,52 +3804,52 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Backfryle</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 45693-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>44984</v>
+        <v>45923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,31 +3862,31 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>1.2</v>
+        <v>4.8</v>
       </c>
       <c r="H38" t="n">
+        <v>0</v>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
         <v>1</v>
       </c>
-      <c r="I38" t="n">
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
+        <v>0</v>
+      </c>
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="n">
+        <v>0</v>
+      </c>
+      <c r="O38" t="n">
         <v>1</v>
-      </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
-      </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="n">
-        <v>0</v>
-      </c>
-      <c r="O38" t="n">
-        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3896,31 +3896,31 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Stjälkröksvamp</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
     </row>
@@ -3934,7 +3934,7 @@
         <v>45569.44700231482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -4012,14 +4012,14 @@
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44280</v>
+        <v>45084</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,65 +4032,65 @@
         </is>
       </c>
       <c r="G40" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
         <v>1</v>
       </c>
-      <c r="H40" t="n">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
+      <c r="P40" t="n">
         <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
-      </c>
-      <c r="P40" t="n">
-        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         <v>46041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,14 +4182,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 24048-2025</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44270</v>
+        <v>45796.4959375</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1.2</v>
+        <v>2</v>
       </c>
       <c r="H42" t="n">
         <v>0</v>
@@ -4211,13 +4211,13 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4229,52 +4229,52 @@
         <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Loppstarr</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 24048-2025</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45796.4959375</v>
+        <v>45175</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4287,16 +4287,16 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K43" t="n">
         <v>0</v>
@@ -4311,7 +4311,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4321,31 +4321,31 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Loppstarr</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4585,14 +4585,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 28345-2022</t>
+          <t>A 10348-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44747</v>
+        <v>44623</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4605,7 +4605,7 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4642,14 +4642,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 10348-2022</t>
+          <t>A 28345-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44623</v>
+        <v>44747</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4662,7 +4662,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>0.4</v>
+        <v>1.5</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44742.55567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5222,14 +5222,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44951</v>
+        <v>44776</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5241,8 +5241,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5279,14 +5284,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44642</v>
+        <v>45713.6275</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5304,7 +5309,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5341,14 +5346,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 26160-2024</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45713</v>
+        <v>45468</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5360,13 +5365,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G61" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5399,18 +5399,38 @@
         <v>0</v>
       </c>
       <c r="R61" s="2" t="inlineStr"/>
+      <c r="T61">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V61">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W61">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X61">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y61">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5423,7 +5443,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>1.9</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5460,14 +5480,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45280</v>
+        <v>45323</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5480,7 +5500,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5517,14 +5537,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5536,8 +5556,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G64" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5574,14 +5599,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44725</v>
+        <v>44467</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5594,7 +5619,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>10.7</v>
+        <v>3.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5631,14 +5656,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44711</v>
+        <v>44776</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5650,8 +5675,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G66" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5688,14 +5718,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>45107</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5708,7 +5738,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.7</v>
+        <v>4.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5745,14 +5775,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5765,7 +5795,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>1.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5802,14 +5832,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>44953</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5822,7 +5852,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.7</v>
+        <v>0.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5859,14 +5889,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 27357-2025</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45812.63650462963</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5884,7 +5914,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5921,14 +5951,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5940,13 +5970,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F71" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G71" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5983,14 +6008,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6002,8 +6027,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>3.3</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6040,14 +6070,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6059,13 +6089,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6102,14 +6127,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6122,7 +6147,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.8</v>
+        <v>1</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6159,14 +6184,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45323</v>
+        <v>45125</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6179,7 +6204,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>2.9</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6216,14 +6241,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6235,13 +6260,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>1.7</v>
+        <v>5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6278,14 +6298,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6298,7 +6318,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6335,14 +6355,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45125</v>
+        <v>44370</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6354,8 +6374,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6392,14 +6417,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44776</v>
+        <v>45928</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6411,13 +6436,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>1.6</v>
+        <v>2.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6454,14 +6474,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6474,7 +6494,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6511,14 +6531,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45280</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6531,7 +6551,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>1.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6568,14 +6588,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>44435</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6588,7 +6608,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>5</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6625,14 +6645,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 63075-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45928</v>
+        <v>45273</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6645,7 +6665,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>1.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6682,14 +6702,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>44456</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6702,7 +6722,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.4</v>
+        <v>1.6</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6739,14 +6759,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6758,13 +6778,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>3.3</v>
+        <v>1.4</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6801,14 +6816,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6820,13 +6835,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6863,14 +6873,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6883,7 +6893,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>2.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6920,14 +6930,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44973</v>
+        <v>44795</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6939,8 +6949,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>2.1</v>
+        <v>6.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6977,14 +6992,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45107</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6997,7 +7012,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>4.1</v>
+        <v>0.7</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7034,14 +7049,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7053,13 +7068,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>2.5</v>
+        <v>0.6</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7096,14 +7106,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7115,8 +7125,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>2.3</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7160,7 +7175,7 @@
         <v>45994.36873842592</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7210,14 +7225,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44370</v>
+        <v>45125</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7229,13 +7244,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7279,7 +7289,7 @@
         <v>46002.58388888889</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7329,14 +7339,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45125</v>
+        <v>44711</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7349,7 +7359,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>4.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7386,14 +7396,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>44796</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7405,8 +7415,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7443,14 +7458,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>45713</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7462,8 +7477,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>6.8</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7500,14 +7520,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44776</v>
+        <v>45330</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7519,13 +7539,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7562,14 +7577,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44435</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7582,7 +7597,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>1.9</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7619,14 +7634,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45330</v>
+        <v>44951</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7639,7 +7654,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7676,14 +7691,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44796</v>
+        <v>45433</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7695,13 +7710,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>4.6</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7738,14 +7748,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45433</v>
+        <v>45005</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7758,7 +7768,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>0.8</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7795,14 +7805,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45005</v>
+        <v>44642</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7814,8 +7824,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7852,14 +7867,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45264</v>
+        <v>44973</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7872,7 +7887,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>2.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7909,14 +7924,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>45264</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7929,7 +7944,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.5</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7966,14 +7981,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>44467</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7986,7 +8001,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>3.6</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8023,14 +8038,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44953</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8043,7 +8058,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8080,14 +8095,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44456</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8100,7 +8115,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>1.6</v>
+        <v>5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8137,14 +8152,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8156,8 +8171,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>0.4</v>
+        <v>2.5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8194,14 +8214,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44795</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8213,13 +8233,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>6.7</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8256,14 +8271,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45713.6275</v>
+        <v>44301</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8275,13 +8290,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8318,14 +8328,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8338,7 +8348,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8375,14 +8385,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>44638</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8395,7 +8405,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.7</v>
+        <v>8.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8432,14 +8442,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8452,7 +8462,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>3.8</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8489,14 +8499,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45468</v>
+        <v>44725</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8509,7 +8519,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8542,38 +8552,18 @@
         <v>0</v>
       </c>
       <c r="R115" s="2" t="inlineStr"/>
-      <c r="T115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y115">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45273</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8586,7 +8576,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.1</v>
+        <v>3.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8623,14 +8613,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 17978-2021</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44301</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8643,7 +8633,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>6</v>
+        <v>3.2</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8680,14 +8670,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 22785-2025</t>
+          <t>A 27357-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45789.64186342592</v>
+        <v>45812.63650462963</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8699,8 +8689,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G118" t="n">
-        <v>0.6</v>
+        <v>4.5</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8737,14 +8732,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 27366-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>44638</v>
+        <v>45812.64475694444</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46062</v>
+        <v>46063</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8756,8 +8751,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G119" t="n">
-        <v>8.6</v>
+        <v>2.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1436,14 +1436,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 32178-2022</t>
+          <t>A 9028-2025</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>44781</v>
+        <v>45713</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,39 +1461,134 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
         <v>1</v>
       </c>
-      <c r="I11" t="n">
-        <v>2</v>
-      </c>
       <c r="J11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="K11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="P11" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q11" t="n">
         <v>6</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Gulsträngad fagerspindling
+Kopparspindling
+Sydlig gyllenspindling
+Persiljespindling
+Trollspindling
+Brandmusseron</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9028-2025 artfynd.xlsx", "A 9028-2025")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9028-2025 karta.png", "A 9028-2025")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9028-2025 FSC-klagomål.docx", "A 9028-2025")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9028-2025 FSC-klagomål mail.docx", "A 9028-2025")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9028-2025 tillsynsbegäran.docx", "A 9028-2025")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9028-2025 tillsynsbegäran mail.docx", "A 9028-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 32178-2022</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>2</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>4</v>
+      </c>
+      <c r="P12" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Järnek
 Skogsalm
@@ -1503,127 +1598,32 @@
 Kamjordstjärna</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32178-2022 artfynd.xlsx", "A 32178-2022")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32178-2022 karta.png", "A 32178-2022")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32178-2022 FSC-klagomål.docx", "A 32178-2022")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32178-2022 FSC-klagomål mail.docx", "A 32178-2022")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32178-2022 tillsynsbegäran.docx", "A 32178-2022")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32178-2022 tillsynsbegäran mail.docx", "A 32178-2022")</f>
         <v/>
       </c>
-      <c r="Z11">
+      <c r="Z12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 32178-2022 prioriterade fågelarter.docx", "A 32178-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 9028-2025</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>45713</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>1</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1</v>
-      </c>
-      <c r="K12" t="n">
-        <v>3</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>5</v>
-      </c>
-      <c r="P12" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Gulsträngad fagerspindling
-Kopparspindling
-Sydlig gyllenspindling
-Persiljespindling
-Trollspindling
-Brandmusseron</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9028-2025 artfynd.xlsx", "A 9028-2025")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9028-2025 karta.png", "A 9028-2025")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9028-2025 FSC-klagomål.docx", "A 9028-2025")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9028-2025 FSC-klagomål mail.docx", "A 9028-2025")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9028-2025 tillsynsbegäran.docx", "A 9028-2025")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9028-2025 tillsynsbegäran mail.docx", "A 9028-2025")</f>
         <v/>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,14 +2167,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28779-2025</t>
+          <t>A 4164-2023</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45820.44920138889</v>
+        <v>44953</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,22 +2186,17 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>3.3</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2216,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2226,747 +2221,752 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Murgröna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 38860-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45887.5609375</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 13556-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45736.54759259259</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Tvåblad
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 28779-2025</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>45820.44920138889</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 38860-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45887.5609375</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H20" t="n">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 44008-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H23" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Z24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 60140-2025</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>45994.36274305556</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="I25" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 32174-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44781</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C26" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G26" t="n">
         <v>1.6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J26" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Tvåblad</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 13556-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45736.54759259259</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H22" t="n">
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 43756-2022</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46064</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Tvåblad
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 60140-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45994.36274305556</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 34944-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 4164-2023</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 43756-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S26">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 44008-2022</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46063</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>0</v>
-      </c>
-      <c r="J27" t="n">
-        <v>2</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>2</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Z27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
         <v/>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3153,14 +3153,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 24701-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44280</v>
+        <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,79 +3173,79 @@
         </is>
       </c>
       <c r="G30" t="n">
+        <v>3</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="H30" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="P30" t="n">
         <v>1</v>
-      </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44984</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,31 +3258,31 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
+        <v>0</v>
+      </c>
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
       </c>
       <c r="P31" t="n">
         <v>0</v>
@@ -3292,45 +3292,45 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 24048-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>45796.4959375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3342,16 +3342,11 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G32" t="n">
-        <v>2.3</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3382,49 +3377,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Loppstarr</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>45175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3437,7 +3428,7 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
         <v>1</v>
@@ -3471,45 +3462,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44270</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3521,23 +3512,28 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
         <v>0</v>
@@ -3549,52 +3545,56 @@
         <v>1</v>
       </c>
       <c r="P34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>1</v>
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 34885-2025</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45849.47128472223</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3607,16 +3607,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3631,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3641,45 +3641,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Backfryle</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 34885-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>45849.47128472223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>0.7</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3726,45 +3726,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Backfryle</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24701-2023</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
         <v>45084</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3815,27 +3815,27 @@
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
         <v>45923</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3927,14 +3927,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 43603-2024</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45569.44700231482</v>
+        <v>44984</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,19 +3947,19 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -3971,55 +3971,55 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 43603-2024</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45084</v>
+        <v>45569.44700231482</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,10 +4032,10 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -4044,10 +4044,10 @@
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
         <v>0</v>
@@ -4066,45 +4066,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>46041</v>
+        <v>44280</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4117,13 +4117,13 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.9</v>
+        <v>1</v>
       </c>
       <c r="H41" t="n">
         <v>1</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -4151,45 +4151,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 24048-2025</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45796.4959375</v>
+        <v>46041</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,16 +4202,16 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>2</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -4226,7 +4226,7 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -4236,45 +4236,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Loppstarr</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>45175</v>
+        <v>44270</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4287,23 +4287,23 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
@@ -4311,41 +4311,41 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44623</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44747</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44742.55567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5222,14 +5222,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44776</v>
+        <v>44951</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5241,13 +5241,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G59" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5284,14 +5279,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45713.6275</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5303,13 +5298,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>4</v>
+        <v>0.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5346,14 +5336,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45468</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5366,7 +5356,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5399,38 +5389,18 @@
         <v>0</v>
       </c>
       <c r="R61" s="2" t="inlineStr"/>
-      <c r="T61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y61">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 26160-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>45468</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5443,7 +5413,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5476,18 +5446,38 @@
         <v>0</v>
       </c>
       <c r="R62" s="2" t="inlineStr"/>
+      <c r="T62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y62">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45323</v>
+        <v>44642</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5499,8 +5489,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G63" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5537,14 +5532,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45713</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5562,7 +5557,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.8</v>
+        <v>6.8</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5599,14 +5594,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44467</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5619,7 +5614,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.6</v>
+        <v>1</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5656,14 +5651,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44776</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5675,13 +5670,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G66" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5718,14 +5708,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 63075-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45107</v>
+        <v>45273</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5738,7 +5728,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>4.1</v>
+        <v>1.1</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5775,14 +5765,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5795,7 +5785,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.5</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5832,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44953</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5851,8 +5841,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G69" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5889,14 +5884,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>45280</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5908,13 +5903,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F70" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G70" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5951,14 +5941,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>44301</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5971,7 +5961,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.8</v>
+        <v>6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6008,14 +5998,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6027,13 +6017,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>3.3</v>
+        <v>2.4</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6070,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6090,7 +6075,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>0.6</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6127,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>44711</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6147,7 +6132,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1</v>
+        <v>4.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6184,14 +6169,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45125</v>
+        <v>44638</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6204,7 +6189,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>2.9</v>
+        <v>8.6</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6241,14 +6226,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6261,7 +6246,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>5</v>
+        <v>0.7</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6298,14 +6283,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6318,7 +6303,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.5</v>
+        <v>3.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6355,14 +6340,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44370</v>
+        <v>44725</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6374,13 +6359,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>2.8</v>
+        <v>10.7</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6417,14 +6397,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45928</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6437,7 +6417,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6474,14 +6454,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6494,7 +6474,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>2.4</v>
+        <v>3.2</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6531,14 +6511,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45280</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6551,7 +6531,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>1.2</v>
+        <v>3.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6588,14 +6568,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>44435</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6608,7 +6588,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.4</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6645,14 +6625,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 27357-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45273</v>
+        <v>45812.63650462963</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6664,8 +6644,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G83" t="n">
-        <v>1.1</v>
+        <v>4.5</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6702,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 27366-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44456</v>
+        <v>45812.64475694444</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6721,8 +6706,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>1.6</v>
+        <v>2.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6759,14 +6749,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>45323</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6779,7 +6769,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.4</v>
+        <v>0.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6816,14 +6806,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6835,8 +6825,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>0.7</v>
+        <v>0.8</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6873,14 +6868,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>45928</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6893,7 +6888,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.3</v>
+        <v>2.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6930,14 +6925,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44795</v>
+        <v>45125</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6949,13 +6944,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>6.7</v>
+        <v>2.9</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6992,14 +6982,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>44776</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7011,8 +7001,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G89" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7049,14 +7044,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7069,7 +7064,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.6</v>
+        <v>5</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7106,14 +7101,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7125,13 +7120,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7168,14 +7158,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7187,8 +7177,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>0.7</v>
+        <v>3.3</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7225,14 +7220,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45125</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7244,8 +7239,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G93" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7282,14 +7282,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7302,7 +7302,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7339,14 +7339,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44711</v>
+        <v>44973</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7359,7 +7359,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>4.7</v>
+        <v>2.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7396,14 +7396,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44796</v>
+        <v>45107</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7415,13 +7415,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>4.6</v>
+        <v>4.1</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7458,14 +7453,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45713</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7483,7 +7478,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>6.8</v>
+        <v>2.5</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7520,14 +7515,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45330</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7540,7 +7535,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.5</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7577,14 +7572,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7597,7 +7592,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.9</v>
+        <v>0.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7634,14 +7629,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44951</v>
+        <v>44370</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7653,8 +7648,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G100" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7691,14 +7691,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45433</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7711,7 +7711,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7748,14 +7748,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45005</v>
+        <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7768,7 +7768,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7805,14 +7805,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44642</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7824,13 +7824,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F103" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G103" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7867,14 +7862,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44973</v>
+        <v>44776</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7886,8 +7881,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>2.1</v>
+        <v>4.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7924,14 +7924,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45264</v>
+        <v>44435</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7944,7 +7944,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7981,14 +7981,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>45330</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8001,7 +8001,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8038,14 +8038,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>44796</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8057,8 +8057,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8095,14 +8100,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>45433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8115,7 +8120,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8152,14 +8157,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8171,13 +8176,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F109" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8214,14 +8214,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>45005</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8234,7 +8234,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8271,14 +8271,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 17978-2021</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44301</v>
+        <v>45264</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8291,7 +8291,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>6</v>
+        <v>1.1</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8328,14 +8328,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 22785-2025</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45789.64186342592</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8348,7 +8348,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8385,14 +8385,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44638</v>
+        <v>44467</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8405,7 +8405,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>8.6</v>
+        <v>3.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8442,14 +8442,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>44953</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8462,7 +8462,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8499,14 +8499,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44725</v>
+        <v>44456</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8519,7 +8519,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>10.7</v>
+        <v>1.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8556,14 +8556,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8576,7 +8576,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>3.7</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8613,14 +8613,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>44795</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8632,8 +8632,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>3.2</v>
+        <v>6.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8670,14 +8675,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 27357-2025</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45812.63650462963</v>
+        <v>45713.6275</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8695,7 +8700,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8732,14 +8737,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46063</v>
+        <v>46064</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8751,13 +8756,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F119" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G119" t="n">
-        <v>2.5</v>
+        <v>1.9</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,14 +968,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 34948-2022</t>
+          <t>A 37421-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44796</v>
+        <v>44809</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,45 +987,138 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G6" t="n">
-        <v>2.8</v>
+        <v>3.4</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="I6" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
         <v>3</v>
       </c>
-      <c r="L6" t="n">
-        <v>1</v>
-      </c>
-      <c r="M6" t="n">
-        <v>0</v>
-      </c>
-      <c r="N6" t="n">
-        <v>0</v>
-      </c>
-      <c r="O6" t="n">
-        <v>7</v>
-      </c>
       <c r="P6" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>9</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Bredarun
+Höstlåsbräken
+Sammetsfrölöpare
+Murgröna
+Skogsknipprot
+Tvåblad
+Vit skogslilja
+Ögonpyrola
+Fläcknycklar</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 37421-2022 artfynd.xlsx", "A 37421-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 37421-2022 karta.png", "A 37421-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 37421-2022 FSC-klagomål.docx", "A 37421-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 37421-2022 FSC-klagomål mail.docx", "A 37421-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 37421-2022 tillsynsbegäran.docx", "A 37421-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 37421-2022 tillsynsbegäran mail.docx", "A 37421-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 34948-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>3</v>
+      </c>
+      <c r="L7" t="n">
+        <v>1</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>7</v>
+      </c>
+      <c r="P7" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Brödmusseron
 Gulsträngad fagerspindling
@@ -1038,121 +1131,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34948-2022 artfynd.xlsx", "A 34948-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34948-2022 karta.png", "A 34948-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34948-2022 FSC-klagomål.docx", "A 34948-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34948-2022 FSC-klagomål mail.docx", "A 34948-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34948-2022 tillsynsbegäran.docx", "A 34948-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34948-2022 tillsynsbegäran mail.docx", "A 34948-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 37421-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44809</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H7" t="n">
-        <v>6</v>
-      </c>
-      <c r="I7" t="n">
-        <v>5</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>0</v>
-      </c>
-      <c r="L7" t="n">
-        <v>0</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>3</v>
-      </c>
-      <c r="P7" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>9</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Bredarun
-Höstlåsbräken
-Sammetsfrölöpare
-Murgröna
-Skogsknipprot
-Tvåblad
-Vit skogslilja
-Ögonpyrola
-Fläcknycklar</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 37421-2022 artfynd.xlsx", "A 37421-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 37421-2022 karta.png", "A 37421-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 37421-2022 FSC-klagomål.docx", "A 37421-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 37421-2022 FSC-klagomål mail.docx", "A 37421-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 37421-2022 tillsynsbegäran.docx", "A 37421-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 37421-2022 tillsynsbegäran mail.docx", "A 37421-2022")</f>
         <v/>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1436,14 +1436,14 @@
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A 9028-2025</t>
+          <t>A 32178-2022</t>
         </is>
       </c>
       <c r="B11" s="1" t="n">
-        <v>45713</v>
+        <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1461,39 +1461,138 @@
         </is>
       </c>
       <c r="G11" t="n">
-        <v>3</v>
+        <v>3.8</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K11" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="L11" t="n">
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="Q11" t="n">
         <v>6</v>
       </c>
       <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>Järnek
+Skogsalm
+Fyrflikig jordstjärna
+Grönsångare
+Kalktallört
+Kamjordstjärna</t>
+        </is>
+      </c>
+      <c r="S11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32178-2022 artfynd.xlsx", "A 32178-2022")</f>
+        <v/>
+      </c>
+      <c r="T11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32178-2022 karta.png", "A 32178-2022")</f>
+        <v/>
+      </c>
+      <c r="V11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32178-2022 FSC-klagomål.docx", "A 32178-2022")</f>
+        <v/>
+      </c>
+      <c r="W11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32178-2022 FSC-klagomål mail.docx", "A 32178-2022")</f>
+        <v/>
+      </c>
+      <c r="X11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32178-2022 tillsynsbegäran.docx", "A 32178-2022")</f>
+        <v/>
+      </c>
+      <c r="Y11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32178-2022 tillsynsbegäran mail.docx", "A 32178-2022")</f>
+        <v/>
+      </c>
+      <c r="Z11">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 32178-2022 prioriterade fågelarter.docx", "A 32178-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="12" ht="15" customHeight="1">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>A 9028-2025</t>
+        </is>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>45713</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
+        <v>3</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>1</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>5</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>6</v>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
         <is>
           <t>Gulsträngad fagerspindling
 Kopparspindling
@@ -1503,127 +1602,28 @@
 Brandmusseron</t>
         </is>
       </c>
-      <c r="S11">
+      <c r="S12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9028-2025 artfynd.xlsx", "A 9028-2025")</f>
         <v/>
       </c>
-      <c r="T11">
+      <c r="T12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9028-2025 karta.png", "A 9028-2025")</f>
         <v/>
       </c>
-      <c r="V11">
+      <c r="V12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9028-2025 FSC-klagomål.docx", "A 9028-2025")</f>
         <v/>
       </c>
-      <c r="W11">
+      <c r="W12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9028-2025 FSC-klagomål mail.docx", "A 9028-2025")</f>
         <v/>
       </c>
-      <c r="X11">
+      <c r="X12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9028-2025 tillsynsbegäran.docx", "A 9028-2025")</f>
         <v/>
       </c>
-      <c r="Y11">
+      <c r="Y12">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9028-2025 tillsynsbegäran mail.docx", "A 9028-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="12" ht="15" customHeight="1">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>A 32178-2022</t>
-        </is>
-      </c>
-      <c r="B12" s="1" t="n">
-        <v>44781</v>
-      </c>
-      <c r="C12" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G12" t="n">
-        <v>3.8</v>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-      <c r="I12" t="n">
-        <v>2</v>
-      </c>
-      <c r="J12" t="n">
-        <v>2</v>
-      </c>
-      <c r="K12" t="n">
-        <v>0</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>4</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q12" t="n">
-        <v>6</v>
-      </c>
-      <c r="R12" s="2" t="inlineStr">
-        <is>
-          <t>Järnek
-Skogsalm
-Fyrflikig jordstjärna
-Grönsångare
-Kalktallört
-Kamjordstjärna</t>
-        </is>
-      </c>
-      <c r="S12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32178-2022 artfynd.xlsx", "A 32178-2022")</f>
-        <v/>
-      </c>
-      <c r="T12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32178-2022 karta.png", "A 32178-2022")</f>
-        <v/>
-      </c>
-      <c r="V12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32178-2022 FSC-klagomål.docx", "A 32178-2022")</f>
-        <v/>
-      </c>
-      <c r="W12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32178-2022 FSC-klagomål mail.docx", "A 32178-2022")</f>
-        <v/>
-      </c>
-      <c r="X12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32178-2022 tillsynsbegäran.docx", "A 32178-2022")</f>
-        <v/>
-      </c>
-      <c r="Y12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32178-2022 tillsynsbegäran mail.docx", "A 32178-2022")</f>
-        <v/>
-      </c>
-      <c r="Z12">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 32178-2022 prioriterade fågelarter.docx", "A 32178-2022")</f>
         <v/>
       </c>
     </row>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1993,14 +1993,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 16171-2023</t>
+          <t>A 21797-2024</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45027</v>
+        <v>45442.6512037037</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>12.2</v>
+        <v>1.4</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -2046,135 +2046,135 @@
         <v>3</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Skogsknipprot
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 21797-2024 artfynd.xlsx", "A 21797-2024")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 21797-2024 karta.png", "A 21797-2024")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 21797-2024 FSC-klagomål.docx", "A 21797-2024")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 21797-2024 FSC-klagomål mail.docx", "A 21797-2024")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 21797-2024 tillsynsbegäran.docx", "A 21797-2024")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 21797-2024 tillsynsbegäran mail.docx", "A 21797-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 16171-2023</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45027</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>12.2</v>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Sårläka
 Blåsippa</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 16171-2023 artfynd.xlsx", "A 16171-2023")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 16171-2023 karta.png", "A 16171-2023")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 16171-2023 FSC-klagomål.docx", "A 16171-2023")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 16171-2023 FSC-klagomål mail.docx", "A 16171-2023")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 16171-2023 tillsynsbegäran.docx", "A 16171-2023")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 16171-2023 tillsynsbegäran mail.docx", "A 16171-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 21797-2024</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45442.6512037037</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="H18" t="n">
-        <v>2</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Skogsknipprot
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 21797-2024 artfynd.xlsx", "A 21797-2024")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 21797-2024 karta.png", "A 21797-2024")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 21797-2024 FSC-klagomål.docx", "A 21797-2024")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 21797-2024 FSC-klagomål mail.docx", "A 21797-2024")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 21797-2024 tillsynsbegäran.docx", "A 21797-2024")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 21797-2024 tillsynsbegäran mail.docx", "A 21797-2024")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 4164-2023</t>
+          <t>A 28779-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>44953</v>
+        <v>45820.44920138889</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,17 +2186,22 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G19" t="n">
-        <v>3.3</v>
+        <v>4.1</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I19" t="n">
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2211,7 +2216,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2221,752 +2226,747 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Z19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 44008-2022</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>2</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>2</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 32174-2022</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Tvåblad</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 13556-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45736.54759259259</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Tvåblad
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 38860-2025</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>45887.5609375</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 4164-2023</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+      <c r="I25" t="n">
+        <v>1</v>
+      </c>
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
+        <v>0</v>
+      </c>
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>2</v>
+      </c>
+      <c r="R25" s="2" t="inlineStr">
+        <is>
           <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 38860-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45887.5609375</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H20" t="n">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 43756-2022</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 60140-2025</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>45994.36274305556</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46065</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="I27" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 13556-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45736.54759259259</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
-        <v>2</v>
-      </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Tvåblad
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 28779-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45820.44920138889</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>1</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>1</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 44008-2022</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 34944-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
-        <v>2</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>2</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 60140-2025</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>45994.36274305556</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>2</v>
-      </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Strävlosta</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 32174-2022</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44781</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>1</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>1</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Tvåblad</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 43756-2022</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46064</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
         <v/>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3153,14 +3153,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24701-2023</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45084</v>
+        <v>44984</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,13 +3173,13 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -3188,7 +3188,7 @@
         <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -3197,55 +3197,55 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 43603-2024</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>45569.44700231482</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>3.8</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3285,52 +3285,52 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 24048-2025</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45796.4959375</v>
+        <v>44280</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,16 +3343,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3367,7 +3367,7 @@
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3377,45 +3377,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Loppstarr</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45175</v>
+        <v>45084</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3428,23 +3428,23 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>3.5</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
-        <v>0</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
       <c r="M33" t="n">
         <v>0</v>
       </c>
@@ -3452,41 +3452,41 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
@@ -3500,7 +3500,7 @@
         <v>45820.46159722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3594,7 +3594,7 @@
         <v>45826.48184027777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3672,14 +3672,14 @@
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34885-2025</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45849.47128472223</v>
+        <v>44270</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3692,7 +3692,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H36" t="n">
         <v>0</v>
@@ -3701,13 +3701,13 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3719,52 +3719,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Backfryle</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 34885-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45084</v>
+        <v>45849.47128472223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3786,13 +3786,13 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
         <v>0</v>
@@ -3804,52 +3804,52 @@
         <v>1</v>
       </c>
       <c r="P37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
         <v>1</v>
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Backfryle</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 45693-2025</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45923</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3896,45 +3896,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Stjälkröksvamp</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 24701-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44984</v>
+        <v>45084</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,79 +3947,79 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
+        <v>0</v>
+      </c>
+      <c r="O39" t="n">
         <v>1</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="n">
-        <v>0</v>
-      </c>
-      <c r="O39" t="n">
-        <v>0</v>
-      </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 43603-2024</t>
+          <t>A 45693-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45569.44700231482</v>
+        <v>45923</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,19 +4032,19 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>3.8</v>
+        <v>4.8</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
       <c r="K40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
@@ -4059,52 +4059,52 @@
         <v>1</v>
       </c>
       <c r="P40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40" t="n">
         <v>1</v>
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Stjälkröksvamp</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 24048-2025</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>44280</v>
+        <v>45796.4959375</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4117,31 +4117,31 @@
         </is>
       </c>
       <c r="G41" t="n">
+        <v>2</v>
+      </c>
+      <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
         <v>1</v>
       </c>
-      <c r="H41" t="n">
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0</v>
+      </c>
+      <c r="O41" t="n">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>1</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
-      </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="n">
-        <v>0</v>
-      </c>
-      <c r="O41" t="n">
-        <v>0</v>
       </c>
       <c r="P41" t="n">
         <v>0</v>
@@ -4151,45 +4151,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Loppstarr</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46041</v>
+        <v>45175</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,7 +4202,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>5</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -4236,45 +4236,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44270</v>
+        <v>46041</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4287,10 +4287,10 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -4302,7 +4302,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4311,41 +4311,41 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44623</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44747</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4818,14 +4818,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61828-2021</t>
+          <t>A 56983-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44501</v>
+        <v>44482</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4875,14 +4875,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56188-2021</t>
+          <t>A 27437-2022</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44477.83525462963</v>
+        <v>44742.55567129629</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56983-2021</t>
+          <t>A 61828-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44482</v>
+        <v>44501</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4989,14 +4989,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27437-2022</t>
+          <t>A 62631-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44742.55567129629</v>
+        <v>44503</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62631-2021</t>
+          <t>A 32180-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44503</v>
+        <v>44781</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5065,8 +5065,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5103,14 +5108,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32180-2022</t>
+          <t>A 56188-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44781</v>
+        <v>44477.83525462963</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5122,13 +5127,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1.8</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5172,7 +5172,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5222,14 +5222,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44951</v>
+        <v>45280</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>1.2</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5279,14 +5279,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>44435</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5299,7 +5299,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>0.7</v>
+        <v>1.4</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5336,14 +5336,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>44776</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5355,8 +5355,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G61" t="n">
-        <v>0.6</v>
+        <v>1.6</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5393,14 +5398,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45468</v>
+        <v>45713.6275</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5412,8 +5417,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5446,38 +5456,18 @@
         <v>0</v>
       </c>
       <c r="R62" s="2" t="inlineStr"/>
-      <c r="T62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y62">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44642</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5489,13 +5479,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G63" t="n">
-        <v>1.8</v>
+        <v>1.9</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5532,14 +5517,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 63075-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45713</v>
+        <v>45273</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5551,13 +5536,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G64" t="n">
-        <v>6.8</v>
+        <v>1.1</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5594,14 +5574,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>44456</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5614,7 +5594,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1</v>
+        <v>1.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5651,14 +5631,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>45323</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5671,7 +5651,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>0.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5708,14 +5688,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 26160-2024</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45273</v>
+        <v>45468</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5728,7 +5708,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.1</v>
+        <v>0.4</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5761,18 +5741,38 @@
         <v>0</v>
       </c>
       <c r="R67" s="2" t="inlineStr"/>
+      <c r="T67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y67">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5785,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>3.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5822,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5841,13 +5841,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F69" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G69" t="n">
-        <v>1.7</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5884,14 +5879,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45280</v>
+        <v>45005</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5904,7 +5899,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>0.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5941,14 +5936,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 17978-2021</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44301</v>
+        <v>44467</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5961,7 +5956,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>6</v>
+        <v>3.6</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5998,14 +5993,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 27357-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45812.63650462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6017,8 +6012,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6055,14 +6055,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 22785-2025</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45789.64186342592</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6075,7 +6075,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6112,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 27366-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>44711</v>
+        <v>45812.64475694444</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6131,8 +6131,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>4.7</v>
+        <v>2.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6169,14 +6174,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>44638</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6189,7 +6194,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6226,14 +6231,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6246,7 +6251,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6283,14 +6288,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6302,8 +6307,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G77" t="n">
-        <v>3.8</v>
+        <v>0.8</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6340,14 +6350,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44725</v>
+        <v>44776</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6359,8 +6369,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>10.7</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6397,14 +6412,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>44795</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6416,8 +6431,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>6.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6454,14 +6474,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>45107</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6474,7 +6494,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>3.2</v>
+        <v>4.1</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6511,14 +6531,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6531,7 +6551,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>3.7</v>
+        <v>0.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6568,14 +6588,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6588,7 +6608,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6625,14 +6645,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 27357-2025</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45812.63650462963</v>
+        <v>44953</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6644,13 +6664,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F83" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G83" t="n">
-        <v>4.5</v>
+        <v>0.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6702,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6712,7 +6727,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.5</v>
+        <v>4.2</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6749,14 +6764,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45323</v>
+        <v>44642</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6768,8 +6783,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>0.5</v>
+        <v>1.8</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6806,14 +6826,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45125</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6825,13 +6845,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>0.8</v>
+        <v>2.7</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6868,14 +6883,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45928</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6888,7 +6903,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.7</v>
+        <v>1</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6925,14 +6940,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45125</v>
+        <v>44711</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6945,7 +6960,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>2.9</v>
+        <v>4.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6982,14 +6997,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44776</v>
+        <v>45125</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7001,13 +7016,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F89" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G89" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7044,14 +7054,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7063,8 +7073,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7101,14 +7116,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>44370</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7120,8 +7135,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7158,14 +7178,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>44973</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7177,13 +7197,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>3.3</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7220,14 +7235,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>44796</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7245,7 +7260,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>4.2</v>
+        <v>4.6</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7282,14 +7297,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>45713</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7301,8 +7316,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G94" t="n">
-        <v>1.4</v>
+        <v>6.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7339,14 +7359,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>44973</v>
+        <v>45330</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7359,7 +7379,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.1</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7396,14 +7416,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45107</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7416,7 +7436,7 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>4.1</v>
+        <v>2.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7453,14 +7473,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>45264</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7472,13 +7492,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F97" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G97" t="n">
-        <v>2.5</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7515,14 +7530,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7535,7 +7550,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>0.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7572,14 +7587,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>44951</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7592,7 +7607,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7629,14 +7644,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44370</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7648,13 +7663,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F100" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G100" t="n">
-        <v>2.8</v>
+        <v>1.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7691,14 +7701,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>45433</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7711,7 +7721,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7748,14 +7758,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45125</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7768,7 +7778,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7805,14 +7815,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7825,7 +7835,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7862,14 +7872,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44776</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7887,7 +7897,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.5</v>
+        <v>1.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7924,14 +7934,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44435</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7944,7 +7954,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7981,14 +7991,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45330</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8000,8 +8010,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>2.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8038,14 +8053,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44796</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8057,13 +8072,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.6</v>
+        <v>2.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8100,14 +8110,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45433</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8120,7 +8130,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>0.4</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8157,14 +8167,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8177,7 +8187,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.9</v>
+        <v>5</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8214,14 +8224,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45005</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8234,7 +8244,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.8</v>
+        <v>4.5</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8271,14 +8281,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45264</v>
+        <v>45928</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8291,7 +8301,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.1</v>
+        <v>2.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8328,14 +8338,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>44301</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8348,7 +8358,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.5</v>
+        <v>6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8385,14 +8395,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44467</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8405,7 +8415,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>3.6</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8442,14 +8452,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44953</v>
+        <v>44638</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8462,7 +8472,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>0.6</v>
+        <v>8.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8499,14 +8509,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>44456</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8519,7 +8529,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.6</v>
+        <v>3.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8556,14 +8566,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>44725</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8576,7 +8586,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8613,14 +8623,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44795</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8632,13 +8642,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>6.7</v>
+        <v>0.7</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8675,14 +8680,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45713.6275</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8694,13 +8699,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F118" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G118" t="n">
-        <v>4</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8737,14 +8737,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46064</v>
+        <v>46065</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -968,14 +968,14 @@
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="inlineStr">
         <is>
-          <t>A 37421-2022</t>
+          <t>A 34948-2022</t>
         </is>
       </c>
       <c r="B6" s="1" t="n">
-        <v>44809</v>
+        <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -987,23 +987,28 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G6" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H6" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="J6" t="n">
         <v>3</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -1012,15 +1017,108 @@
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="Q6" t="n">
         <v>9</v>
       </c>
       <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>Brödmusseron
+Gulsträngad fagerspindling
+Skillerticka
+Svartgrön spindling
+Bittermusseron
+Juvelspindling
+Persiljespindling
+Fransig jordstjärna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34948-2022 artfynd.xlsx", "A 34948-2022")</f>
+        <v/>
+      </c>
+      <c r="T6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34948-2022 karta.png", "A 34948-2022")</f>
+        <v/>
+      </c>
+      <c r="V6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34948-2022 FSC-klagomål.docx", "A 34948-2022")</f>
+        <v/>
+      </c>
+      <c r="W6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34948-2022 FSC-klagomål mail.docx", "A 34948-2022")</f>
+        <v/>
+      </c>
+      <c r="X6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34948-2022 tillsynsbegäran.docx", "A 34948-2022")</f>
+        <v/>
+      </c>
+      <c r="Y6">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34948-2022 tillsynsbegäran mail.docx", "A 34948-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" ht="15" customHeight="1">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>A 37421-2022</t>
+        </is>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>44809</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+      <c r="I7" t="n">
+        <v>5</v>
+      </c>
+      <c r="J7" t="n">
+        <v>3</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>3</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>9</v>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
         <is>
           <t>Bredarun
 Höstlåsbräken
@@ -1033,126 +1131,28 @@
 Fläcknycklar</t>
         </is>
       </c>
-      <c r="S6">
+      <c r="S7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 37421-2022 artfynd.xlsx", "A 37421-2022")</f>
         <v/>
       </c>
-      <c r="T6">
+      <c r="T7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 37421-2022 karta.png", "A 37421-2022")</f>
         <v/>
       </c>
-      <c r="V6">
+      <c r="V7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 37421-2022 FSC-klagomål.docx", "A 37421-2022")</f>
         <v/>
       </c>
-      <c r="W6">
+      <c r="W7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 37421-2022 FSC-klagomål mail.docx", "A 37421-2022")</f>
         <v/>
       </c>
-      <c r="X6">
+      <c r="X7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 37421-2022 tillsynsbegäran.docx", "A 37421-2022")</f>
         <v/>
       </c>
-      <c r="Y6">
+      <c r="Y7">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 37421-2022 tillsynsbegäran mail.docx", "A 37421-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="7" ht="15" customHeight="1">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>A 34948-2022</t>
-        </is>
-      </c>
-      <c r="B7" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C7" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G7" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>1</v>
-      </c>
-      <c r="J7" t="n">
-        <v>3</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3</v>
-      </c>
-      <c r="L7" t="n">
-        <v>1</v>
-      </c>
-      <c r="M7" t="n">
-        <v>0</v>
-      </c>
-      <c r="N7" t="n">
-        <v>0</v>
-      </c>
-      <c r="O7" t="n">
-        <v>7</v>
-      </c>
-      <c r="P7" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>9</v>
-      </c>
-      <c r="R7" s="2" t="inlineStr">
-        <is>
-          <t>Brödmusseron
-Gulsträngad fagerspindling
-Skillerticka
-Svartgrön spindling
-Bittermusseron
-Juvelspindling
-Persiljespindling
-Fransig jordstjärna
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34948-2022 artfynd.xlsx", "A 34948-2022")</f>
-        <v/>
-      </c>
-      <c r="T7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34948-2022 karta.png", "A 34948-2022")</f>
-        <v/>
-      </c>
-      <c r="V7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34948-2022 FSC-klagomål.docx", "A 34948-2022")</f>
-        <v/>
-      </c>
-      <c r="W7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34948-2022 FSC-klagomål mail.docx", "A 34948-2022")</f>
-        <v/>
-      </c>
-      <c r="X7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34948-2022 tillsynsbegäran.docx", "A 34948-2022")</f>
-        <v/>
-      </c>
-      <c r="Y7">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34948-2022 tillsynsbegäran mail.docx", "A 34948-2022")</f>
         <v/>
       </c>
     </row>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -1993,14 +1993,14 @@
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A 21797-2024</t>
+          <t>A 16171-2023</t>
         </is>
       </c>
       <c r="B17" s="1" t="n">
-        <v>45442.6512037037</v>
+        <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2013,10 +2013,10 @@
         </is>
       </c>
       <c r="G17" t="n">
-        <v>1.4</v>
+        <v>12.2</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I17" t="n">
         <v>2</v>
@@ -2046,135 +2046,135 @@
         <v>3</v>
       </c>
       <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Sårläka
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 16171-2023 artfynd.xlsx", "A 16171-2023")</f>
+        <v/>
+      </c>
+      <c r="T17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 16171-2023 karta.png", "A 16171-2023")</f>
+        <v/>
+      </c>
+      <c r="V17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 16171-2023 FSC-klagomål.docx", "A 16171-2023")</f>
+        <v/>
+      </c>
+      <c r="W17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 16171-2023 FSC-klagomål mail.docx", "A 16171-2023")</f>
+        <v/>
+      </c>
+      <c r="X17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 16171-2023 tillsynsbegäran.docx", "A 16171-2023")</f>
+        <v/>
+      </c>
+      <c r="Y17">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 16171-2023 tillsynsbegäran mail.docx", "A 16171-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="18" ht="15" customHeight="1">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>A 21797-2024</t>
+        </is>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>45442.6512037037</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+      <c r="I18" t="n">
+        <v>2</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>0</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="n">
+        <v>0</v>
+      </c>
+      <c r="O18" t="n">
+        <v>0</v>
+      </c>
+      <c r="P18" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>3</v>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Skogsknipprot
 Revlummer</t>
         </is>
       </c>
-      <c r="S17">
+      <c r="S18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 21797-2024 artfynd.xlsx", "A 21797-2024")</f>
         <v/>
       </c>
-      <c r="T17">
+      <c r="T18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 21797-2024 karta.png", "A 21797-2024")</f>
         <v/>
       </c>
-      <c r="V17">
+      <c r="V18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 21797-2024 FSC-klagomål.docx", "A 21797-2024")</f>
         <v/>
       </c>
-      <c r="W17">
+      <c r="W18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 21797-2024 FSC-klagomål mail.docx", "A 21797-2024")</f>
         <v/>
       </c>
-      <c r="X17">
+      <c r="X18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 21797-2024 tillsynsbegäran.docx", "A 21797-2024")</f>
         <v/>
       </c>
-      <c r="Y17">
+      <c r="Y18">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 21797-2024 tillsynsbegäran mail.docx", "A 21797-2024")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="18" ht="15" customHeight="1">
-      <c r="A18" t="inlineStr">
-        <is>
-          <t>A 16171-2023</t>
-        </is>
-      </c>
-      <c r="B18" s="1" t="n">
-        <v>45027</v>
-      </c>
-      <c r="C18" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G18" t="n">
-        <v>12.2</v>
-      </c>
-      <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
-        <v>0</v>
-      </c>
-      <c r="L18" t="n">
-        <v>0</v>
-      </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="n">
-        <v>0</v>
-      </c>
-      <c r="O18" t="n">
-        <v>0</v>
-      </c>
-      <c r="P18" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>3</v>
-      </c>
-      <c r="R18" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Sårläka
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 16171-2023 artfynd.xlsx", "A 16171-2023")</f>
-        <v/>
-      </c>
-      <c r="T18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 16171-2023 karta.png", "A 16171-2023")</f>
-        <v/>
-      </c>
-      <c r="V18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 16171-2023 FSC-klagomål.docx", "A 16171-2023")</f>
-        <v/>
-      </c>
-      <c r="W18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 16171-2023 FSC-klagomål mail.docx", "A 16171-2023")</f>
-        <v/>
-      </c>
-      <c r="X18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 16171-2023 tillsynsbegäran.docx", "A 16171-2023")</f>
-        <v/>
-      </c>
-      <c r="Y18">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 16171-2023 tillsynsbegäran mail.docx", "A 16171-2023")</f>
         <v/>
       </c>
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 28779-2025</t>
+          <t>A 13556-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45820.44920138889</v>
+        <v>45736.54759259259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2186,13 +2186,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G19" t="n">
-        <v>4.1</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2201,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
         <v>0</v>
@@ -2216,7 +2211,7 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -2226,503 +2221,508 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Tvåblad
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 38860-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45887.5609375</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 28779-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45820.44920138889</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>1</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>1</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
           <t>Havsörn
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="Z19">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
         <is>
           <t>A 44008-2022</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B22" s="1" t="n">
         <v>44838</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C22" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G22" t="n">
         <v>1.7</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H22" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
         <v>2</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
         <v>2</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z22">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 32174-2022</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>44781</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+      <c r="C24" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
+      <c r="G24" t="n">
         <v>1.6</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>1</v>
       </c>
-      <c r="J21" t="n">
+      <c r="J24" t="n">
         <v>1</v>
       </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Tvåblad</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 34944-2022</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
-      <c r="J22" t="n">
-        <v>2</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>2</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>2</v>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Z22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 13556-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45736.54759259259</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>1</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Tvåblad
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 38860-2025</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>45887.5609375</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
         <v/>
       </c>
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="inlineStr">
         <is>
-          <t>A 4164-2023</t>
+          <t>A 43756-2022</t>
         </is>
       </c>
       <c r="B25" s="1" t="n">
-        <v>44953</v>
+        <v>44837</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2735,7 +2735,7 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H25" t="n">
         <v>1</v>
@@ -2774,41 +2774,41 @@
         </is>
       </c>
       <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
         <v/>
       </c>
     </row>
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43756-2022</t>
+          <t>A 60140-2025</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44837</v>
+        <v>45994.36274305556</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,13 +2821,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>0.8</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
       </c>
       <c r="I26" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2855,118 +2855,118 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 4164-2023</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46066</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
           <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 60140-2025</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>45994.36274305556</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46065</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Strävlosta</t>
-        </is>
-      </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
     </row>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3153,14 +3153,14 @@
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 24701-2023</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>44984</v>
+        <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3173,79 +3173,79 @@
         </is>
       </c>
       <c r="G30" t="n">
-        <v>1.2</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
+        <v>0</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
         <v>1</v>
       </c>
-      <c r="I30" t="n">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
         <v>1</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
-        <v>0</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q30" t="n">
         <v>1</v>
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 43603-2024</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45569.44700231482</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,19 +3258,19 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3.8</v>
+        <v>0.7</v>
       </c>
       <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
       <c r="K31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L31" t="n">
         <v>0</v>
@@ -3285,52 +3285,52 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 24048-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>44280</v>
+        <v>45796.4959375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,31 +3343,31 @@
         </is>
       </c>
       <c r="G32" t="n">
+        <v>2</v>
+      </c>
+      <c r="H32" t="n">
+        <v>0</v>
+      </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
         <v>1</v>
       </c>
-      <c r="H32" t="n">
+      <c r="K32" t="n">
+        <v>0</v>
+      </c>
+      <c r="L32" t="n">
+        <v>0</v>
+      </c>
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
+        <v>0</v>
+      </c>
+      <c r="O32" t="n">
         <v>1</v>
-      </c>
-      <c r="I32" t="n">
-        <v>1</v>
-      </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
-        <v>0</v>
-      </c>
-      <c r="L32" t="n">
-        <v>0</v>
-      </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
-      </c>
-      <c r="O32" t="n">
-        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
@@ -3377,45 +3377,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Loppstarr</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45084</v>
+        <v>45175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3428,10 +3428,10 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3443,7 +3443,7 @@
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -3452,55 +3452,55 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>1</v>
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>46041</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3512,13 +3512,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>3.9</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3527,7 +3522,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3542,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3552,49 +3547,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3606,8 +3597,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3616,7 +3612,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3631,7 +3627,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3641,45 +3637,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>44270</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3692,10 +3692,10 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
@@ -3707,7 +3707,7 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3716,41 +3716,41 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
@@ -3764,7 +3764,7 @@
         <v>45849.47128472223</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3842,14 +3842,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>45084</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3862,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>0.7</v>
+        <v>3.5</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3871,13 +3871,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
+        <v>0</v>
+      </c>
+      <c r="L38" t="n">
         <v>1</v>
-      </c>
-      <c r="K38" t="n">
-        <v>0</v>
-      </c>
-      <c r="L38" t="n">
-        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3889,52 +3889,52 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24701-2023</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45084</v>
+        <v>44984</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,13 +3947,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3962,7 +3962,7 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3971,41 +3971,41 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
@@ -4019,7 +4019,7 @@
         <v>45923</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4097,14 +4097,14 @@
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 24048-2025</t>
+          <t>A 43603-2024</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45796.4959375</v>
+        <v>45569.44700231482</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4117,19 +4117,19 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2</v>
+        <v>3.8</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>1</v>
-      </c>
-      <c r="K41" t="n">
-        <v>0</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -4144,52 +4144,52 @@
         <v>1</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Loppstarr</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45175</v>
+        <v>44280</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,13 +4202,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4236,45 +4236,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46041</v>
+        <v>44270</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4287,23 +4287,23 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.9</v>
+        <v>1.2</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>0</v>
+      </c>
+      <c r="L43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
-        <v>0</v>
-      </c>
-      <c r="L43" t="n">
-        <v>0</v>
-      </c>
       <c r="M43" t="n">
         <v>0</v>
       </c>
@@ -4311,41 +4311,41 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44623</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44747</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4818,14 +4818,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 56983-2021</t>
+          <t>A 61828-2021</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44482</v>
+        <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4838,7 +4838,7 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.2</v>
+        <v>0.5</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4875,14 +4875,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 27437-2022</t>
+          <t>A 56188-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44742.55567129629</v>
+        <v>44477.83525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4895,7 +4895,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>0.6</v>
+        <v>1.8</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4932,14 +4932,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 61828-2021</t>
+          <t>A 56983-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44501</v>
+        <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4952,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>0.5</v>
+        <v>1.2</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4989,14 +4989,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 62631-2021</t>
+          <t>A 27437-2022</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44503</v>
+        <v>44742.55567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5009,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5046,14 +5046,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 32180-2022</t>
+          <t>A 62631-2021</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44781</v>
+        <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5065,13 +5065,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G56" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5108,14 +5103,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 56188-2021</t>
+          <t>A 32180-2022</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44477.83525462963</v>
+        <v>44781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5127,8 +5122,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G57" t="n">
-        <v>1.8</v>
+        <v>0.9</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5172,7 +5172,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5222,14 +5222,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>45280</v>
+        <v>44951</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5242,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.2</v>
+        <v>1.7</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5279,14 +5279,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44435</v>
+        <v>44642</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5298,8 +5298,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.4</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5336,14 +5341,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44776</v>
+        <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5361,7 +5366,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.6</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5398,14 +5403,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45713.6275</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5417,13 +5422,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5460,14 +5460,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>44638</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5517,14 +5517,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45273</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5574,14 +5574,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>44456</v>
+        <v>45280</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.6</v>
+        <v>1.2</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5631,14 +5631,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45323</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>0.5</v>
+        <v>3.8</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5688,14 +5688,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45468</v>
+        <v>44725</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5708,7 +5708,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>0.4</v>
+        <v>10.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5741,38 +5741,18 @@
         <v>0</v>
       </c>
       <c r="R67" s="2" t="inlineStr"/>
-      <c r="T67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y67">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5785,7 +5765,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5822,14 +5802,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5842,7 +5822,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>3.7</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5879,14 +5859,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45005</v>
+        <v>44711</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5899,7 +5879,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5936,14 +5916,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44467</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5956,7 +5936,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.6</v>
+        <v>0.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6000,7 +5980,7 @@
         <v>45812.63650462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6055,14 +6035,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 27366-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>45812.64475694444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6074,8 +6054,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>1.4</v>
+        <v>2.5</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6112,14 +6097,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6137,7 +6122,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>2.5</v>
+        <v>0.8</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6174,14 +6159,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>45323</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6194,7 +6179,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6231,14 +6216,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>45125</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6251,7 +6236,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.3</v>
+        <v>2.9</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6288,14 +6273,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>44776</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6313,7 +6298,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>0.8</v>
+        <v>1.6</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6350,14 +6335,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>44776</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6369,13 +6354,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6412,14 +6392,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>44795</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6431,13 +6411,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G79" t="n">
-        <v>6.7</v>
+        <v>5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6474,14 +6449,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45107</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6494,7 +6469,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>4.1</v>
+        <v>1.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6531,14 +6506,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6550,8 +6525,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>0.7</v>
+        <v>1.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6588,14 +6568,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6607,8 +6587,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>0.6</v>
+        <v>3.3</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6645,14 +6630,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44953</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6665,7 +6650,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6702,14 +6687,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6721,13 +6706,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.2</v>
+        <v>2.4</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6764,14 +6744,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44642</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6789,7 +6769,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>1.8</v>
+        <v>4.2</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6826,14 +6806,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45125</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6846,7 +6826,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>2.7</v>
+        <v>5</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6883,14 +6863,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6903,7 +6883,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6940,14 +6920,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>44711</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6960,7 +6940,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6997,14 +6977,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45125</v>
+        <v>44973</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7017,7 +6997,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.9</v>
+        <v>2.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7054,14 +7034,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>45928</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7073,13 +7053,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>3.3</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7116,14 +7091,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>44370</v>
+        <v>45107</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7135,13 +7110,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7178,14 +7148,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44973</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7197,8 +7167,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>2.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7235,14 +7210,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44796</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7254,13 +7229,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F93" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G93" t="n">
-        <v>4.6</v>
+        <v>2.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7297,14 +7267,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45713</v>
+        <v>44370</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7322,7 +7292,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>6.8</v>
+        <v>2.8</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7359,14 +7329,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45330</v>
+        <v>45125</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7379,7 +7349,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.5</v>
+        <v>2.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7423,7 +7393,7 @@
         <v>44840.65100694444</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7473,14 +7443,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45264</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7493,7 +7463,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>0.7</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7530,14 +7500,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>44776</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7549,8 +7519,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G98" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7587,14 +7562,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44951</v>
+        <v>44435</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7607,7 +7582,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.7</v>
+        <v>1.4</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7644,14 +7619,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>45330</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7664,7 +7639,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7701,14 +7676,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45433</v>
+        <v>44796</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7720,8 +7695,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G101" t="n">
-        <v>3.9</v>
+        <v>4.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7758,14 +7738,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>45433</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7778,7 +7758,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>5</v>
+        <v>3.9</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7815,14 +7795,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>45005</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7835,7 +7815,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7872,14 +7852,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7891,13 +7871,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>1.7</v>
+        <v>1.1</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7934,14 +7909,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45264</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7954,7 +7929,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.8</v>
+        <v>1.1</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7991,14 +7966,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8010,13 +7985,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F106" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>0.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8053,14 +8023,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>44467</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8073,7 +8043,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>2.4</v>
+        <v>3.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8110,14 +8080,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>44953</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8130,7 +8100,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8167,14 +8137,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>44456</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8187,7 +8157,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8224,14 +8194,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8244,7 +8214,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>4.5</v>
+        <v>0.4</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8281,14 +8251,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45928</v>
+        <v>44795</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8300,8 +8270,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8338,14 +8313,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 17978-2021</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44301</v>
+        <v>45713.6275</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,8 +8332,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G112" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8395,14 +8375,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 22785-2025</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45789.64186342592</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8415,7 +8395,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8452,14 +8432,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44638</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8472,7 +8452,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>8.6</v>
+        <v>0.7</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8509,14 +8489,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8529,7 +8509,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8566,14 +8546,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 26160-2024</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44725</v>
+        <v>45468</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8586,7 +8566,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>10.7</v>
+        <v>0.4</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8619,18 +8599,38 @@
         <v>0</v>
       </c>
       <c r="R116" s="2" t="inlineStr"/>
+      <c r="T116">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V116">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W116">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X116">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y116">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 63075-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>45273</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8643,7 +8643,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8680,14 +8680,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>44301</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8700,7 +8700,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>6</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8737,14 +8737,14 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46065</v>
+        <v>46066</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8757,7 +8757,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.9</v>
+        <v>0.6</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z119"/>
+  <dimension ref="A1:Z120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>45736.54759259259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2260,7 +2260,7 @@
         <v>45887.5609375</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2346,7 +2346,7 @@
         <v>45820.44920138889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2441,7 +2441,7 @@
         <v>44838</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2529,14 +2529,14 @@
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="inlineStr">
         <is>
-          <t>A 34944-2022</t>
+          <t>A 60140-2025</t>
         </is>
       </c>
       <c r="B23" s="1" t="n">
-        <v>44796</v>
+        <v>45994.36274305556</v>
       </c>
       <c r="C23" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -2548,22 +2548,17 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H23" t="n">
+        <v>1</v>
+      </c>
+      <c r="I23" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
       <c r="J23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2578,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -2588,299 +2583,304 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H24" t="n">
+        <v>2</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0</v>
+      </c>
+      <c r="J24" t="n">
+        <v>2</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>2</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S23">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
         <v/>
       </c>
-      <c r="T23">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
         <v/>
       </c>
-      <c r="V23">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
         <v/>
       </c>
-      <c r="W23">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
         <v/>
       </c>
-      <c r="X23">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
         <v/>
       </c>
-      <c r="Y23">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
         <v/>
       </c>
-      <c r="Z23">
+      <c r="Z24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 32174-2022</t>
         </is>
       </c>
-      <c r="B24" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44781</v>
       </c>
-      <c r="C24" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="C25" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G25" t="n">
         <v>1.6</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J24" t="n">
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Tvåblad</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
         <is>
           <t>A 43756-2022</t>
         </is>
       </c>
-      <c r="B25" s="1" t="n">
+      <c r="B26" s="1" t="n">
         <v>44837</v>
       </c>
-      <c r="C25" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
+      <c r="C26" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>2.2</v>
       </c>
-      <c r="H25" t="n">
+      <c r="H26" t="n">
         <v>1</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I26" t="n">
         <v>1</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>0</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="R25" s="2" t="inlineStr">
+      <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
-      <c r="S25">
+      <c r="S26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="T25">
+      <c r="T26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="V25">
+      <c r="V26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="W25">
+      <c r="W26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="X25">
+      <c r="X26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
         <v/>
       </c>
-      <c r="Y25">
+      <c r="Y26">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 60140-2025</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>45994.36274305556</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>2</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
         <v/>
       </c>
     </row>
@@ -2894,7 +2894,7 @@
         <v>44953</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2980,7 +2980,7 @@
         <v>44370</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3070,7 +3070,7 @@
         <v>44772</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3160,7 +3160,7 @@
         <v>45084</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3245,7 +3245,7 @@
         <v>45736.54974537037</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3330,7 +3330,7 @@
         <v>45796.4959375</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3415,7 +3415,7 @@
         <v>45175</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3493,14 +3493,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>46041</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3512,8 +3512,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G34" t="n">
-        <v>3.9</v>
+        <v>2.3</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3522,7 +3527,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3537,7 +3542,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3547,45 +3552,49 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z34">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3597,13 +3606,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>3.3</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3612,7 +3616,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3627,7 +3631,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3637,49 +3641,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 34885-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>45849.47128472223</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3692,17 +3692,17 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>4.4</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
         <v>1</v>
       </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
       <c r="K36" t="n">
         <v>0</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3726,45 +3726,45 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Backfryle</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 34885-2025</t>
+          <t>A 45693-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45849.47128472223</v>
+        <v>45923</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3777,7 +3777,7 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.4</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -3811,31 +3811,31 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Backfryle</t>
+          <t>Stjälkröksvamp</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
     </row>
@@ -3849,7 +3849,7 @@
         <v>45084</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3927,14 +3927,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44984</v>
+        <v>46041</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,13 +3947,13 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>3.9</v>
       </c>
       <c r="H39" t="n">
         <v>1</v>
       </c>
       <c r="I39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3981,45 +3981,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 45693-2025</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45923</v>
+        <v>44984</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4032,16 +4032,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>4.8</v>
+        <v>1.2</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4056,7 +4056,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4066,31 +4066,31 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Stjälkröksvamp</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
@@ -4104,7 +4104,7 @@
         <v>45569.44700231482</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4189,7 +4189,7 @@
         <v>44280</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4274,7 +4274,7 @@
         <v>44270</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4359,7 +4359,7 @@
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4416,7 +4416,7 @@
         <v>44428</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4473,7 +4473,7 @@
         <v>44273</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4530,7 +4530,7 @@
         <v>44783</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4592,7 +4592,7 @@
         <v>44623</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4649,7 +4649,7 @@
         <v>44747</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4706,7 +4706,7 @@
         <v>44840</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4763,7 +4763,7 @@
         <v>44783</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4825,7 +4825,7 @@
         <v>44501</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4882,7 +4882,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4939,7 +4939,7 @@
         <v>44482</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4996,7 +4996,7 @@
         <v>44742.55567129629</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5053,7 +5053,7 @@
         <v>44503</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5110,7 +5110,7 @@
         <v>44781</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5172,7 +5172,7 @@
         <v>44428</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5229,7 +5229,7 @@
         <v>44951</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5286,7 +5286,7 @@
         <v>44642</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5348,7 +5348,7 @@
         <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5410,7 +5410,7 @@
         <v>45736.53827546296</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5460,14 +5460,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44638</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5480,7 +5480,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>8.6</v>
+        <v>0.6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5517,14 +5517,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>44638</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5537,7 +5537,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>1.9</v>
+        <v>8.6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5574,14 +5574,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45280</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5594,7 +5594,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5631,14 +5631,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5651,7 +5651,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>3.8</v>
+        <v>1.1</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5695,7 +5695,7 @@
         <v>44725</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5745,14 +5745,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>45280</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5765,7 +5765,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>3.2</v>
+        <v>1.2</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5802,14 +5802,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5822,7 +5822,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.7</v>
+        <v>3.2</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5859,14 +5859,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>44711</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5879,7 +5879,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5916,14 +5916,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>44711</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5936,7 +5936,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>0.7</v>
+        <v>4.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5980,7 +5980,7 @@
         <v>45812.63650462963</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6042,7 +6042,7 @@
         <v>45812.64475694444</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6097,14 +6097,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6116,13 +6116,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6159,14 +6154,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45323</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6179,7 +6174,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>0.5</v>
+        <v>0.7</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6216,14 +6211,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45125</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6236,7 +6231,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.9</v>
+        <v>1.8</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6273,14 +6268,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44776</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6298,7 +6293,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6335,14 +6330,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6354,8 +6349,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G78" t="n">
-        <v>1.5</v>
+        <v>0.8</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6392,14 +6392,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6412,7 +6412,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>5</v>
+        <v>2.4</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6449,14 +6449,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6469,7 +6469,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>1.8</v>
+        <v>5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6506,14 +6506,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6525,13 +6525,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F81" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G81" t="n">
-        <v>1.7</v>
+        <v>4.5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6568,14 +6563,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>45323</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6587,13 +6582,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>3.3</v>
+        <v>0.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6630,14 +6620,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>45928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6650,7 +6640,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6687,14 +6677,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45125</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6707,7 +6697,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.4</v>
+        <v>2.9</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6744,14 +6734,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>44776</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6769,7 +6759,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>4.2</v>
+        <v>1.6</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6806,14 +6796,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6863,14 +6853,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6882,8 +6872,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6920,14 +6915,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6940,7 +6935,7 @@
         </is>
       </c>
       <c r="G88" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6977,14 +6972,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>44973</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6997,7 +6992,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7034,14 +7029,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45928</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7053,8 +7048,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G90" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7091,14 +7091,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45107</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7111,7 +7111,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>4.1</v>
+        <v>1.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7148,14 +7148,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>44973</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7167,13 +7167,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F92" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G92" t="n">
-        <v>2.5</v>
+        <v>2.1</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7210,14 +7205,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 9104-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>46069.65049768519</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7230,7 +7225,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.3</v>
+        <v>1.3</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7267,14 +7262,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>44370</v>
+        <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7286,13 +7281,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F94" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G94" t="n">
-        <v>2.8</v>
+        <v>4.1</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7329,14 +7319,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45125</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7349,7 +7339,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7386,14 +7376,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7405,8 +7395,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7443,14 +7438,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7463,7 +7458,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>0.7</v>
+        <v>2.3</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7500,14 +7495,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44776</v>
+        <v>44370</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7525,7 +7520,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>4.5</v>
+        <v>2.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7562,14 +7557,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44435</v>
+        <v>45125</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7582,7 +7577,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7619,14 +7614,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>45330</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7639,7 +7634,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7676,14 +7671,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44796</v>
+        <v>44776</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7701,7 +7696,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7738,14 +7733,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45433</v>
+        <v>44435</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7758,7 +7753,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7795,14 +7790,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45005</v>
+        <v>45330</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7815,7 +7810,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7852,14 +7847,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>44796</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7871,8 +7866,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G104" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7909,14 +7909,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45264</v>
+        <v>45433</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7929,7 +7929,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7966,14 +7966,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>45005</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7986,7 +7986,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.5</v>
+        <v>0.8</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8023,14 +8023,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44467</v>
+        <v>45264</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8043,7 +8043,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>3.6</v>
+        <v>1.1</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8080,14 +8080,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>44953</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8100,7 +8100,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.6</v>
+        <v>0.5</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8137,14 +8137,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44456</v>
+        <v>44467</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8157,7 +8157,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>1.6</v>
+        <v>3.6</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8194,14 +8194,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>44953</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8214,7 +8214,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.4</v>
+        <v>0.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8251,14 +8251,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44795</v>
+        <v>44456</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8270,13 +8270,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>6.7</v>
+        <v>1.6</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8313,14 +8308,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45713.6275</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8332,13 +8327,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F112" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G112" t="n">
-        <v>4</v>
+        <v>0.4</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8375,14 +8365,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>44795</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8394,8 +8384,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G113" t="n">
-        <v>1.9</v>
+        <v>6.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8432,14 +8427,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>45713.6275</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8451,8 +8446,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G114" t="n">
-        <v>0.7</v>
+        <v>4</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8489,14 +8489,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8509,7 +8509,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.6</v>
+        <v>1.9</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8546,14 +8546,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45468</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8566,7 +8566,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>0.4</v>
+        <v>0.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8599,38 +8599,18 @@
         <v>0</v>
       </c>
       <c r="R116" s="2" t="inlineStr"/>
-      <c r="T116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y116">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45273</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46066</v>
+        <v>46070</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8643,7 +8623,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.1</v>
+        <v>0.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8680,116 +8660,193 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
+          <t>A 26160-2024</t>
+        </is>
+      </c>
+      <c r="B118" s="1" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C118" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H118" t="n">
+        <v>0</v>
+      </c>
+      <c r="I118" t="n">
+        <v>0</v>
+      </c>
+      <c r="J118" t="n">
+        <v>0</v>
+      </c>
+      <c r="K118" t="n">
+        <v>0</v>
+      </c>
+      <c r="L118" t="n">
+        <v>0</v>
+      </c>
+      <c r="M118" t="n">
+        <v>0</v>
+      </c>
+      <c r="N118" t="n">
+        <v>0</v>
+      </c>
+      <c r="O118" t="n">
+        <v>0</v>
+      </c>
+      <c r="P118" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
+      <c r="R118" s="2" t="inlineStr"/>
+      <c r="T118">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V118">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W118">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X118">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y118">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="119" ht="15" customHeight="1">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>A 63075-2023</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>45273</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
           <t>A 17978-2021</t>
         </is>
       </c>
-      <c r="B118" s="1" t="n">
+      <c r="B120" s="1" t="n">
         <v>44301</v>
       </c>
-      <c r="C118" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D118" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G118" t="n">
+      <c r="C120" s="1" t="n">
+        <v>46070</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
         <v>6</v>
       </c>
-      <c r="H118" t="n">
-        <v>0</v>
-      </c>
-      <c r="I118" t="n">
-        <v>0</v>
-      </c>
-      <c r="J118" t="n">
-        <v>0</v>
-      </c>
-      <c r="K118" t="n">
-        <v>0</v>
-      </c>
-      <c r="L118" t="n">
-        <v>0</v>
-      </c>
-      <c r="M118" t="n">
-        <v>0</v>
-      </c>
-      <c r="N118" t="n">
-        <v>0</v>
-      </c>
-      <c r="O118" t="n">
-        <v>0</v>
-      </c>
-      <c r="P118" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q118" t="n">
-        <v>0</v>
-      </c>
-      <c r="R118" s="2" t="inlineStr"/>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>A 22785-2025</t>
-        </is>
-      </c>
-      <c r="B119" s="1" t="n">
-        <v>45789.64186342592</v>
-      </c>
-      <c r="C119" s="1" t="n">
-        <v>46066</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" s="2" t="inlineStr"/>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z120"/>
+  <dimension ref="A1:Z122"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1166,7 +1166,7 @@
         <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1257,7 +1257,7 @@
         <v>45918</v>
       </c>
       <c r="C9" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,14 +2167,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 13556-2025</t>
+          <t>A 38860-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45736.54759259259</v>
+        <v>45887.5609375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>2.3</v>
+        <v>5.6</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2221,118 +2221,118 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Revlummer</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 13556-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45736.54759259259</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Tvåblad
 Nattviol</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
-        <is>
-          <t>A 38860-2025</t>
-        </is>
-      </c>
-      <c r="B20" s="1" t="n">
-        <v>45887.5609375</v>
-      </c>
-      <c r="C20" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>1</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>2</v>
-      </c>
-      <c r="R20" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Revlummer</t>
-        </is>
-      </c>
-      <c r="S20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="T20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="V20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="W20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="X20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
-        <v/>
-      </c>
-      <c r="Y20">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
         <v/>
       </c>
     </row>
@@ -2346,7 +2346,7 @@
         <v>45820.44920138889</v>
       </c>
       <c r="C21" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2434,14 +2434,14 @@
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="inlineStr">
         <is>
-          <t>A 44008-2022</t>
+          <t>A 60140-2025</t>
         </is>
       </c>
       <c r="B22" s="1" t="n">
-        <v>44838</v>
+        <v>45994.36274305556</v>
       </c>
       <c r="C22" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -2453,22 +2453,17 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G22" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
         <v>2</v>
       </c>
-      <c r="I22" t="n">
-        <v>0</v>
-      </c>
       <c r="J22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -2483,7 +2478,7 @@
         <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -2493,122 +2488,127 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
+          <t>Skogsknipprot
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 44008-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
         <v/>
       </c>
-      <c r="Z22">
+      <c r="Z23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 60140-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45994.36274305556</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H23" t="n">
-        <v>1</v>
-      </c>
-      <c r="I23" t="n">
-        <v>2</v>
-      </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
         <v/>
       </c>
     </row>
@@ -2622,7 +2622,7 @@
         <v>44796</v>
       </c>
       <c r="C24" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -2717,7 +2717,7 @@
         <v>44781</v>
       </c>
       <c r="C25" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -2801,14 +2801,14 @@
     <row r="26" ht="15" customHeight="1">
       <c r="A26" t="inlineStr">
         <is>
-          <t>A 43756-2022</t>
+          <t>A 9253-2026</t>
         </is>
       </c>
       <c r="B26" s="1" t="n">
-        <v>44837</v>
+        <v>46070.51003472223</v>
       </c>
       <c r="C26" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>2.2</v>
+        <v>1.1</v>
       </c>
       <c r="H26" t="n">
         <v>1</v>
@@ -2856,45 +2856,45 @@
       <c r="R26" s="2" t="inlineStr">
         <is>
           <t>Murgröna
-Blåsippa</t>
+Gullviva</t>
         </is>
       </c>
       <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9253-2026 artfynd.xlsx", "A 9253-2026")</f>
         <v/>
       </c>
       <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9253-2026 karta.png", "A 9253-2026")</f>
         <v/>
       </c>
       <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9253-2026 FSC-klagomål.docx", "A 9253-2026")</f>
         <v/>
       </c>
       <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9253-2026 FSC-klagomål mail.docx", "A 9253-2026")</f>
         <v/>
       </c>
       <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9253-2026 tillsynsbegäran.docx", "A 9253-2026")</f>
         <v/>
       </c>
       <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9253-2026 tillsynsbegäran mail.docx", "A 9253-2026")</f>
         <v/>
       </c>
     </row>
     <row r="27" ht="15" customHeight="1">
       <c r="A27" t="inlineStr">
         <is>
-          <t>A 4164-2023</t>
+          <t>A 43756-2022</t>
         </is>
       </c>
       <c r="B27" s="1" t="n">
-        <v>44953</v>
+        <v>44837</v>
       </c>
       <c r="C27" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -2907,7 +2907,7 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>3.3</v>
+        <v>2.2</v>
       </c>
       <c r="H27" t="n">
         <v>1</v>
@@ -2946,41 +2946,41 @@
         </is>
       </c>
       <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
         <v/>
       </c>
       <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
         <v/>
       </c>
     </row>
     <row r="28" ht="15" customHeight="1">
       <c r="A28" t="inlineStr">
         <is>
-          <t>A 31790-2021</t>
+          <t>A 4164-2023</t>
         </is>
       </c>
       <c r="B28" s="1" t="n">
-        <v>44370</v>
+        <v>44953</v>
       </c>
       <c r="C28" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -2990,11 +2990,6 @@
       <c r="E28" t="inlineStr">
         <is>
           <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
         </is>
       </c>
       <c r="G28" t="n">
@@ -3028,49 +3023,50 @@
         <v>0</v>
       </c>
       <c r="Q28" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Murgröna
+Blåsippa</t>
         </is>
       </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 31790-2021 artfynd.xlsx", "A 31790-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 31790-2021 karta.png", "A 31790-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 31790-2021 FSC-klagomål.docx", "A 31790-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 31790-2021 FSC-klagomål mail.docx", "A 31790-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 31790-2021 tillsynsbegäran.docx", "A 31790-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 31790-2021 tillsynsbegäran mail.docx", "A 31790-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="inlineStr">
         <is>
-          <t>A 31295-2022</t>
+          <t>A 31790-2021</t>
         </is>
       </c>
       <c r="B29" s="1" t="n">
-        <v>44772</v>
+        <v>44370</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3088,13 +3084,13 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>6.1</v>
+        <v>3.3</v>
       </c>
       <c r="H29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -3103,7 +3099,7 @@
         <v>0</v>
       </c>
       <c r="L29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
@@ -3112,55 +3108,55 @@
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
         <v>1</v>
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>Skärrande gräshoppa</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 31295-2022 artfynd.xlsx", "A 31295-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 31790-2021 artfynd.xlsx", "A 31790-2021")</f>
         <v/>
       </c>
       <c r="T29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 31295-2022 karta.png", "A 31295-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 31790-2021 karta.png", "A 31790-2021")</f>
         <v/>
       </c>
       <c r="V29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 31295-2022 FSC-klagomål.docx", "A 31295-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 31790-2021 FSC-klagomål.docx", "A 31790-2021")</f>
         <v/>
       </c>
       <c r="W29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 31295-2022 FSC-klagomål mail.docx", "A 31295-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 31790-2021 FSC-klagomål mail.docx", "A 31790-2021")</f>
         <v/>
       </c>
       <c r="X29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 31295-2022 tillsynsbegäran.docx", "A 31295-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 31790-2021 tillsynsbegäran.docx", "A 31790-2021")</f>
         <v/>
       </c>
       <c r="Y29">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 31295-2022 tillsynsbegäran mail.docx", "A 31295-2022")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 31790-2021 tillsynsbegäran mail.docx", "A 31790-2021")</f>
         <v/>
       </c>
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="inlineStr">
         <is>
-          <t>A 24701-2023</t>
+          <t>A 31295-2022</t>
         </is>
       </c>
       <c r="B30" s="1" t="n">
-        <v>45084</v>
+        <v>44772</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3172,8 +3168,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>6.1</v>
       </c>
       <c r="H30" t="n">
         <v>0</v>
@@ -3207,45 +3208,45 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skärrande gräshoppa</t>
         </is>
       </c>
       <c r="S30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 31295-2022 artfynd.xlsx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="T30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 31295-2022 karta.png", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="V30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 31295-2022 FSC-klagomål.docx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="W30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 31295-2022 FSC-klagomål mail.docx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="X30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 31295-2022 tillsynsbegäran.docx", "A 31295-2022")</f>
         <v/>
       </c>
       <c r="Y30">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 31295-2022 tillsynsbegäran mail.docx", "A 31295-2022")</f>
         <v/>
       </c>
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 24701-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3258,7 +3259,7 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>0.7</v>
+        <v>3</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -3267,13 +3268,13 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>1</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3285,52 +3286,52 @@
         <v>1</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 24048-2025</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45796.4959375</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3343,7 +3344,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3377,45 +3378,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Loppstarr</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 24048-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45175</v>
+        <v>45796.4959375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3428,17 +3429,17 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H33" t="n">
+        <v>0</v>
+      </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
         <v>1</v>
       </c>
-      <c r="I33" t="n">
-        <v>0</v>
-      </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
@@ -3452,7 +3453,7 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -3462,45 +3463,45 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Loppstarr</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>45175</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3512,13 +3513,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G34" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
@@ -3527,7 +3523,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
         <v>0</v>
@@ -3542,7 +3538,7 @@
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
         <v>0</v>
@@ -3552,49 +3548,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3606,8 +3598,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G35" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3616,7 +3613,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3631,7 +3628,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3641,45 +3638,49 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z35">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 34885-2025</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45849.47128472223</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3692,16 +3693,16 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>4.4</v>
+        <v>3.3</v>
       </c>
       <c r="H36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3716,7 +3717,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3726,31 +3727,31 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Backfryle</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
@@ -3764,7 +3765,7 @@
         <v>45923</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3842,14 +3843,14 @@
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 34885-2025</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45084</v>
+        <v>45849.47128472223</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3862,7 +3863,7 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.5</v>
+        <v>4.4</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -3871,13 +3872,13 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M38" t="n">
         <v>0</v>
@@ -3889,52 +3890,52 @@
         <v>1</v>
       </c>
       <c r="P38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>1</v>
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Backfryle</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>46041</v>
+        <v>45084</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3947,23 +3948,23 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="H39" t="n">
+        <v>0</v>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
+        <v>0</v>
+      </c>
+      <c r="L39" t="n">
         <v>1</v>
       </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
-        <v>0</v>
-      </c>
-      <c r="L39" t="n">
-        <v>0</v>
-      </c>
       <c r="M39" t="n">
         <v>0</v>
       </c>
@@ -3971,41 +3972,41 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q39" t="n">
         <v>1</v>
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
@@ -4019,7 +4020,7 @@
         <v>44984</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4104,7 +4105,7 @@
         <v>45569.44700231482</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4182,14 +4183,14 @@
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>44280</v>
+        <v>46041</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4202,13 +4203,13 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
       </c>
       <c r="I42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
@@ -4236,45 +4237,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44270</v>
+        <v>44280</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4287,13 +4288,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.2</v>
+        <v>1</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4302,7 +4303,7 @@
         <v>0</v>
       </c>
       <c r="L43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M43" t="n">
         <v>0</v>
@@ -4311,55 +4312,55 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q43" t="n">
         <v>1</v>
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12711-2021</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
         <v>44270</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4372,7 +4373,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.3</v>
+        <v>1.2</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4387,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4396,27 +4397,55 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" s="2" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="R44" s="2" t="inlineStr">
+        <is>
+          <t>Ask</t>
+        </is>
+      </c>
+      <c r="S44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <v/>
+      </c>
+      <c r="T44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <v/>
+      </c>
+      <c r="V44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <v/>
+      </c>
+      <c r="W44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <v/>
+      </c>
+      <c r="X44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <v/>
+      </c>
+      <c r="Y44">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <v/>
+      </c>
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="inlineStr">
         <is>
-          <t>A 42761-2021</t>
+          <t>A 12711-2021</t>
         </is>
       </c>
       <c r="B45" s="1" t="n">
-        <v>44428</v>
+        <v>44270</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4429,7 +4458,7 @@
         </is>
       </c>
       <c r="G45" t="n">
-        <v>1.5</v>
+        <v>1.3</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4466,14 +4495,14 @@
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="inlineStr">
         <is>
-          <t>A 13325-2021</t>
+          <t>A 42761-2021</t>
         </is>
       </c>
       <c r="B46" s="1" t="n">
-        <v>44273</v>
+        <v>44428</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4486,7 +4515,7 @@
         </is>
       </c>
       <c r="G46" t="n">
-        <v>0.7</v>
+        <v>1.5</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4523,14 +4552,14 @@
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="inlineStr">
         <is>
-          <t>A 32665-2022</t>
+          <t>A 13325-2021</t>
         </is>
       </c>
       <c r="B47" s="1" t="n">
-        <v>44783</v>
+        <v>44273</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4542,13 +4571,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G47" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H47" t="n">
         <v>0</v>
@@ -4585,14 +4609,14 @@
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="inlineStr">
         <is>
-          <t>A 10348-2022</t>
+          <t>A 32665-2022</t>
         </is>
       </c>
       <c r="B48" s="1" t="n">
-        <v>44623</v>
+        <v>44783</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4604,8 +4628,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G48" t="n">
-        <v>0.4</v>
+        <v>4.2</v>
       </c>
       <c r="H48" t="n">
         <v>0</v>
@@ -4642,14 +4671,14 @@
     <row r="49" ht="15" customHeight="1">
       <c r="A49" t="inlineStr">
         <is>
-          <t>A 28345-2022</t>
+          <t>A 10348-2022</t>
         </is>
       </c>
       <c r="B49" s="1" t="n">
-        <v>44747</v>
+        <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4662,7 +4691,7 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>1.5</v>
+        <v>0.4</v>
       </c>
       <c r="H49" t="n">
         <v>0</v>
@@ -4699,14 +4728,14 @@
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="inlineStr">
         <is>
-          <t>A 44681-2022</t>
+          <t>A 28345-2022</t>
         </is>
       </c>
       <c r="B50" s="1" t="n">
-        <v>44840</v>
+        <v>44747</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4719,7 +4748,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>0.5</v>
+        <v>1.5</v>
       </c>
       <c r="H50" t="n">
         <v>0</v>
@@ -4756,14 +4785,14 @@
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="inlineStr">
         <is>
-          <t>A 32608-2022</t>
+          <t>A 44681-2022</t>
         </is>
       </c>
       <c r="B51" s="1" t="n">
-        <v>44783</v>
+        <v>44840</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4775,13 +4804,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G51" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H51" t="n">
         <v>0</v>
@@ -4818,14 +4842,14 @@
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="inlineStr">
         <is>
-          <t>A 61828-2021</t>
+          <t>A 32608-2022</t>
         </is>
       </c>
       <c r="B52" s="1" t="n">
-        <v>44501</v>
+        <v>44783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4837,8 +4861,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G52" t="n">
-        <v>0.5</v>
+        <v>1.6</v>
       </c>
       <c r="H52" t="n">
         <v>0</v>
@@ -4875,14 +4904,14 @@
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="inlineStr">
         <is>
-          <t>A 56188-2021</t>
+          <t>A 61828-2021</t>
         </is>
       </c>
       <c r="B53" s="1" t="n">
-        <v>44477.83525462963</v>
+        <v>44501</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4895,7 +4924,7 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H53" t="n">
         <v>0</v>
@@ -4932,14 +4961,14 @@
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="inlineStr">
         <is>
-          <t>A 56983-2021</t>
+          <t>A 56188-2021</t>
         </is>
       </c>
       <c r="B54" s="1" t="n">
-        <v>44482</v>
+        <v>44477.83525462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -4952,7 +4981,7 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>1.2</v>
+        <v>1.8</v>
       </c>
       <c r="H54" t="n">
         <v>0</v>
@@ -4989,14 +5018,14 @@
     <row r="55" ht="15" customHeight="1">
       <c r="A55" t="inlineStr">
         <is>
-          <t>A 27437-2022</t>
+          <t>A 56983-2021</t>
         </is>
       </c>
       <c r="B55" s="1" t="n">
-        <v>44742.55567129629</v>
+        <v>44482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5009,7 +5038,7 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>0.6</v>
+        <v>1.2</v>
       </c>
       <c r="H55" t="n">
         <v>0</v>
@@ -5046,14 +5075,14 @@
     <row r="56" ht="15" customHeight="1">
       <c r="A56" t="inlineStr">
         <is>
-          <t>A 62631-2021</t>
+          <t>A 27437-2022</t>
         </is>
       </c>
       <c r="B56" s="1" t="n">
-        <v>44503</v>
+        <v>44742.55567129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5066,7 +5095,7 @@
         </is>
       </c>
       <c r="G56" t="n">
-        <v>1</v>
+        <v>0.6</v>
       </c>
       <c r="H56" t="n">
         <v>0</v>
@@ -5103,14 +5132,14 @@
     <row r="57" ht="15" customHeight="1">
       <c r="A57" t="inlineStr">
         <is>
-          <t>A 32180-2022</t>
+          <t>A 62631-2021</t>
         </is>
       </c>
       <c r="B57" s="1" t="n">
-        <v>44781</v>
+        <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5122,13 +5151,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G57" t="n">
-        <v>0.9</v>
+        <v>1</v>
       </c>
       <c r="H57" t="n">
         <v>0</v>
@@ -5165,14 +5189,14 @@
     <row r="58" ht="15" customHeight="1">
       <c r="A58" t="inlineStr">
         <is>
-          <t>A 42785-2021</t>
+          <t>A 32180-2022</t>
         </is>
       </c>
       <c r="B58" s="1" t="n">
-        <v>44428</v>
+        <v>44781</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5184,8 +5208,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G58" t="n">
-        <v>2.8</v>
+        <v>0.9</v>
       </c>
       <c r="H58" t="n">
         <v>0</v>
@@ -5222,14 +5251,14 @@
     <row r="59" ht="15" customHeight="1">
       <c r="A59" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 42785-2021</t>
         </is>
       </c>
       <c r="B59" s="1" t="n">
-        <v>44951</v>
+        <v>44428</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5242,7 +5271,7 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.7</v>
+        <v>2.8</v>
       </c>
       <c r="H59" t="n">
         <v>0</v>
@@ -5279,14 +5308,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44642</v>
+        <v>44951</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5298,13 +5327,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G60" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5341,14 +5365,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45713</v>
+        <v>44642</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5366,7 +5390,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>6.8</v>
+        <v>1.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5403,14 +5427,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>45713</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5422,8 +5446,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G62" t="n">
-        <v>1</v>
+        <v>6.8</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5460,14 +5489,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 22785-2025</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45789.64186342592</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5480,7 +5509,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>0.6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5517,14 +5546,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44638</v>
+        <v>44301</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5537,7 +5566,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>8.6</v>
+        <v>6</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5574,14 +5603,14 @@
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5594,7 +5623,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>3.8</v>
+        <v>0.6</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5631,14 +5660,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>44638</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5651,7 +5680,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.1</v>
+        <v>8.6</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5688,14 +5717,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>44725</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5708,7 +5737,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>10.7</v>
+        <v>3.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5745,14 +5774,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45280</v>
+        <v>44725</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5765,7 +5794,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.2</v>
+        <v>10.7</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5809,7 +5838,7 @@
         <v>45805.48349537037</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5859,14 +5888,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45280</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5879,7 +5908,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.7</v>
+        <v>1.2</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5916,14 +5945,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>44711</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5936,7 +5965,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>4.7</v>
+        <v>3.7</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -5973,14 +6002,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 27357-2025</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45812.63650462963</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -5992,13 +6021,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F72" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G72" t="n">
-        <v>4.5</v>
+        <v>1.5</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6035,14 +6059,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6054,13 +6078,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F73" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G73" t="n">
-        <v>2.5</v>
+        <v>1.8</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6097,14 +6116,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6116,8 +6135,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G74" t="n">
-        <v>1.5</v>
+        <v>1.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6154,14 +6178,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 27357-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>45812.63650462963</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6173,8 +6197,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G75" t="n">
-        <v>0.7</v>
+        <v>4.5</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6211,14 +6240,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 27366-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45812.64475694444</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6230,8 +6259,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G76" t="n">
-        <v>1.8</v>
+        <v>2.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6268,14 +6302,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>44711</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6287,13 +6321,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F77" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G77" t="n">
-        <v>1.7</v>
+        <v>4.7</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6330,14 +6359,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6349,13 +6378,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G78" t="n">
-        <v>0.8</v>
+        <v>2.4</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6392,14 +6416,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6412,7 +6436,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.4</v>
+        <v>0.7</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6449,14 +6473,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6468,8 +6492,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G80" t="n">
-        <v>5</v>
+        <v>0.8</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6506,14 +6535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6526,7 +6555,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6563,14 +6592,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45323</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6583,7 +6612,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6627,7 +6656,7 @@
         <v>45928</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6677,14 +6706,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45125</v>
+        <v>45323</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6697,7 +6726,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>2.9</v>
+        <v>0.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6734,14 +6763,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>44776</v>
+        <v>45125</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6753,13 +6782,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F85" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G85" t="n">
-        <v>1.6</v>
+        <v>2.9</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6796,14 +6820,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>44776</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6815,8 +6839,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G86" t="n">
-        <v>5</v>
+        <v>1.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6853,14 +6882,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6872,13 +6901,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>5</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6915,14 +6939,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6934,8 +6958,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>1.4</v>
+        <v>3.3</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -6972,14 +7001,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -6992,7 +7021,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.9</v>
+        <v>1.4</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7029,14 +7058,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7048,13 +7077,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F90" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G90" t="n">
-        <v>4.2</v>
+        <v>0.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7091,14 +7115,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7110,8 +7134,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G91" t="n">
-        <v>1.4</v>
+        <v>4.2</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7148,14 +7177,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44973</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7168,7 +7197,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.1</v>
+        <v>1.4</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7205,14 +7234,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 9104-2026</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>46069.65049768519</v>
+        <v>44973</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7225,7 +7254,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>1.3</v>
+        <v>2.1</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7269,7 +7298,7 @@
         <v>45107</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7319,14 +7348,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7339,7 +7368,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>0.7</v>
+        <v>1.1</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7383,7 +7412,7 @@
         <v>45713.63512731482</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7438,14 +7467,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7458,7 +7487,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>2.3</v>
+        <v>1.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7495,14 +7524,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44370</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7514,13 +7543,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F98" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G98" t="n">
-        <v>2.8</v>
+        <v>2.3</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7557,14 +7581,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>45125</v>
+        <v>44370</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7576,8 +7600,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7614,14 +7643,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 9104-2026</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>46069</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7634,7 +7663,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>2.4</v>
+        <v>1.3</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7671,14 +7700,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 9259-2026</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>44776</v>
+        <v>46070.51917824074</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7690,13 +7719,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F101" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G101" t="n">
-        <v>4.5</v>
+        <v>1.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7733,14 +7757,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>44435</v>
+        <v>45125</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7753,7 +7777,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>1.4</v>
+        <v>2.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7790,14 +7814,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45330</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7810,7 +7834,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>1.5</v>
+        <v>2.4</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7847,14 +7871,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44796</v>
+        <v>44776</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7872,7 +7896,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.6</v>
+        <v>4.5</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7909,14 +7933,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45433</v>
+        <v>44435</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7929,7 +7953,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>3.9</v>
+        <v>1.4</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7966,14 +7990,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45005</v>
+        <v>45330</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -7986,7 +8010,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.8</v>
+        <v>1.5</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8023,14 +8047,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45264</v>
+        <v>44796</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8042,8 +8066,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G107" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8080,14 +8109,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>45433</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8100,7 +8129,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>0.5</v>
+        <v>3.9</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8137,14 +8166,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44467</v>
+        <v>45005</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8157,7 +8186,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>3.6</v>
+        <v>0.8</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8194,14 +8223,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44953</v>
+        <v>45264</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8214,7 +8243,7 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>0.6</v>
+        <v>1.1</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8251,14 +8280,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>44456</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8271,7 +8300,7 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>1.6</v>
+        <v>0.5</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8308,14 +8337,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>44467</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8328,7 +8357,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>0.4</v>
+        <v>3.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8365,14 +8394,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44795</v>
+        <v>44953</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8384,13 +8413,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F113" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G113" t="n">
-        <v>6.7</v>
+        <v>0.6</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8427,14 +8451,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45713.6275</v>
+        <v>44456</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8446,13 +8470,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F114" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G114" t="n">
-        <v>4</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8489,14 +8508,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8509,7 +8528,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>1.9</v>
+        <v>0.4</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8546,14 +8565,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>44795</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8565,8 +8584,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G116" t="n">
-        <v>0.7</v>
+        <v>6.7</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8603,14 +8627,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>45713.6275</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8622,8 +8646,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G117" t="n">
-        <v>0.6</v>
+        <v>4</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8660,14 +8689,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45468</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46070</v>
+        <v>46072</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8680,7 +8709,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>0.4</v>
+        <v>1.9</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8713,140 +8742,254 @@
         <v>0</v>
       </c>
       <c r="R118" s="2" t="inlineStr"/>
-      <c r="T118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y118">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
+          <t>A 17699-2025</t>
+        </is>
+      </c>
+      <c r="B119" s="1" t="n">
+        <v>45758.41846064815</v>
+      </c>
+      <c r="C119" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="H119" t="n">
+        <v>0</v>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>0</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>0</v>
+      </c>
+      <c r="O119" t="n">
+        <v>0</v>
+      </c>
+      <c r="P119" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
+      <c r="R119" s="2" t="inlineStr"/>
+    </row>
+    <row r="120" ht="15" customHeight="1">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>A 20287-2025</t>
+        </is>
+      </c>
+      <c r="B120" s="1" t="n">
+        <v>45774.60741898148</v>
+      </c>
+      <c r="C120" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="H120" t="n">
+        <v>0</v>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>0</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>0</v>
+      </c>
+      <c r="O120" t="n">
+        <v>0</v>
+      </c>
+      <c r="P120" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
+      <c r="R120" s="2" t="inlineStr"/>
+    </row>
+    <row r="121" ht="15" customHeight="1">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>A 26160-2024</t>
+        </is>
+      </c>
+      <c r="B121" s="1" t="n">
+        <v>45468</v>
+      </c>
+      <c r="C121" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G121" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="H121" t="n">
+        <v>0</v>
+      </c>
+      <c r="I121" t="n">
+        <v>0</v>
+      </c>
+      <c r="J121" t="n">
+        <v>0</v>
+      </c>
+      <c r="K121" t="n">
+        <v>0</v>
+      </c>
+      <c r="L121" t="n">
+        <v>0</v>
+      </c>
+      <c r="M121" t="n">
+        <v>0</v>
+      </c>
+      <c r="N121" t="n">
+        <v>0</v>
+      </c>
+      <c r="O121" t="n">
+        <v>0</v>
+      </c>
+      <c r="P121" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
+      <c r="R121" s="2" t="inlineStr"/>
+      <c r="T121">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V121">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W121">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X121">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y121">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
           <t>A 63075-2023</t>
         </is>
       </c>
-      <c r="B119" s="1" t="n">
+      <c r="B122" s="1" t="n">
         <v>45273</v>
       </c>
-      <c r="C119" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D119" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G119" t="n">
+      <c r="C122" s="1" t="n">
+        <v>46072</v>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G122" t="n">
         <v>1.1</v>
       </c>
-      <c r="H119" t="n">
-        <v>0</v>
-      </c>
-      <c r="I119" t="n">
-        <v>0</v>
-      </c>
-      <c r="J119" t="n">
-        <v>0</v>
-      </c>
-      <c r="K119" t="n">
-        <v>0</v>
-      </c>
-      <c r="L119" t="n">
-        <v>0</v>
-      </c>
-      <c r="M119" t="n">
-        <v>0</v>
-      </c>
-      <c r="N119" t="n">
-        <v>0</v>
-      </c>
-      <c r="O119" t="n">
-        <v>0</v>
-      </c>
-      <c r="P119" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q119" t="n">
-        <v>0</v>
-      </c>
-      <c r="R119" s="2" t="inlineStr"/>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>A 17978-2021</t>
-        </is>
-      </c>
-      <c r="B120" s="1" t="n">
-        <v>44301</v>
-      </c>
-      <c r="C120" s="1" t="n">
-        <v>46070</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G120" t="n">
-        <v>6</v>
-      </c>
-      <c r="H120" t="n">
-        <v>0</v>
-      </c>
-      <c r="I120" t="n">
-        <v>0</v>
-      </c>
-      <c r="J120" t="n">
-        <v>0</v>
-      </c>
-      <c r="K120" t="n">
-        <v>0</v>
-      </c>
-      <c r="L120" t="n">
-        <v>0</v>
-      </c>
-      <c r="M120" t="n">
-        <v>0</v>
-      </c>
-      <c r="N120" t="n">
-        <v>0</v>
-      </c>
-      <c r="O120" t="n">
-        <v>0</v>
-      </c>
-      <c r="P120" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q120" t="n">
-        <v>0</v>
-      </c>
-      <c r="R120" s="2" t="inlineStr"/>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,14 +1159,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 44885-2025</t>
+          <t>A 45006-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45918.49010416667</v>
+        <v>45918</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,25 +1179,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>4.4</v>
+        <v>7.8</v>
       </c>
       <c r="H8" t="n">
+        <v>4</v>
+      </c>
+      <c r="I8" t="n">
+        <v>3</v>
+      </c>
+      <c r="J8" t="n">
         <v>2</v>
       </c>
-      <c r="I8" t="n">
-        <v>4</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1206,12 +1206,103 @@
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>7</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Mindre ekbock
+Vårstarr
+Myskmadra
+Tvåblad
+Vit skogslilja
+Krutbrännare
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45006-2025 artfynd.xlsx", "A 45006-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45006-2025 karta.png", "A 45006-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45006-2025 FSC-klagomål.docx", "A 45006-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45006-2025 FSC-klagomål mail.docx", "A 45006-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45006-2025 tillsynsbegäran.docx", "A 45006-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45006-2025 tillsynsbegäran mail.docx", "A 45006-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 44885-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45918.49010416667</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+      <c r="I9" t="n">
+        <v>4</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1</v>
+      </c>
+      <c r="M9" t="n">
+        <v>1</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Skogsalm
 Ask
@@ -1222,119 +1313,28 @@
 Blåsippa</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44885-2025 artfynd.xlsx", "A 44885-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44885-2025 karta.png", "A 44885-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44885-2025 FSC-klagomål.docx", "A 44885-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44885-2025 FSC-klagomål mail.docx", "A 44885-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44885-2025 tillsynsbegäran.docx", "A 44885-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44885-2025 tillsynsbegäran mail.docx", "A 44885-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 45006-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45918</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>7.8</v>
-      </c>
-      <c r="H9" t="n">
-        <v>4</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3</v>
-      </c>
-      <c r="J9" t="n">
-        <v>2</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Mindre ekbock
-Vårstarr
-Myskmadra
-Tvåblad
-Vit skogslilja
-Krutbrännare
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45006-2025 artfynd.xlsx", "A 45006-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45006-2025 karta.png", "A 45006-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45006-2025 FSC-klagomål.docx", "A 45006-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45006-2025 FSC-klagomål mail.docx", "A 45006-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45006-2025 tillsynsbegäran.docx", "A 45006-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45006-2025 tillsynsbegäran mail.docx", "A 45006-2025")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2174,7 +2174,7 @@
         <v>45887.5609375</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2253,14 +2253,14 @@
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="inlineStr">
         <is>
-          <t>A 13556-2025</t>
+          <t>A 28779-2025</t>
         </is>
       </c>
       <c r="B20" s="1" t="n">
-        <v>45736.54759259259</v>
+        <v>45820.44920138889</v>
       </c>
       <c r="C20" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2272,8 +2272,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G20" t="n">
-        <v>2.3</v>
+        <v>4.1</v>
       </c>
       <c r="H20" t="n">
         <v>2</v>
@@ -2282,7 +2287,7 @@
         <v>1</v>
       </c>
       <c r="J20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -2297,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -2307,752 +2312,747 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
+          <t>Havsörn
+Skogsknipprot</t>
+        </is>
+      </c>
+      <c r="S20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="T20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="V20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="W20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="X20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Y20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+      <c r="Z20">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>A 60140-2025</t>
+        </is>
+      </c>
+      <c r="B21" s="1" t="n">
+        <v>45994.36274305556</v>
+      </c>
+      <c r="C21" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>2</v>
+      </c>
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
+        <v>0</v>
+      </c>
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>Skogsknipprot
+Strävlosta</t>
+        </is>
+      </c>
+      <c r="S21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="T21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="V21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="W21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="X21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+      <c r="Y21">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 32174-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44781</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>1</v>
+      </c>
+      <c r="J22" t="n">
+        <v>1</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>1</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Backklöver
+Tvåblad</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 13556-2025</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>45736.54759259259</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>1</v>
+      </c>
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>0</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
           <t>Tvåblad
 Nattviol</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y23">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
-        <is>
-          <t>A 28779-2025</t>
-        </is>
-      </c>
-      <c r="B21" s="1" t="n">
-        <v>45820.44920138889</v>
-      </c>
-      <c r="C21" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F21" t="inlineStr">
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>A 9253-2026</t>
+        </is>
+      </c>
+      <c r="B24" s="1" t="n">
+        <v>46070.51003472223</v>
+      </c>
+      <c r="C24" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+      <c r="I24" t="n">
+        <v>1</v>
+      </c>
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2</v>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Gullviva</t>
+        </is>
+      </c>
+      <c r="S24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9253-2026 artfynd.xlsx", "A 9253-2026")</f>
+        <v/>
+      </c>
+      <c r="T24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9253-2026 karta.png", "A 9253-2026")</f>
+        <v/>
+      </c>
+      <c r="V24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9253-2026 FSC-klagomål.docx", "A 9253-2026")</f>
+        <v/>
+      </c>
+      <c r="W24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9253-2026 FSC-klagomål mail.docx", "A 9253-2026")</f>
+        <v/>
+      </c>
+      <c r="X24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9253-2026 tillsynsbegäran.docx", "A 9253-2026")</f>
+        <v/>
+      </c>
+      <c r="Y24">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9253-2026 tillsynsbegäran mail.docx", "A 9253-2026")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B25" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C25" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G21" t="n">
-        <v>4.1</v>
-      </c>
-      <c r="H21" t="n">
+      <c r="G25" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H25" t="n">
         <v>2</v>
       </c>
-      <c r="I21" t="n">
-        <v>1</v>
-      </c>
-      <c r="J21" t="n">
-        <v>1</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>1</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
-        <is>
-          <t>Havsörn
-Skogsknipprot</t>
-        </is>
-      </c>
-      <c r="S21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="T21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="V21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="W21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="X21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="Y21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-      <c r="Z21">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
-        <is>
-          <t>A 60140-2025</t>
-        </is>
-      </c>
-      <c r="B22" s="1" t="n">
-        <v>45994.36274305556</v>
-      </c>
-      <c r="C22" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G22" t="n">
-        <v>0.8</v>
-      </c>
-      <c r="H22" t="n">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>2</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>Skogsknipprot
-Strävlosta</t>
-        </is>
-      </c>
-      <c r="S22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="T22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="V22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="W22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="X22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-      <c r="Y22">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 44008-2022</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>2</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>2</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2</v>
-      </c>
-      <c r="R23" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Z23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 34944-2022</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F24" t="inlineStr">
+      <c r="S25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="T25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="V25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="W25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="X25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Y25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Z25">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 4164-2023</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>2</v>
+      </c>
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 43756-2022</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
+      <c r="R27" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="T27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="V27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="W27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="X27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="Y27">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 44008-2022</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46073</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G24" t="n">
+      <c r="G28" t="n">
         <v>1.7</v>
       </c>
-      <c r="H24" t="n">
+      <c r="H28" t="n">
         <v>2</v>
       </c>
-      <c r="I24" t="n">
-        <v>0</v>
-      </c>
-      <c r="J24" t="n">
+      <c r="I28" t="n">
+        <v>0</v>
+      </c>
+      <c r="J28" t="n">
         <v>2</v>
       </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
         <v>2</v>
       </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Entita
 Talltita</t>
         </is>
       </c>
-      <c r="S24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="T24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="V24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="W24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="X24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Y24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Z24">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 32174-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44781</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="H25" t="n">
-        <v>1</v>
-      </c>
-      <c r="I25" t="n">
-        <v>1</v>
-      </c>
-      <c r="J25" t="n">
-        <v>1</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>1</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Backklöver
-Tvåblad</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 9253-2026</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>46070.51003472223</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Gullviva</t>
-        </is>
-      </c>
-      <c r="S26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9253-2026 artfynd.xlsx", "A 9253-2026")</f>
-        <v/>
-      </c>
-      <c r="T26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9253-2026 karta.png", "A 9253-2026")</f>
-        <v/>
-      </c>
-      <c r="V26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9253-2026 FSC-klagomål.docx", "A 9253-2026")</f>
-        <v/>
-      </c>
-      <c r="W26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9253-2026 FSC-klagomål mail.docx", "A 9253-2026")</f>
-        <v/>
-      </c>
-      <c r="X26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9253-2026 tillsynsbegäran.docx", "A 9253-2026")</f>
-        <v/>
-      </c>
-      <c r="Y26">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9253-2026 tillsynsbegäran mail.docx", "A 9253-2026")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 43756-2022</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 4164-2023</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46072</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H28" t="n">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>1</v>
-      </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>0</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Blåsippa</t>
-        </is>
-      </c>
       <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
         <v/>
       </c>
       <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Z28">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
         <v/>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
         <v>44370</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44772</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3239,14 +3239,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 24701-2023</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>45084</v>
+        <v>44280</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3259,13 +3259,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3274,7 +3274,7 @@
         <v>0</v>
       </c>
       <c r="L31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M31" t="n">
         <v>0</v>
@@ -3283,55 +3283,55 @@
         <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 45693-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>45923</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>0.7</v>
+        <v>4.8</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3378,31 +3378,31 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Stjälkröksvamp</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
     </row>
@@ -3416,7 +3416,7 @@
         <v>45796.4959375</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3494,14 +3494,14 @@
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>45175</v>
+        <v>44984</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,13 +3514,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>5</v>
+        <v>1.2</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3548,45 +3548,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>45175</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3598,13 +3598,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G35" t="n">
-        <v>2.3</v>
+        <v>5</v>
       </c>
       <c r="H35" t="n">
         <v>1</v>
@@ -3613,7 +3608,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3628,7 +3623,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3638,49 +3633,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3692,8 +3683,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G36" t="n">
-        <v>3.3</v>
+        <v>2.3</v>
       </c>
       <c r="H36" t="n">
         <v>1</v>
@@ -3702,7 +3698,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -3717,7 +3713,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -3727,45 +3723,49 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z36">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 45693-2025</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45923</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3778,16 +3778,16 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>4.8</v>
+        <v>3.3</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
         <v>0</v>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3812,31 +3812,31 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Stjälkröksvamp</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
@@ -3850,7 +3850,7 @@
         <v>45849.47128472223</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3928,14 +3928,14 @@
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>45084</v>
+        <v>44270</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3948,7 +3948,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>3.5</v>
+        <v>1.2</v>
       </c>
       <c r="H39" t="n">
         <v>0</v>
@@ -3986,41 +3986,41 @@
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>44984</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4033,31 +4033,31 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>1.2</v>
+        <v>0.7</v>
       </c>
       <c r="H40" t="n">
+        <v>0</v>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
         <v>1</v>
       </c>
-      <c r="I40" t="n">
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>0</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>0</v>
+      </c>
+      <c r="O40" t="n">
         <v>1</v>
-      </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
-        <v>0</v>
-      </c>
-      <c r="L40" t="n">
-        <v>0</v>
-      </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="n">
-        <v>0</v>
-      </c>
-      <c r="O40" t="n">
-        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4067,45 +4067,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 43603-2024</t>
+          <t>A 24701-2023</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45569.44700231482</v>
+        <v>45084</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4118,22 +4118,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3.8</v>
+        <v>3</v>
       </c>
       <c r="H41" t="n">
+        <v>0</v>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
+        <v>0</v>
+      </c>
+      <c r="L41" t="n">
         <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>0</v>
-      </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
-        <v>1</v>
-      </c>
-      <c r="L41" t="n">
-        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4152,45 +4152,45 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 43603-2024</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>46041</v>
+        <v>45569.44700231482</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,7 +4203,7 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="H42" t="n">
         <v>1</v>
@@ -4215,7 +4215,7 @@
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -4227,55 +4227,55 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q42" t="n">
         <v>1</v>
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>44280</v>
+        <v>46041</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4288,13 +4288,13 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1</v>
+        <v>3.9</v>
       </c>
       <c r="H43" t="n">
         <v>1</v>
       </c>
       <c r="I43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4322,45 +4322,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>44270</v>
+        <v>45084</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4373,7 +4373,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.2</v>
+        <v>3.5</v>
       </c>
       <c r="H44" t="n">
         <v>0</v>
@@ -4411,27 +4411,27 @@
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
         <v>44270</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44428</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44273</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44783</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44747</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44840</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44501</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44742.55567129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44781</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44428</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5308,14 +5308,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44951</v>
+        <v>44776</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5327,8 +5327,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G60" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5365,14 +5370,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>44642</v>
+        <v>45713.6275</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5390,7 +5395,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>1.8</v>
+        <v>4</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5427,14 +5432,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45713</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5446,13 +5451,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G62" t="n">
-        <v>6.8</v>
+        <v>0.4</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5489,14 +5489,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>44301</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5546,14 +5546,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 17978-2021</t>
+          <t>A 26160-2024</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>44301</v>
+        <v>45468</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>6</v>
+        <v>0.4</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5599,6 +5599,26 @@
         <v>0</v>
       </c>
       <c r="R64" s="2" t="inlineStr"/>
+      <c r="T64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y64">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
@@ -5610,7 +5630,7 @@
         <v>45789.64186342592</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5660,14 +5680,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>44638</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5680,7 +5700,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>8.6</v>
+        <v>1.5</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5717,14 +5737,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5736,8 +5756,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G67" t="n">
-        <v>3.8</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5774,14 +5799,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>44725</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5794,7 +5819,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>10.7</v>
+        <v>1.8</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5831,14 +5856,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>44638</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5851,7 +5876,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>3.2</v>
+        <v>8.6</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5888,14 +5913,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45280</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5908,7 +5933,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5945,14 +5970,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5965,7 +5990,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.7</v>
+        <v>1.9</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6002,14 +6027,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>44725</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6022,7 +6047,7 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>1.5</v>
+        <v>10.7</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6059,14 +6084,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6079,7 +6104,7 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>1.8</v>
+        <v>2.4</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6116,14 +6141,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6135,13 +6160,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F74" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G74" t="n">
-        <v>1.7</v>
+        <v>3.7</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6178,14 +6198,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 27357-2025</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45812.63650462963</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6197,13 +6217,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F75" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G75" t="n">
-        <v>4.5</v>
+        <v>3.2</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6240,14 +6255,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 27357-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>45812.63650462963</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6265,7 +6280,7 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>2.5</v>
+        <v>4.5</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6302,14 +6317,14 @@
     <row r="77" ht="15" customHeight="1">
       <c r="A77" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 45734-2025</t>
         </is>
       </c>
       <c r="B77" s="1" t="n">
-        <v>44711</v>
+        <v>45923.46512731481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6322,7 +6337,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>4.7</v>
+        <v>5</v>
       </c>
       <c r="H77" t="n">
         <v>0</v>
@@ -6359,14 +6374,14 @@
     <row r="78" ht="15" customHeight="1">
       <c r="A78" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 45869-2025</t>
         </is>
       </c>
       <c r="B78" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45923.65313657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6379,7 +6394,7 @@
         </is>
       </c>
       <c r="G78" t="n">
-        <v>2.4</v>
+        <v>4.5</v>
       </c>
       <c r="H78" t="n">
         <v>0</v>
@@ -6416,14 +6431,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 27366-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>45812.64475694444</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6435,8 +6450,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G79" t="n">
-        <v>0.7</v>
+        <v>2.5</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6473,14 +6493,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45323</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6492,13 +6512,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F80" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G80" t="n">
-        <v>0.8</v>
+        <v>0.5</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6535,14 +6550,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 45734-2025</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45923.46512731481</v>
+        <v>45928</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6555,7 +6570,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>5</v>
+        <v>2.7</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6592,14 +6607,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 45869-2025</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45923.65313657407</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6611,8 +6626,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G82" t="n">
-        <v>4.5</v>
+        <v>0.8</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6649,14 +6669,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>45928</v>
+        <v>44467</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6669,7 +6689,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>2.7</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6706,14 +6726,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>45323</v>
+        <v>44776</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6725,8 +6745,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G84" t="n">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6763,14 +6788,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45125</v>
+        <v>45107</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6783,7 +6808,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>2.9</v>
+        <v>4.1</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6820,14 +6845,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44776</v>
+        <v>44953</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6839,13 +6864,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F86" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G86" t="n">
-        <v>1.6</v>
+        <v>0.6</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6882,14 +6902,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6901,8 +6921,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G87" t="n">
-        <v>5</v>
+        <v>3.3</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6939,14 +6964,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6958,13 +6983,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F88" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G88" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7001,14 +7021,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7021,7 +7041,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.4</v>
+        <v>1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7058,14 +7078,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>45125</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7078,7 +7098,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>0.7</v>
+        <v>2.9</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7115,14 +7135,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7134,13 +7154,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F91" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G91" t="n">
-        <v>4.2</v>
+        <v>1.1</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7177,14 +7192,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>44370</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7196,8 +7211,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G92" t="n">
-        <v>1.4</v>
+        <v>2.8</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7234,14 +7254,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44973</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7254,7 +7274,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.1</v>
+        <v>2.4</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7291,14 +7311,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45107</v>
+        <v>45280</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7311,7 +7331,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>4.1</v>
+        <v>1.2</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7348,14 +7368,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7368,7 +7388,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.1</v>
+        <v>1.9</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7405,14 +7425,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>44435</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7424,13 +7444,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F96" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7467,14 +7482,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 63075-2023</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>45273</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7487,7 +7502,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7524,14 +7539,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>44456</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7544,7 +7559,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7581,14 +7596,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 9259-2026</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>44370</v>
+        <v>46070.51917824074</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7600,13 +7615,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F99" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G99" t="n">
-        <v>2.8</v>
+        <v>1.6</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7650,7 +7660,7 @@
         <v>46069</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7700,14 +7710,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 9259-2026</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>46070.51917824074</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7720,7 +7730,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.6</v>
+        <v>1.4</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7757,14 +7767,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45125</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7777,7 +7787,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>0.7</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7814,14 +7824,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7834,7 +7844,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7871,14 +7881,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44776</v>
+        <v>44795</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7896,7 +7906,7 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>4.5</v>
+        <v>6.7</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7933,14 +7943,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>44435</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7953,7 +7963,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.4</v>
+        <v>0.7</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -7990,14 +8000,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45330</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8010,7 +8020,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8047,14 +8057,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>44796</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8072,7 +8082,7 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.6</v>
+        <v>4.2</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8109,14 +8119,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45433</v>
+        <v>45125</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8129,7 +8139,7 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>3.9</v>
+        <v>2.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8166,14 +8176,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>45005</v>
+        <v>44711</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8186,7 +8196,7 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>0.8</v>
+        <v>4.7</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8223,14 +8233,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>45264</v>
+        <v>44796</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8242,8 +8252,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G110" t="n">
-        <v>1.1</v>
+        <v>4.6</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8280,14 +8295,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>45713</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8299,8 +8314,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G111" t="n">
-        <v>0.5</v>
+        <v>6.8</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8337,14 +8357,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>44467</v>
+        <v>45330</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8357,7 +8377,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>3.6</v>
+        <v>1.5</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8394,14 +8414,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44953</v>
+        <v>44951</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8414,7 +8434,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>0.6</v>
+        <v>1.7</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8451,14 +8471,14 @@
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>44456</v>
+        <v>45433</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8471,7 +8491,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.6</v>
+        <v>3.9</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8508,14 +8528,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>45005</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8528,7 +8548,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.4</v>
+        <v>0.8</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8565,14 +8585,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44795</v>
+        <v>44642</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8590,7 +8610,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>6.7</v>
+        <v>1.8</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8627,14 +8647,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>45713.6275</v>
+        <v>44973</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8646,13 +8666,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F117" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G117" t="n">
-        <v>4</v>
+        <v>2.1</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8689,14 +8704,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>45264</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8709,7 +8724,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.9</v>
+        <v>1.1</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8746,14 +8761,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8766,7 +8781,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.7</v>
+        <v>0.5</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8803,14 +8818,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8823,7 +8838,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8860,14 +8875,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45468</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8880,7 +8895,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>0.4</v>
+        <v>5</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8913,38 +8928,18 @@
         <v>0</v>
       </c>
       <c r="R121" s="2" t="inlineStr"/>
-      <c r="T121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y121">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45273</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46072</v>
+        <v>46073</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8956,8 +8951,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G122" t="n">
-        <v>1.1</v>
+        <v>2.5</v>
       </c>
       <c r="H122" t="n">
         <v>0</v>

--- a/Översikt BORGHOLM.xlsx
+++ b/Översikt BORGHOLM.xlsx
@@ -421,7 +421,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z122"/>
+  <dimension ref="A1:Z123"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -575,7 +575,7 @@
         <v>44433</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -685,7 +685,7 @@
         <v>45468</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>44336</v>
       </c>
       <c r="C4" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -881,7 +881,7 @@
         <v>44523</v>
       </c>
       <c r="C5" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -975,7 +975,7 @@
         <v>44796</v>
       </c>
       <c r="C6" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -1073,7 +1073,7 @@
         <v>44809</v>
       </c>
       <c r="C7" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -1159,14 +1159,14 @@
     <row r="8" ht="15" customHeight="1">
       <c r="A8" t="inlineStr">
         <is>
-          <t>A 45006-2025</t>
+          <t>A 44885-2025</t>
         </is>
       </c>
       <c r="B8" s="1" t="n">
-        <v>45918</v>
+        <v>45918.49010416667</v>
       </c>
       <c r="C8" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1179,25 +1179,25 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>7.8</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
+        <v>2</v>
+      </c>
+      <c r="I8" t="n">
         <v>4</v>
       </c>
-      <c r="I8" t="n">
-        <v>3</v>
-      </c>
       <c r="J8" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -1206,12 +1206,103 @@
         <v>2</v>
       </c>
       <c r="P8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q8" t="n">
         <v>7</v>
       </c>
       <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>Skogsalm
+Ask
+Murgröna
+Myskmadra
+Skogsknipprot
+Strävlosta
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44885-2025 artfynd.xlsx", "A 44885-2025")</f>
+        <v/>
+      </c>
+      <c r="T8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44885-2025 karta.png", "A 44885-2025")</f>
+        <v/>
+      </c>
+      <c r="V8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44885-2025 FSC-klagomål.docx", "A 44885-2025")</f>
+        <v/>
+      </c>
+      <c r="W8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44885-2025 FSC-klagomål mail.docx", "A 44885-2025")</f>
+        <v/>
+      </c>
+      <c r="X8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44885-2025 tillsynsbegäran.docx", "A 44885-2025")</f>
+        <v/>
+      </c>
+      <c r="Y8">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44885-2025 tillsynsbegäran mail.docx", "A 44885-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" ht="15" customHeight="1">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>A 45006-2025</t>
+        </is>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>45918</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+      <c r="I9" t="n">
+        <v>3</v>
+      </c>
+      <c r="J9" t="n">
+        <v>2</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>2</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>7</v>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
         <is>
           <t>Mindre ekbock
 Vårstarr
@@ -1222,119 +1313,28 @@
 Gullviva</t>
         </is>
       </c>
-      <c r="S8">
+      <c r="S9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45006-2025 artfynd.xlsx", "A 45006-2025")</f>
         <v/>
       </c>
-      <c r="T8">
+      <c r="T9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45006-2025 karta.png", "A 45006-2025")</f>
         <v/>
       </c>
-      <c r="V8">
+      <c r="V9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45006-2025 FSC-klagomål.docx", "A 45006-2025")</f>
         <v/>
       </c>
-      <c r="W8">
+      <c r="W9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45006-2025 FSC-klagomål mail.docx", "A 45006-2025")</f>
         <v/>
       </c>
-      <c r="X8">
+      <c r="X9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45006-2025 tillsynsbegäran.docx", "A 45006-2025")</f>
         <v/>
       </c>
-      <c r="Y8">
+      <c r="Y9">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45006-2025 tillsynsbegäran mail.docx", "A 45006-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="9" ht="15" customHeight="1">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>A 44885-2025</t>
-        </is>
-      </c>
-      <c r="B9" s="1" t="n">
-        <v>45918.49010416667</v>
-      </c>
-      <c r="C9" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G9" t="n">
-        <v>4.4</v>
-      </c>
-      <c r="H9" t="n">
-        <v>2</v>
-      </c>
-      <c r="I9" t="n">
-        <v>4</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>0</v>
-      </c>
-      <c r="L9" t="n">
-        <v>1</v>
-      </c>
-      <c r="M9" t="n">
-        <v>1</v>
-      </c>
-      <c r="N9" t="n">
-        <v>0</v>
-      </c>
-      <c r="O9" t="n">
-        <v>2</v>
-      </c>
-      <c r="P9" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>7</v>
-      </c>
-      <c r="R9" s="2" t="inlineStr">
-        <is>
-          <t>Skogsalm
-Ask
-Murgröna
-Myskmadra
-Skogsknipprot
-Strävlosta
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44885-2025 artfynd.xlsx", "A 44885-2025")</f>
-        <v/>
-      </c>
-      <c r="T9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44885-2025 karta.png", "A 44885-2025")</f>
-        <v/>
-      </c>
-      <c r="V9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44885-2025 FSC-klagomål.docx", "A 44885-2025")</f>
-        <v/>
-      </c>
-      <c r="W9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44885-2025 FSC-klagomål mail.docx", "A 44885-2025")</f>
-        <v/>
-      </c>
-      <c r="X9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44885-2025 tillsynsbegäran.docx", "A 44885-2025")</f>
-        <v/>
-      </c>
-      <c r="Y9">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44885-2025 tillsynsbegäran mail.docx", "A 44885-2025")</f>
         <v/>
       </c>
     </row>
@@ -1348,7 +1348,7 @@
         <v>44370</v>
       </c>
       <c r="C10" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1443,7 +1443,7 @@
         <v>44781</v>
       </c>
       <c r="C11" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1542,7 +1542,7 @@
         <v>45713</v>
       </c>
       <c r="C12" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1637,7 +1637,7 @@
         <v>44459</v>
       </c>
       <c r="C13" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -1726,7 +1726,7 @@
         <v>45930.67391203704</v>
       </c>
       <c r="C14" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -1820,7 +1820,7 @@
         <v>45926</v>
       </c>
       <c r="C15" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -1908,7 +1908,7 @@
         <v>44783</v>
       </c>
       <c r="C16" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2000,7 +2000,7 @@
         <v>45027</v>
       </c>
       <c r="C17" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2087,7 +2087,7 @@
         <v>45442.6512037037</v>
       </c>
       <c r="C18" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2167,14 +2167,14 @@
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A 38860-2025</t>
+          <t>A 13556-2025</t>
         </is>
       </c>
       <c r="B19" s="1" t="n">
-        <v>45887.5609375</v>
+        <v>45736.54759259259</v>
       </c>
       <c r="C19" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2187,7 +2187,7 @@
         </is>
       </c>
       <c r="G19" t="n">
-        <v>5.6</v>
+        <v>2.3</v>
       </c>
       <c r="H19" t="n">
         <v>2</v>
@@ -2221,838 +2221,838 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
+          <t>Tvåblad
+Nattviol</t>
+        </is>
+      </c>
+      <c r="S19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="T19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="V19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="W19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="X19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+      <c r="Y19">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="20" ht="15" customHeight="1">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A 38860-2025</t>
+        </is>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>45887.5609375</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="H20" t="n">
+        <v>2</v>
+      </c>
+      <c r="I20" t="n">
+        <v>1</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>2</v>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
           <t>Skogsknipprot
 Revlummer</t>
         </is>
       </c>
-      <c r="S19">
+      <c r="S20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 38860-2025 artfynd.xlsx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="T19">
+      <c r="T20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 38860-2025 karta.png", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="V19">
+      <c r="V20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 38860-2025 FSC-klagomål.docx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="W19">
+      <c r="W20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 38860-2025 FSC-klagomål mail.docx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="X19">
+      <c r="X20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 38860-2025 tillsynsbegäran.docx", "A 38860-2025")</f>
         <v/>
       </c>
-      <c r="Y19">
+      <c r="Y20">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 38860-2025 tillsynsbegäran mail.docx", "A 38860-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="20" ht="15" customHeight="1">
-      <c r="A20" t="inlineStr">
+    <row r="21" ht="15" customHeight="1">
+      <c r="A21" t="inlineStr">
         <is>
           <t>A 28779-2025</t>
         </is>
       </c>
-      <c r="B20" s="1" t="n">
+      <c r="B21" s="1" t="n">
         <v>45820.44920138889</v>
       </c>
-      <c r="C20" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
+      <c r="C21" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G20" t="n">
+      <c r="G21" t="n">
         <v>4.1</v>
       </c>
-      <c r="H20" t="n">
+      <c r="H21" t="n">
         <v>2</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I21" t="n">
         <v>1</v>
       </c>
-      <c r="J20" t="n">
+      <c r="J21" t="n">
         <v>1</v>
       </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
+      <c r="K21" t="n">
+        <v>0</v>
+      </c>
+      <c r="L21" t="n">
+        <v>0</v>
+      </c>
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0</v>
+      </c>
+      <c r="O21" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
+      <c r="P21" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q21" t="n">
         <v>2</v>
       </c>
-      <c r="R20" s="2" t="inlineStr">
+      <c r="R21" s="2" t="inlineStr">
         <is>
           <t>Havsörn
 Skogsknipprot</t>
         </is>
       </c>
-      <c r="S20">
+      <c r="S21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28779-2025 artfynd.xlsx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="T20">
+      <c r="T21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28779-2025 karta.png", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="V20">
+      <c r="V21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28779-2025 FSC-klagomål.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="W20">
+      <c r="W21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28779-2025 FSC-klagomål mail.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="X20">
+      <c r="X21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28779-2025 tillsynsbegäran.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="Y20">
+      <c r="Y21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28779-2025 tillsynsbegäran mail.docx", "A 28779-2025")</f>
         <v/>
       </c>
-      <c r="Z20">
+      <c r="Z21">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28779-2025 prioriterade fågelarter.docx", "A 28779-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="21" ht="15" customHeight="1">
-      <c r="A21" t="inlineStr">
+    <row r="22" ht="15" customHeight="1">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>A 44008-2022</t>
+        </is>
+      </c>
+      <c r="B22" s="1" t="n">
+        <v>44838</v>
+      </c>
+      <c r="C22" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0</v>
+      </c>
+      <c r="J22" t="n">
+        <v>2</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>2</v>
+      </c>
+      <c r="P22" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="T22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="V22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="W22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="X22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Y22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+      <c r="Z22">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="23" ht="15" customHeight="1">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>A 34944-2022</t>
+        </is>
+      </c>
+      <c r="B23" s="1" t="n">
+        <v>44796</v>
+      </c>
+      <c r="C23" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>2</v>
+      </c>
+      <c r="K23" t="n">
+        <v>0</v>
+      </c>
+      <c r="L23" t="n">
+        <v>0</v>
+      </c>
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
+      </c>
+      <c r="O23" t="n">
+        <v>2</v>
+      </c>
+      <c r="P23" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2</v>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>Entita
+Talltita</t>
+        </is>
+      </c>
+      <c r="S23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="T23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="V23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="W23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="X23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Y23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+      <c r="Z23">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="24" ht="15" customHeight="1">
+      <c r="A24" t="inlineStr">
         <is>
           <t>A 60140-2025</t>
         </is>
       </c>
-      <c r="B21" s="1" t="n">
+      <c r="B24" s="1" t="n">
         <v>45994.36274305556</v>
       </c>
-      <c r="C21" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G21" t="n">
+      <c r="C24" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>0.8</v>
       </c>
-      <c r="H21" t="n">
+      <c r="H24" t="n">
         <v>1</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I24" t="n">
         <v>2</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
-        <v>0</v>
-      </c>
-      <c r="L21" t="n">
-        <v>0</v>
-      </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="n">
-        <v>0</v>
-      </c>
-      <c r="O21" t="n">
-        <v>0</v>
-      </c>
-      <c r="P21" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q21" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
+        <v>0</v>
+      </c>
+      <c r="L24" t="n">
+        <v>0</v>
+      </c>
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0</v>
+      </c>
+      <c r="O24" t="n">
+        <v>0</v>
+      </c>
+      <c r="P24" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q24" t="n">
         <v>2</v>
       </c>
-      <c r="R21" s="2" t="inlineStr">
+      <c r="R24" s="2" t="inlineStr">
         <is>
           <t>Skogsknipprot
 Strävlosta</t>
         </is>
       </c>
-      <c r="S21">
+      <c r="S24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 60140-2025 artfynd.xlsx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="T21">
+      <c r="T24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 60140-2025 karta.png", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="V21">
+      <c r="V24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 60140-2025 FSC-klagomål.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="W21">
+      <c r="W24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 60140-2025 FSC-klagomål mail.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="X21">
+      <c r="X24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 60140-2025 tillsynsbegäran.docx", "A 60140-2025")</f>
         <v/>
       </c>
-      <c r="Y21">
+      <c r="Y24">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 60140-2025 tillsynsbegäran mail.docx", "A 60140-2025")</f>
         <v/>
       </c>
     </row>
-    <row r="22" ht="15" customHeight="1">
-      <c r="A22" t="inlineStr">
+    <row r="25" ht="15" customHeight="1">
+      <c r="A25" t="inlineStr">
         <is>
           <t>A 32174-2022</t>
         </is>
       </c>
-      <c r="B22" s="1" t="n">
+      <c r="B25" s="1" t="n">
         <v>44781</v>
       </c>
-      <c r="C22" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F22" t="inlineStr">
+      <c r="C25" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
         <is>
           <t>Sveaskog</t>
         </is>
       </c>
-      <c r="G22" t="n">
+      <c r="G25" t="n">
         <v>1.6</v>
       </c>
-      <c r="H22" t="n">
+      <c r="H25" t="n">
         <v>1</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I25" t="n">
         <v>1</v>
       </c>
-      <c r="J22" t="n">
+      <c r="J25" t="n">
         <v>1</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
+      <c r="K25" t="n">
+        <v>0</v>
+      </c>
+      <c r="L25" t="n">
+        <v>0</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0</v>
+      </c>
+      <c r="O25" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q22" t="n">
+      <c r="P25" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q25" t="n">
         <v>2</v>
       </c>
-      <c r="R22" s="2" t="inlineStr">
+      <c r="R25" s="2" t="inlineStr">
         <is>
           <t>Backklöver
 Tvåblad</t>
         </is>
       </c>
-      <c r="S22">
+      <c r="S25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 32174-2022 artfynd.xlsx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="T22">
+      <c r="T25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 32174-2022 karta.png", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="V22">
+      <c r="V25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 32174-2022 FSC-klagomål.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="W22">
+      <c r="W25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 32174-2022 FSC-klagomål mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="X22">
+      <c r="X25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 32174-2022 tillsynsbegäran.docx", "A 32174-2022")</f>
         <v/>
       </c>
-      <c r="Y22">
+      <c r="Y25">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 32174-2022 tillsynsbegäran mail.docx", "A 32174-2022")</f>
         <v/>
       </c>
     </row>
-    <row r="23" ht="15" customHeight="1">
-      <c r="A23" t="inlineStr">
-        <is>
-          <t>A 13556-2025</t>
-        </is>
-      </c>
-      <c r="B23" s="1" t="n">
-        <v>45736.54759259259</v>
-      </c>
-      <c r="C23" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G23" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="H23" t="n">
+    <row r="26" ht="15" customHeight="1">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>A 43756-2022</t>
+        </is>
+      </c>
+      <c r="B26" s="1" t="n">
+        <v>44837</v>
+      </c>
+      <c r="C26" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="H26" t="n">
+        <v>1</v>
+      </c>
+      <c r="I26" t="n">
+        <v>1</v>
+      </c>
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
+        <v>0</v>
+      </c>
+      <c r="L26" t="n">
+        <v>0</v>
+      </c>
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
+        <v>0</v>
+      </c>
+      <c r="O26" t="n">
+        <v>0</v>
+      </c>
+      <c r="P26" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q26" t="n">
         <v>2</v>
       </c>
-      <c r="I23" t="n">
+      <c r="R26" s="2" t="inlineStr">
+        <is>
+          <t>Murgröna
+Blåsippa</t>
+        </is>
+      </c>
+      <c r="S26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="T26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="V26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="W26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="X26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+      <c r="Y26">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="27" ht="15" customHeight="1">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>A 9253-2026</t>
+        </is>
+      </c>
+      <c r="B27" s="1" t="n">
+        <v>46070.51003472223</v>
+      </c>
+      <c r="C27" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="H27" t="n">
         <v>1</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
-        <v>0</v>
-      </c>
-      <c r="L23" t="n">
-        <v>0</v>
-      </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
-      </c>
-      <c r="O23" t="n">
-        <v>0</v>
-      </c>
-      <c r="P23" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q23" t="n">
+      <c r="I27" t="n">
+        <v>1</v>
+      </c>
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
+        <v>0</v>
+      </c>
+      <c r="L27" t="n">
+        <v>0</v>
+      </c>
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+      <c r="O27" t="n">
+        <v>0</v>
+      </c>
+      <c r="P27" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2</v>
       </c>
-      <c r="R23" s="2" t="inlineStr">
-        <is>
-          <t>Tvåblad
-Nattviol</t>
-        </is>
-      </c>
-      <c r="S23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13556-2025 artfynd.xlsx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="T23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13556-2025 karta.png", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="V23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13556-2025 FSC-klagomål.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="W23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13556-2025 FSC-klagomål mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="X23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13556-2025 tillsynsbegäran.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-      <c r="Y23">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13556-2025 tillsynsbegäran mail.docx", "A 13556-2025")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="24" ht="15" customHeight="1">
-      <c r="A24" t="inlineStr">
-        <is>
-          <t>A 9253-2026</t>
-        </is>
-      </c>
-      <c r="B24" s="1" t="n">
-        <v>46070.51003472223</v>
-      </c>
-      <c r="C24" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G24" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="H24" t="n">
-        <v>1</v>
-      </c>
-      <c r="I24" t="n">
-        <v>1</v>
-      </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
-        <v>0</v>
-      </c>
-      <c r="L24" t="n">
-        <v>0</v>
-      </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>0</v>
-      </c>
-      <c r="P24" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2</v>
-      </c>
-      <c r="R24" s="2" t="inlineStr">
+      <c r="R27" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Gullviva</t>
         </is>
       </c>
-      <c r="S24">
+      <c r="S27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9253-2026 artfynd.xlsx", "A 9253-2026")</f>
         <v/>
       </c>
-      <c r="T24">
+      <c r="T27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9253-2026 karta.png", "A 9253-2026")</f>
         <v/>
       </c>
-      <c r="V24">
+      <c r="V27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9253-2026 FSC-klagomål.docx", "A 9253-2026")</f>
         <v/>
       </c>
-      <c r="W24">
+      <c r="W27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9253-2026 FSC-klagomål mail.docx", "A 9253-2026")</f>
         <v/>
       </c>
-      <c r="X24">
+      <c r="X27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9253-2026 tillsynsbegäran.docx", "A 9253-2026")</f>
         <v/>
       </c>
-      <c r="Y24">
+      <c r="Y27">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9253-2026 tillsynsbegäran mail.docx", "A 9253-2026")</f>
         <v/>
       </c>
     </row>
-    <row r="25" ht="15" customHeight="1">
-      <c r="A25" t="inlineStr">
-        <is>
-          <t>A 34944-2022</t>
-        </is>
-      </c>
-      <c r="B25" s="1" t="n">
-        <v>44796</v>
-      </c>
-      <c r="C25" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G25" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H25" t="n">
+    <row r="28" ht="15" customHeight="1">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>A 4164-2023</t>
+        </is>
+      </c>
+      <c r="B28" s="1" t="n">
+        <v>44953</v>
+      </c>
+      <c r="C28" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+      <c r="I28" t="n">
+        <v>1</v>
+      </c>
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
+        <v>0</v>
+      </c>
+      <c r="L28" t="n">
+        <v>0</v>
+      </c>
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0</v>
+      </c>
+      <c r="O28" t="n">
+        <v>0</v>
+      </c>
+      <c r="P28" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q28" t="n">
         <v>2</v>
       </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>2</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
-      </c>
-      <c r="L25" t="n">
-        <v>0</v>
-      </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="n">
-        <v>0</v>
-      </c>
-      <c r="O25" t="n">
-        <v>2</v>
-      </c>
-      <c r="P25" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q25" t="n">
-        <v>2</v>
-      </c>
-      <c r="R25" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34944-2022 artfynd.xlsx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="T25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34944-2022 karta.png", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="V25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34944-2022 FSC-klagomål.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="W25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34944-2022 FSC-klagomål mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="X25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34944-2022 tillsynsbegäran.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Y25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34944-2022 tillsynsbegäran mail.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-      <c r="Z25">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 34944-2022 prioriterade fågelarter.docx", "A 34944-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="26" ht="15" customHeight="1">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>A 4164-2023</t>
-        </is>
-      </c>
-      <c r="B26" s="1" t="n">
-        <v>44953</v>
-      </c>
-      <c r="C26" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G26" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="H26" t="n">
-        <v>1</v>
-      </c>
-      <c r="I26" t="n">
-        <v>1</v>
-      </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
-        <v>0</v>
-      </c>
-      <c r="L26" t="n">
-        <v>0</v>
-      </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="n">
-        <v>0</v>
-      </c>
-      <c r="O26" t="n">
-        <v>0</v>
-      </c>
-      <c r="P26" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q26" t="n">
-        <v>2</v>
-      </c>
-      <c r="R26" s="2" t="inlineStr">
+      <c r="R28" s="2" t="inlineStr">
         <is>
           <t>Murgröna
 Blåsippa</t>
         </is>
       </c>
-      <c r="S26">
+      <c r="S28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 4164-2023 artfynd.xlsx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="T26">
+      <c r="T28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 4164-2023 karta.png", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="V26">
+      <c r="V28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 4164-2023 FSC-klagomål.docx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="W26">
+      <c r="W28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 4164-2023 FSC-klagomål mail.docx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="X26">
+      <c r="X28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 4164-2023 tillsynsbegäran.docx", "A 4164-2023")</f>
         <v/>
       </c>
-      <c r="Y26">
+      <c r="Y28">
         <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 4164-2023 tillsynsbegäran mail.docx", "A 4164-2023")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="27" ht="15" customHeight="1">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>A 43756-2022</t>
-        </is>
-      </c>
-      <c r="B27" s="1" t="n">
-        <v>44837</v>
-      </c>
-      <c r="C27" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="G27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="H27" t="n">
-        <v>1</v>
-      </c>
-      <c r="I27" t="n">
-        <v>1</v>
-      </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
-        <v>0</v>
-      </c>
-      <c r="L27" t="n">
-        <v>0</v>
-      </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="n">
-        <v>0</v>
-      </c>
-      <c r="O27" t="n">
-        <v>0</v>
-      </c>
-      <c r="P27" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>2</v>
-      </c>
-      <c r="R27" s="2" t="inlineStr">
-        <is>
-          <t>Murgröna
-Blåsippa</t>
-        </is>
-      </c>
-      <c r="S27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43756-2022 artfynd.xlsx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="T27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43756-2022 karta.png", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="V27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43756-2022 FSC-klagomål.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="W27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43756-2022 FSC-klagomål mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="X27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43756-2022 tillsynsbegäran.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-      <c r="Y27">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43756-2022 tillsynsbegäran mail.docx", "A 43756-2022")</f>
-        <v/>
-      </c>
-    </row>
-    <row r="28" ht="15" customHeight="1">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>A 44008-2022</t>
-        </is>
-      </c>
-      <c r="B28" s="1" t="n">
-        <v>44838</v>
-      </c>
-      <c r="C28" s="1" t="n">
-        <v>46073</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>KALMAR LÄN</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>BORGHOLM</t>
-        </is>
-      </c>
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
-      <c r="G28" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>0</v>
-      </c>
-      <c r="J28" t="n">
-        <v>2</v>
-      </c>
-      <c r="K28" t="n">
-        <v>0</v>
-      </c>
-      <c r="L28" t="n">
-        <v>0</v>
-      </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-      <c r="O28" t="n">
-        <v>2</v>
-      </c>
-      <c r="P28" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q28" t="n">
-        <v>2</v>
-      </c>
-      <c r="R28" s="2" t="inlineStr">
-        <is>
-          <t>Entita
-Talltita</t>
-        </is>
-      </c>
-      <c r="S28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 44008-2022 artfynd.xlsx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="T28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 44008-2022 karta.png", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="V28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 44008-2022 FSC-klagomål.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="W28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 44008-2022 FSC-klagomål mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="X28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 44008-2022 tillsynsbegäran.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Y28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 44008-2022 tillsynsbegäran mail.docx", "A 44008-2022")</f>
-        <v/>
-      </c>
-      <c r="Z28">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 44008-2022 prioriterade fågelarter.docx", "A 44008-2022")</f>
         <v/>
       </c>
     </row>
@@ -3066,7 +3066,7 @@
         <v>44370</v>
       </c>
       <c r="C29" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3156,7 +3156,7 @@
         <v>44772</v>
       </c>
       <c r="C30" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3239,14 +3239,14 @@
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="inlineStr">
         <is>
-          <t>A 14789-2021</t>
+          <t>A 24701-2023</t>
         </is>
       </c>
       <c r="B31" s="1" t="n">
-        <v>44280</v>
+        <v>45084</v>
       </c>
       <c r="C31" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -3259,79 +3259,79 @@
         </is>
       </c>
       <c r="G31" t="n">
+        <v>3</v>
+      </c>
+      <c r="H31" t="n">
+        <v>0</v>
+      </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
+        <v>0</v>
+      </c>
+      <c r="L31" t="n">
         <v>1</v>
       </c>
-      <c r="H31" t="n">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0</v>
+      </c>
+      <c r="O31" t="n">
         <v>1</v>
       </c>
-      <c r="I31" t="n">
+      <c r="P31" t="n">
         <v>1</v>
-      </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
-        <v>0</v>
-      </c>
-      <c r="L31" t="n">
-        <v>0</v>
-      </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="n">
-        <v>0</v>
-      </c>
-      <c r="O31" t="n">
-        <v>0</v>
-      </c>
-      <c r="P31" t="n">
-        <v>0</v>
       </c>
       <c r="Q31" t="n">
         <v>1</v>
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="T31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="V31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="W31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="X31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
         <v/>
       </c>
       <c r="Y31">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
         <v/>
       </c>
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="inlineStr">
         <is>
-          <t>A 45693-2025</t>
+          <t>A 13558-2025</t>
         </is>
       </c>
       <c r="B32" s="1" t="n">
-        <v>45923</v>
+        <v>45736.54974537037</v>
       </c>
       <c r="C32" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -3344,7 +3344,7 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>4.8</v>
+        <v>0.7</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -3378,45 +3378,45 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>Stjälkröksvamp</t>
+          <t>Backruta</t>
         </is>
       </c>
       <c r="S32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="T32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="V32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="W32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="X32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
         <v/>
       </c>
       <c r="Y32">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
         <v/>
       </c>
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="inlineStr">
         <is>
-          <t>A 24048-2025</t>
+          <t>A 28785-2025</t>
         </is>
       </c>
       <c r="B33" s="1" t="n">
-        <v>45796.4959375</v>
+        <v>45820.46159722222</v>
       </c>
       <c r="C33" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -3428,11 +3428,16 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G33" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="H33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
@@ -3463,45 +3468,49 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>Loppstarr</t>
+          <t>Havsörn</t>
         </is>
       </c>
       <c r="S33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="T33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="V33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="W33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="X33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
         <v/>
       </c>
       <c r="Y33">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
+        <v/>
+      </c>
+      <c r="Z33">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
         <v/>
       </c>
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="inlineStr">
         <is>
-          <t>A 9745-2023</t>
+          <t>A 29962-2025</t>
         </is>
       </c>
       <c r="B34" s="1" t="n">
-        <v>44984</v>
+        <v>45826.48184027777</v>
       </c>
       <c r="C34" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -3514,13 +3523,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>1.2</v>
+        <v>3.3</v>
       </c>
       <c r="H34" t="n">
         <v>1</v>
       </c>
       <c r="I34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3548,45 +3557,45 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>Skogsknipprot</t>
+          <t>Grönvit nattviol</t>
         </is>
       </c>
       <c r="S34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="T34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="V34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="W34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="X34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
         <v/>
       </c>
       <c r="Y34">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
         <v/>
       </c>
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="inlineStr">
         <is>
-          <t>A 41640-2023</t>
+          <t>A 34885-2025</t>
         </is>
       </c>
       <c r="B35" s="1" t="n">
-        <v>45175</v>
+        <v>45849.47128472223</v>
       </c>
       <c r="C35" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -3599,17 +3608,17 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>5</v>
+        <v>4.4</v>
       </c>
       <c r="H35" t="n">
+        <v>0</v>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
         <v>1</v>
       </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
@@ -3623,7 +3632,7 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35" t="n">
         <v>0</v>
@@ -3633,45 +3642,45 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>Johannesnycklar</t>
+          <t>Backfryle</t>
         </is>
       </c>
       <c r="S35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="T35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="V35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="W35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="X35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
         <v/>
       </c>
       <c r="Y35">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
         <v/>
       </c>
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="inlineStr">
         <is>
-          <t>A 28785-2025</t>
+          <t>A 24704-2023</t>
         </is>
       </c>
       <c r="B36" s="1" t="n">
-        <v>45820.46159722222</v>
+        <v>45084</v>
       </c>
       <c r="C36" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -3683,28 +3692,23 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G36" t="n">
-        <v>2.3</v>
+        <v>3.5</v>
       </c>
       <c r="H36" t="n">
+        <v>0</v>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
         <v>1</v>
-      </c>
-      <c r="I36" t="n">
-        <v>0</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1</v>
-      </c>
-      <c r="K36" t="n">
-        <v>0</v>
-      </c>
-      <c r="L36" t="n">
-        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -3716,56 +3720,52 @@
         <v>1</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q36" t="n">
         <v>1</v>
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>Havsörn</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 28785-2025 artfynd.xlsx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="T36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 28785-2025 karta.png", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="V36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 28785-2025 FSC-klagomål.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="W36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 28785-2025 FSC-klagomål mail.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="X36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 28785-2025 tillsynsbegäran.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
         <v/>
       </c>
       <c r="Y36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 28785-2025 tillsynsbegäran mail.docx", "A 28785-2025")</f>
-        <v/>
-      </c>
-      <c r="Z36">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/fåglar/A 28785-2025 prioriterade fågelarter.docx", "A 28785-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
         <v/>
       </c>
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="inlineStr">
         <is>
-          <t>A 29962-2025</t>
+          <t>A 45693-2025</t>
         </is>
       </c>
       <c r="B37" s="1" t="n">
-        <v>45826.48184027777</v>
+        <v>45923</v>
       </c>
       <c r="C37" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -3778,17 +3778,17 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>3.3</v>
+        <v>4.8</v>
       </c>
       <c r="H37" t="n">
+        <v>0</v>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
         <v>1</v>
       </c>
-      <c r="I37" t="n">
-        <v>0</v>
-      </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
       <c r="K37" t="n">
         <v>0</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -3812,45 +3812,45 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>Grönvit nattviol</t>
+          <t>Stjälkröksvamp</t>
         </is>
       </c>
       <c r="S37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 29962-2025 artfynd.xlsx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 45693-2025 artfynd.xlsx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="T37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 29962-2025 karta.png", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 45693-2025 karta.png", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="V37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 29962-2025 FSC-klagomål.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 45693-2025 FSC-klagomål.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="W37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 29962-2025 FSC-klagomål mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 45693-2025 FSC-klagomål mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="X37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 29962-2025 tillsynsbegäran.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 45693-2025 tillsynsbegäran.docx", "A 45693-2025")</f>
         <v/>
       </c>
       <c r="Y37">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 29962-2025 tillsynsbegäran mail.docx", "A 29962-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 45693-2025 tillsynsbegäran mail.docx", "A 45693-2025")</f>
         <v/>
       </c>
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="inlineStr">
         <is>
-          <t>A 34885-2025</t>
+          <t>A 9745-2023</t>
         </is>
       </c>
       <c r="B38" s="1" t="n">
-        <v>45849.47128472223</v>
+        <v>44984</v>
       </c>
       <c r="C38" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -3863,16 +3863,16 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>4.4</v>
+        <v>1.2</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3887,7 +3887,7 @@
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
         <v>0</v>
@@ -3897,45 +3897,45 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>Backfryle</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 34885-2025 artfynd.xlsx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 9745-2023 artfynd.xlsx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="T38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 34885-2025 karta.png", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 9745-2023 karta.png", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="V38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 34885-2025 FSC-klagomål.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 9745-2023 FSC-klagomål.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="W38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 34885-2025 FSC-klagomål mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 9745-2023 FSC-klagomål mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="X38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 34885-2025 tillsynsbegäran.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 9745-2023 tillsynsbegäran.docx", "A 9745-2023")</f>
         <v/>
       </c>
       <c r="Y38">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 34885-2025 tillsynsbegäran mail.docx", "A 34885-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 9745-2023 tillsynsbegäran mail.docx", "A 9745-2023")</f>
         <v/>
       </c>
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="inlineStr">
         <is>
-          <t>A 12785-2021</t>
+          <t>A 43603-2024</t>
         </is>
       </c>
       <c r="B39" s="1" t="n">
-        <v>44270</v>
+        <v>45569.44700231482</v>
       </c>
       <c r="C39" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -3948,10 +3948,10 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.2</v>
+        <v>3.8</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
@@ -3960,10 +3960,10 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -3982,45 +3982,45 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Väddnätfjäril</t>
         </is>
       </c>
       <c r="S39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="T39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="V39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="W39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="X39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
         <v/>
       </c>
       <c r="Y39">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
         <v/>
       </c>
     </row>
     <row r="40" ht="15" customHeight="1">
       <c r="A40" t="inlineStr">
         <is>
-          <t>A 13558-2025</t>
+          <t>A 14789-2021</t>
         </is>
       </c>
       <c r="B40" s="1" t="n">
-        <v>45736.54974537037</v>
+        <v>44280</v>
       </c>
       <c r="C40" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -4033,16 +4033,16 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K40" t="n">
         <v>0</v>
@@ -4057,7 +4057,7 @@
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -4067,45 +4067,45 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>Backruta</t>
+          <t>Skogsknipprot</t>
         </is>
       </c>
       <c r="S40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 13558-2025 artfynd.xlsx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 14789-2021 artfynd.xlsx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="T40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 13558-2025 karta.png", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 14789-2021 karta.png", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="V40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 13558-2025 FSC-klagomål.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 14789-2021 FSC-klagomål.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="W40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 13558-2025 FSC-klagomål mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 14789-2021 FSC-klagomål mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="X40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 13558-2025 tillsynsbegäran.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 14789-2021 tillsynsbegäran.docx", "A 14789-2021")</f>
         <v/>
       </c>
       <c r="Y40">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 13558-2025 tillsynsbegäran mail.docx", "A 13558-2025")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 14789-2021 tillsynsbegäran mail.docx", "A 14789-2021")</f>
         <v/>
       </c>
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="inlineStr">
         <is>
-          <t>A 24701-2023</t>
+          <t>A 3302-2026</t>
         </is>
       </c>
       <c r="B41" s="1" t="n">
-        <v>45084</v>
+        <v>46041</v>
       </c>
       <c r="C41" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -4118,10 +4118,10 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>3</v>
+        <v>3.9</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -4133,7 +4133,7 @@
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M41" t="n">
         <v>0</v>
@@ -4142,55 +4142,55 @@
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
         <v>1</v>
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Blåsippa</t>
         </is>
       </c>
       <c r="S41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24701-2023 artfynd.xlsx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="T41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24701-2023 karta.png", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="V41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24701-2023 FSC-klagomål.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="W41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24701-2023 FSC-klagomål mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="X41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24701-2023 tillsynsbegäran.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
         <v/>
       </c>
       <c r="Y41">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24701-2023 tillsynsbegäran mail.docx", "A 24701-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
         <v/>
       </c>
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="inlineStr">
         <is>
-          <t>A 43603-2024</t>
+          <t>A 12785-2021</t>
         </is>
       </c>
       <c r="B42" s="1" t="n">
-        <v>45569.44700231482</v>
+        <v>44270</v>
       </c>
       <c r="C42" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -4203,22 +4203,22 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>3.8</v>
+        <v>1.2</v>
       </c>
       <c r="H42" t="n">
+        <v>0</v>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
+        <v>0</v>
+      </c>
+      <c r="L42" t="n">
         <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>0</v>
-      </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
-        <v>1</v>
-      </c>
-      <c r="L42" t="n">
-        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -4237,45 +4237,45 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>Väddnätfjäril</t>
+          <t>Ask</t>
         </is>
       </c>
       <c r="S42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 43603-2024 artfynd.xlsx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 12785-2021 artfynd.xlsx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="T42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 43603-2024 karta.png", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 12785-2021 karta.png", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="V42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 43603-2024 FSC-klagomål.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 12785-2021 FSC-klagomål.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="W42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 43603-2024 FSC-klagomål mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 12785-2021 FSC-klagomål mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="X42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 43603-2024 tillsynsbegäran.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 12785-2021 tillsynsbegäran.docx", "A 12785-2021")</f>
         <v/>
       </c>
       <c r="Y42">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 43603-2024 tillsynsbegäran mail.docx", "A 43603-2024")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 12785-2021 tillsynsbegäran mail.docx", "A 12785-2021")</f>
         <v/>
       </c>
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="inlineStr">
         <is>
-          <t>A 3302-2026</t>
+          <t>A 24048-2025</t>
         </is>
       </c>
       <c r="B43" s="1" t="n">
-        <v>46041</v>
+        <v>45796.4959375</v>
       </c>
       <c r="C43" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -4288,17 +4288,17 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>3.9</v>
+        <v>2</v>
       </c>
       <c r="H43" t="n">
+        <v>0</v>
+      </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
         <v>1</v>
       </c>
-      <c r="I43" t="n">
-        <v>0</v>
-      </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
       <c r="K43" t="n">
         <v>0</v>
       </c>
@@ -4312,7 +4312,7 @@
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
@@ -4322,45 +4322,45 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>Blåsippa</t>
+          <t>Loppstarr</t>
         </is>
       </c>
       <c r="S43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 3302-2026 artfynd.xlsx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24048-2025 artfynd.xlsx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="T43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 3302-2026 karta.png", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24048-2025 karta.png", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="V43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 3302-2026 FSC-klagomål.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24048-2025 FSC-klagomål.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="W43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 3302-2026 FSC-klagomål mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24048-2025 FSC-klagomål mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="X43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 3302-2026 tillsynsbegäran.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24048-2025 tillsynsbegäran.docx", "A 24048-2025")</f>
         <v/>
       </c>
       <c r="Y43">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 3302-2026 tillsynsbegäran mail.docx", "A 3302-2026")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24048-2025 tillsynsbegäran mail.docx", "A 24048-2025")</f>
         <v/>
       </c>
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="inlineStr">
         <is>
-          <t>A 24704-2023</t>
+          <t>A 41640-2023</t>
         </is>
       </c>
       <c r="B44" s="1" t="n">
-        <v>45084</v>
+        <v>45175</v>
       </c>
       <c r="C44" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -4373,10 +4373,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>3.5</v>
+        <v>5</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4388,7 +4388,7 @@
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -4397,41 +4397,41 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
         <v>1</v>
       </c>
       <c r="R44" s="2" t="inlineStr">
         <is>
-          <t>Ask</t>
+          <t>Johannesnycklar</t>
         </is>
       </c>
       <c r="S44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 24704-2023 artfynd.xlsx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/artfynd/A 41640-2023 artfynd.xlsx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="T44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 24704-2023 karta.png", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 41640-2023 karta.png", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="V44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 24704-2023 FSC-klagomål.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 41640-2023 FSC-klagomål.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="W44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 24704-2023 FSC-klagomål mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 41640-2023 FSC-klagomål mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="X44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 24704-2023 tillsynsbegäran.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 41640-2023 tillsynsbegäran.docx", "A 41640-2023")</f>
         <v/>
       </c>
       <c r="Y44">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 24704-2023 tillsynsbegäran mail.docx", "A 24704-2023")</f>
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 41640-2023 tillsynsbegäran mail.docx", "A 41640-2023")</f>
         <v/>
       </c>
     </row>
@@ -4445,7 +4445,7 @@
         <v>44270</v>
       </c>
       <c r="C45" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -4502,7 +4502,7 @@
         <v>44428</v>
       </c>
       <c r="C46" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -4559,7 +4559,7 @@
         <v>44273</v>
       </c>
       <c r="C47" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -4616,7 +4616,7 @@
         <v>44783</v>
       </c>
       <c r="C48" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -4678,7 +4678,7 @@
         <v>44623</v>
       </c>
       <c r="C49" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -4735,7 +4735,7 @@
         <v>44747</v>
       </c>
       <c r="C50" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -4792,7 +4792,7 @@
         <v>44840</v>
       </c>
       <c r="C51" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -4849,7 +4849,7 @@
         <v>44783</v>
       </c>
       <c r="C52" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -4911,7 +4911,7 @@
         <v>44501</v>
       </c>
       <c r="C53" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -4968,7 +4968,7 @@
         <v>44477.83525462963</v>
       </c>
       <c r="C54" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -5025,7 +5025,7 @@
         <v>44482</v>
       </c>
       <c r="C55" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -5082,7 +5082,7 @@
         <v>44742.55567129629</v>
       </c>
       <c r="C56" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -5139,7 +5139,7 @@
         <v>44503</v>
       </c>
       <c r="C57" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -5196,7 +5196,7 @@
         <v>44781</v>
       </c>
       <c r="C58" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -5258,7 +5258,7 @@
         <v>44428</v>
       </c>
       <c r="C59" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -5308,14 +5308,14 @@
     <row r="60" ht="15" customHeight="1">
       <c r="A60" t="inlineStr">
         <is>
-          <t>A 31699-2022</t>
+          <t>A 12937-2022</t>
         </is>
       </c>
       <c r="B60" s="1" t="n">
-        <v>44776</v>
+        <v>44642</v>
       </c>
       <c r="C60" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -5333,7 +5333,7 @@
         </is>
       </c>
       <c r="G60" t="n">
-        <v>1.6</v>
+        <v>1.8</v>
       </c>
       <c r="H60" t="n">
         <v>0</v>
@@ -5370,14 +5370,14 @@
     <row r="61" ht="15" customHeight="1">
       <c r="A61" t="inlineStr">
         <is>
-          <t>A 9044-2025</t>
+          <t>A 9034-2025</t>
         </is>
       </c>
       <c r="B61" s="1" t="n">
-        <v>45713.6275</v>
+        <v>45713</v>
       </c>
       <c r="C61" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -5395,7 +5395,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>4</v>
+        <v>6.8</v>
       </c>
       <c r="H61" t="n">
         <v>0</v>
@@ -5432,14 +5432,14 @@
     <row r="62" ht="15" customHeight="1">
       <c r="A62" t="inlineStr">
         <is>
-          <t>A 13043-2024</t>
+          <t>A 3878-2023</t>
         </is>
       </c>
       <c r="B62" s="1" t="n">
-        <v>45385.60111111111</v>
+        <v>44951</v>
       </c>
       <c r="C62" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -5452,7 +5452,7 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>0.4</v>
+        <v>1.7</v>
       </c>
       <c r="H62" t="n">
         <v>0</v>
@@ -5489,14 +5489,14 @@
     <row r="63" ht="15" customHeight="1">
       <c r="A63" t="inlineStr">
         <is>
-          <t>A 17978-2021</t>
+          <t>A 13548-2025</t>
         </is>
       </c>
       <c r="B63" s="1" t="n">
-        <v>44301</v>
+        <v>45736.53827546296</v>
       </c>
       <c r="C63" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -5509,7 +5509,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H63" t="n">
         <v>0</v>
@@ -5546,14 +5546,14 @@
     <row r="64" ht="15" customHeight="1">
       <c r="A64" t="inlineStr">
         <is>
-          <t>A 26160-2024</t>
+          <t>A 64303-2023</t>
         </is>
       </c>
       <c r="B64" s="1" t="n">
-        <v>45468</v>
+        <v>45280</v>
       </c>
       <c r="C64" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -5566,7 +5566,7 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>0.4</v>
+        <v>1.2</v>
       </c>
       <c r="H64" t="n">
         <v>0</v>
@@ -5599,38 +5599,18 @@
         <v>0</v>
       </c>
       <c r="R64" s="2" t="inlineStr"/>
-      <c r="T64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="V64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="W64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="X64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
-      <c r="Y64">
-        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
-        <v/>
-      </c>
     </row>
     <row r="65" ht="15" customHeight="1">
       <c r="A65" t="inlineStr">
         <is>
-          <t>A 22785-2025</t>
+          <t>A 21908-2022</t>
         </is>
       </c>
       <c r="B65" s="1" t="n">
-        <v>45789.64186342592</v>
+        <v>44711</v>
       </c>
       <c r="C65" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -5643,7 +5623,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>0.6</v>
+        <v>4.7</v>
       </c>
       <c r="H65" t="n">
         <v>0</v>
@@ -5680,14 +5660,14 @@
     <row r="66" ht="15" customHeight="1">
       <c r="A66" t="inlineStr">
         <is>
-          <t>A 41831-2025</t>
+          <t>A 55367-2024</t>
         </is>
       </c>
       <c r="B66" s="1" t="n">
-        <v>45902.67887731481</v>
+        <v>45621.87075231481</v>
       </c>
       <c r="C66" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -5700,7 +5680,7 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>1.5</v>
+        <v>0.7</v>
       </c>
       <c r="H66" t="n">
         <v>0</v>
@@ -5737,14 +5717,14 @@
     <row r="67" ht="15" customHeight="1">
       <c r="A67" t="inlineStr">
         <is>
-          <t>A 42232-2025</t>
+          <t>A 28782-2025</t>
         </is>
       </c>
       <c r="B67" s="1" t="n">
-        <v>45904.55591435185</v>
+        <v>45820.45572916666</v>
       </c>
       <c r="C67" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -5762,7 +5742,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.7</v>
+        <v>0.8</v>
       </c>
       <c r="H67" t="n">
         <v>0</v>
@@ -5799,14 +5779,14 @@
     <row r="68" ht="15" customHeight="1">
       <c r="A68" t="inlineStr">
         <is>
-          <t>A 41950-2025</t>
+          <t>A 4159-2024</t>
         </is>
       </c>
       <c r="B68" s="1" t="n">
-        <v>45903.45767361111</v>
+        <v>45323</v>
       </c>
       <c r="C68" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -5819,7 +5799,7 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>1.8</v>
+        <v>0.5</v>
       </c>
       <c r="H68" t="n">
         <v>0</v>
@@ -5856,14 +5836,14 @@
     <row r="69" ht="15" customHeight="1">
       <c r="A69" t="inlineStr">
         <is>
-          <t>A 12534-2022</t>
+          <t>A 32921-2023</t>
         </is>
       </c>
       <c r="B69" s="1" t="n">
-        <v>44638</v>
+        <v>45125</v>
       </c>
       <c r="C69" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -5876,7 +5856,7 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>8.6</v>
+        <v>2.9</v>
       </c>
       <c r="H69" t="n">
         <v>0</v>
@@ -5913,14 +5893,14 @@
     <row r="70" ht="15" customHeight="1">
       <c r="A70" t="inlineStr">
         <is>
-          <t>A 40339-2023</t>
+          <t>A 41831-2025</t>
         </is>
       </c>
       <c r="B70" s="1" t="n">
-        <v>45169.62733796296</v>
+        <v>45902.67887731481</v>
       </c>
       <c r="C70" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -5933,7 +5913,7 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.8</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
         <v>0</v>
@@ -5970,14 +5950,14 @@
     <row r="71" ht="15" customHeight="1">
       <c r="A71" t="inlineStr">
         <is>
-          <t>A 20878-2024</t>
+          <t>A 41950-2025</t>
         </is>
       </c>
       <c r="B71" s="1" t="n">
-        <v>45439.44748842593</v>
+        <v>45903.45767361111</v>
       </c>
       <c r="C71" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -5990,7 +5970,7 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="H71" t="n">
         <v>0</v>
@@ -6027,14 +6007,14 @@
     <row r="72" ht="15" customHeight="1">
       <c r="A72" t="inlineStr">
         <is>
-          <t>A 24166-2022</t>
+          <t>A 31699-2022</t>
         </is>
       </c>
       <c r="B72" s="1" t="n">
-        <v>44725</v>
+        <v>44776</v>
       </c>
       <c r="C72" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -6046,8 +6026,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G72" t="n">
-        <v>10.7</v>
+        <v>1.6</v>
       </c>
       <c r="H72" t="n">
         <v>0</v>
@@ -6084,14 +6069,14 @@
     <row r="73" ht="15" customHeight="1">
       <c r="A73" t="inlineStr">
         <is>
-          <t>A 43542-2025</t>
+          <t>A 42232-2025</t>
         </is>
       </c>
       <c r="B73" s="1" t="n">
-        <v>45911.61123842592</v>
+        <v>45904.55591435185</v>
       </c>
       <c r="C73" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -6103,8 +6088,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G73" t="n">
-        <v>2.4</v>
+        <v>1.7</v>
       </c>
       <c r="H73" t="n">
         <v>0</v>
@@ -6141,14 +6131,14 @@
     <row r="74" ht="15" customHeight="1">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A 26160-2025</t>
+          <t>A 63276-2023</t>
         </is>
       </c>
       <c r="B74" s="1" t="n">
-        <v>45805.4490162037</v>
+        <v>45273.82195601852</v>
       </c>
       <c r="C74" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -6161,7 +6151,7 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>3.7</v>
+        <v>5</v>
       </c>
       <c r="H74" t="n">
         <v>0</v>
@@ -6198,14 +6188,14 @@
     <row r="75" ht="15" customHeight="1">
       <c r="A75" t="inlineStr">
         <is>
-          <t>A 26190-2025</t>
+          <t>A 43542-2025</t>
         </is>
       </c>
       <c r="B75" s="1" t="n">
-        <v>45805.48349537037</v>
+        <v>45911.61123842592</v>
       </c>
       <c r="C75" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -6218,7 +6208,7 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.2</v>
+        <v>2.4</v>
       </c>
       <c r="H75" t="n">
         <v>0</v>
@@ -6255,14 +6245,14 @@
     <row r="76" ht="15" customHeight="1">
       <c r="A76" t="inlineStr">
         <is>
-          <t>A 27357-2025</t>
+          <t>A 1614-2025</t>
         </is>
       </c>
       <c r="B76" s="1" t="n">
-        <v>45812.63650462963</v>
+        <v>45670.60094907408</v>
       </c>
       <c r="C76" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -6274,13 +6264,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F76" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G76" t="n">
-        <v>4.5</v>
+        <v>1.4</v>
       </c>
       <c r="H76" t="n">
         <v>0</v>
@@ -6324,7 +6309,7 @@
         <v>45923.46512731481</v>
       </c>
       <c r="C77" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
@@ -6381,7 +6366,7 @@
         <v>45923.65313657407</v>
       </c>
       <c r="C78" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
@@ -6431,14 +6416,14 @@
     <row r="79" ht="15" customHeight="1">
       <c r="A79" t="inlineStr">
         <is>
-          <t>A 27366-2025</t>
+          <t>A 36269-2025</t>
         </is>
       </c>
       <c r="B79" s="1" t="n">
-        <v>45812.64475694444</v>
+        <v>45867.61736111111</v>
       </c>
       <c r="C79" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -6456,7 +6441,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.5</v>
+        <v>3.3</v>
       </c>
       <c r="H79" t="n">
         <v>0</v>
@@ -6493,14 +6478,14 @@
     <row r="80" ht="15" customHeight="1">
       <c r="A80" t="inlineStr">
         <is>
-          <t>A 4159-2024</t>
+          <t>A 46845-2025</t>
         </is>
       </c>
       <c r="B80" s="1" t="n">
-        <v>45323</v>
+        <v>45928</v>
       </c>
       <c r="C80" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
@@ -6513,7 +6498,7 @@
         </is>
       </c>
       <c r="G80" t="n">
-        <v>0.5</v>
+        <v>2.7</v>
       </c>
       <c r="H80" t="n">
         <v>0</v>
@@ -6550,14 +6535,14 @@
     <row r="81" ht="15" customHeight="1">
       <c r="A81" t="inlineStr">
         <is>
-          <t>A 46845-2025</t>
+          <t>A 9076-2025</t>
         </is>
       </c>
       <c r="B81" s="1" t="n">
-        <v>45928</v>
+        <v>45713.6596875</v>
       </c>
       <c r="C81" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -6569,8 +6554,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G81" t="n">
-        <v>2.7</v>
+        <v>4.2</v>
       </c>
       <c r="H81" t="n">
         <v>0</v>
@@ -6607,14 +6597,14 @@
     <row r="82" ht="15" customHeight="1">
       <c r="A82" t="inlineStr">
         <is>
-          <t>A 28782-2025</t>
+          <t>A 1757-2025</t>
         </is>
       </c>
       <c r="B82" s="1" t="n">
-        <v>45820.45572916666</v>
+        <v>45671.42195601852</v>
       </c>
       <c r="C82" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
@@ -6626,13 +6616,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G82" t="n">
-        <v>0.8</v>
+        <v>1.4</v>
       </c>
       <c r="H82" t="n">
         <v>0</v>
@@ -6669,14 +6654,14 @@
     <row r="83" ht="15" customHeight="1">
       <c r="A83" t="inlineStr">
         <is>
-          <t>A 53050-2021</t>
+          <t>A 7960-2023</t>
         </is>
       </c>
       <c r="B83" s="1" t="n">
-        <v>44467</v>
+        <v>44973</v>
       </c>
       <c r="C83" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -6689,7 +6674,7 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.6</v>
+        <v>2.1</v>
       </c>
       <c r="H83" t="n">
         <v>0</v>
@@ -6726,14 +6711,14 @@
     <row r="84" ht="15" customHeight="1">
       <c r="A84" t="inlineStr">
         <is>
-          <t>A 31720-2022</t>
+          <t>A 29656-2023</t>
         </is>
       </c>
       <c r="B84" s="1" t="n">
-        <v>44776</v>
+        <v>45107</v>
       </c>
       <c r="C84" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -6745,13 +6730,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F84" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G84" t="n">
-        <v>4.5</v>
+        <v>4.1</v>
       </c>
       <c r="H84" t="n">
         <v>0</v>
@@ -6788,14 +6768,14 @@
     <row r="85" ht="15" customHeight="1">
       <c r="A85" t="inlineStr">
         <is>
-          <t>A 29656-2023</t>
+          <t>A 9050-2025</t>
         </is>
       </c>
       <c r="B85" s="1" t="n">
-        <v>45107</v>
+        <v>45713.63512731482</v>
       </c>
       <c r="C85" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
@@ -6807,8 +6787,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G85" t="n">
-        <v>4.1</v>
+        <v>2.5</v>
       </c>
       <c r="H85" t="n">
         <v>0</v>
@@ -6845,14 +6830,14 @@
     <row r="86" ht="15" customHeight="1">
       <c r="A86" t="inlineStr">
         <is>
-          <t>A 4165-2023</t>
+          <t>A 7669-2024</t>
         </is>
       </c>
       <c r="B86" s="1" t="n">
-        <v>44953</v>
+        <v>45348.82498842593</v>
       </c>
       <c r="C86" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -6865,7 +6850,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>0.6</v>
+        <v>2.3</v>
       </c>
       <c r="H86" t="n">
         <v>0</v>
@@ -6902,14 +6887,14 @@
     <row r="87" ht="15" customHeight="1">
       <c r="A87" t="inlineStr">
         <is>
-          <t>A 36269-2025</t>
+          <t>A 60141-2025</t>
         </is>
       </c>
       <c r="B87" s="1" t="n">
-        <v>45867.61736111111</v>
+        <v>45994.36873842592</v>
       </c>
       <c r="C87" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -6921,13 +6906,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F87" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G87" t="n">
-        <v>3.3</v>
+        <v>0.7</v>
       </c>
       <c r="H87" t="n">
         <v>0</v>
@@ -6964,14 +6944,14 @@
     <row r="88" ht="15" customHeight="1">
       <c r="A88" t="inlineStr">
         <is>
-          <t>A 60141-2025</t>
+          <t>A 31840-2021</t>
         </is>
       </c>
       <c r="B88" s="1" t="n">
-        <v>45994.36873842592</v>
+        <v>44370</v>
       </c>
       <c r="C88" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -6983,8 +6963,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G88" t="n">
-        <v>0.7</v>
+        <v>2.8</v>
       </c>
       <c r="H88" t="n">
         <v>0</v>
@@ -7021,14 +7006,14 @@
     <row r="89" ht="15" customHeight="1">
       <c r="A89" t="inlineStr">
         <is>
-          <t>A 13548-2025</t>
+          <t>A 61723-2025</t>
         </is>
       </c>
       <c r="B89" s="1" t="n">
-        <v>45736.53827546296</v>
+        <v>46002.58388888889</v>
       </c>
       <c r="C89" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -7041,7 +7026,7 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="H89" t="n">
         <v>0</v>
@@ -7078,14 +7063,14 @@
     <row r="90" ht="15" customHeight="1">
       <c r="A90" t="inlineStr">
         <is>
-          <t>A 32921-2023</t>
+          <t>A 32919-2023</t>
         </is>
       </c>
       <c r="B90" s="1" t="n">
         <v>45125</v>
       </c>
       <c r="C90" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D90" t="inlineStr">
         <is>
@@ -7098,7 +7083,7 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>2.9</v>
+        <v>2.7</v>
       </c>
       <c r="H90" t="n">
         <v>0</v>
@@ -7135,14 +7120,14 @@
     <row r="91" ht="15" customHeight="1">
       <c r="A91" t="inlineStr">
         <is>
-          <t>A 61723-2025</t>
+          <t>A 44678-2022</t>
         </is>
       </c>
       <c r="B91" s="1" t="n">
-        <v>46002.58388888889</v>
+        <v>44840.65100694444</v>
       </c>
       <c r="C91" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D91" t="inlineStr">
         <is>
@@ -7155,7 +7140,7 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.1</v>
+        <v>2.4</v>
       </c>
       <c r="H91" t="n">
         <v>0</v>
@@ -7192,14 +7177,14 @@
     <row r="92" ht="15" customHeight="1">
       <c r="A92" t="inlineStr">
         <is>
-          <t>A 31840-2021</t>
+          <t>A 31720-2022</t>
         </is>
       </c>
       <c r="B92" s="1" t="n">
-        <v>44370</v>
+        <v>44776</v>
       </c>
       <c r="C92" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D92" t="inlineStr">
         <is>
@@ -7217,7 +7202,7 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.8</v>
+        <v>4.5</v>
       </c>
       <c r="H92" t="n">
         <v>0</v>
@@ -7254,14 +7239,14 @@
     <row r="93" ht="15" customHeight="1">
       <c r="A93" t="inlineStr">
         <is>
-          <t>A 44678-2022</t>
+          <t>A 7481-2026</t>
         </is>
       </c>
       <c r="B93" s="1" t="n">
-        <v>44840.65100694444</v>
+        <v>46059.51359953704</v>
       </c>
       <c r="C93" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D93" t="inlineStr">
         <is>
@@ -7274,7 +7259,7 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.4</v>
+        <v>1.9</v>
       </c>
       <c r="H93" t="n">
         <v>0</v>
@@ -7311,14 +7296,14 @@
     <row r="94" ht="15" customHeight="1">
       <c r="A94" t="inlineStr">
         <is>
-          <t>A 64303-2023</t>
+          <t>A 44547-2021</t>
         </is>
       </c>
       <c r="B94" s="1" t="n">
-        <v>45280</v>
+        <v>44435</v>
       </c>
       <c r="C94" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D94" t="inlineStr">
         <is>
@@ -7331,7 +7316,7 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="H94" t="n">
         <v>0</v>
@@ -7368,14 +7353,14 @@
     <row r="95" ht="15" customHeight="1">
       <c r="A95" t="inlineStr">
         <is>
-          <t>A 7481-2026</t>
+          <t>A 5175-2024</t>
         </is>
       </c>
       <c r="B95" s="1" t="n">
-        <v>46059.51359953704</v>
+        <v>45330</v>
       </c>
       <c r="C95" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D95" t="inlineStr">
         <is>
@@ -7388,7 +7373,7 @@
         </is>
       </c>
       <c r="G95" t="n">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="H95" t="n">
         <v>0</v>
@@ -7425,14 +7410,14 @@
     <row r="96" ht="15" customHeight="1">
       <c r="A96" t="inlineStr">
         <is>
-          <t>A 44547-2021</t>
+          <t>A 34951-2022</t>
         </is>
       </c>
       <c r="B96" s="1" t="n">
-        <v>44435</v>
+        <v>44796</v>
       </c>
       <c r="C96" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D96" t="inlineStr">
         <is>
@@ -7444,8 +7429,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G96" t="n">
-        <v>1.4</v>
+        <v>4.6</v>
       </c>
       <c r="H96" t="n">
         <v>0</v>
@@ -7482,14 +7472,14 @@
     <row r="97" ht="15" customHeight="1">
       <c r="A97" t="inlineStr">
         <is>
-          <t>A 63075-2023</t>
+          <t>A 19867-2024</t>
         </is>
       </c>
       <c r="B97" s="1" t="n">
-        <v>45273</v>
+        <v>45433</v>
       </c>
       <c r="C97" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D97" t="inlineStr">
         <is>
@@ -7502,7 +7492,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.1</v>
+        <v>3.9</v>
       </c>
       <c r="H97" t="n">
         <v>0</v>
@@ -7539,14 +7529,14 @@
     <row r="98" ht="15" customHeight="1">
       <c r="A98" t="inlineStr">
         <is>
-          <t>A 50129-2021</t>
+          <t>A 13383-2023</t>
         </is>
       </c>
       <c r="B98" s="1" t="n">
-        <v>44456</v>
+        <v>45005</v>
       </c>
       <c r="C98" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D98" t="inlineStr">
         <is>
@@ -7559,7 +7549,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.6</v>
+        <v>0.8</v>
       </c>
       <c r="H98" t="n">
         <v>0</v>
@@ -7596,14 +7586,14 @@
     <row r="99" ht="15" customHeight="1">
       <c r="A99" t="inlineStr">
         <is>
-          <t>A 9259-2026</t>
+          <t>A 61438-2023</t>
         </is>
       </c>
       <c r="B99" s="1" t="n">
-        <v>46070.51917824074</v>
+        <v>45264</v>
       </c>
       <c r="C99" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -7616,7 +7606,7 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>1.6</v>
+        <v>1.1</v>
       </c>
       <c r="H99" t="n">
         <v>0</v>
@@ -7653,14 +7643,14 @@
     <row r="100" ht="15" customHeight="1">
       <c r="A100" t="inlineStr">
         <is>
-          <t>A 9104-2026</t>
+          <t>A 13041-2024</t>
         </is>
       </c>
       <c r="B100" s="1" t="n">
-        <v>46069</v>
+        <v>45385.60065972222</v>
       </c>
       <c r="C100" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D100" t="inlineStr">
         <is>
@@ -7673,7 +7663,7 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>1.3</v>
+        <v>0.5</v>
       </c>
       <c r="H100" t="n">
         <v>0</v>
@@ -7710,14 +7700,14 @@
     <row r="101" ht="15" customHeight="1">
       <c r="A101" t="inlineStr">
         <is>
-          <t>A 1757-2025</t>
+          <t>A 53050-2021</t>
         </is>
       </c>
       <c r="B101" s="1" t="n">
-        <v>45671.42195601852</v>
+        <v>44467</v>
       </c>
       <c r="C101" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D101" t="inlineStr">
         <is>
@@ -7730,7 +7720,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>1.4</v>
+        <v>3.6</v>
       </c>
       <c r="H101" t="n">
         <v>0</v>
@@ -7767,14 +7757,14 @@
     <row r="102" ht="15" customHeight="1">
       <c r="A102" t="inlineStr">
         <is>
-          <t>A 17699-2025</t>
+          <t>A 4165-2023</t>
         </is>
       </c>
       <c r="B102" s="1" t="n">
-        <v>45758.41846064815</v>
+        <v>44953</v>
       </c>
       <c r="C102" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D102" t="inlineStr">
         <is>
@@ -7787,7 +7777,7 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>0.7</v>
+        <v>0.6</v>
       </c>
       <c r="H102" t="n">
         <v>0</v>
@@ -7824,14 +7814,14 @@
     <row r="103" ht="15" customHeight="1">
       <c r="A103" t="inlineStr">
         <is>
-          <t>A 7669-2024</t>
+          <t>A 50129-2021</t>
         </is>
       </c>
       <c r="B103" s="1" t="n">
-        <v>45348.82498842593</v>
+        <v>44456</v>
       </c>
       <c r="C103" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D103" t="inlineStr">
         <is>
@@ -7844,7 +7834,7 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.3</v>
+        <v>1.6</v>
       </c>
       <c r="H103" t="n">
         <v>0</v>
@@ -7881,14 +7871,14 @@
     <row r="104" ht="15" customHeight="1">
       <c r="A104" t="inlineStr">
         <is>
-          <t>A 34780-2022</t>
+          <t>A 9104-2026</t>
         </is>
       </c>
       <c r="B104" s="1" t="n">
-        <v>44795</v>
+        <v>46069</v>
       </c>
       <c r="C104" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D104" t="inlineStr">
         <is>
@@ -7900,13 +7890,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F104" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G104" t="n">
-        <v>6.7</v>
+        <v>1.3</v>
       </c>
       <c r="H104" t="n">
         <v>0</v>
@@ -7943,14 +7928,14 @@
     <row r="105" ht="15" customHeight="1">
       <c r="A105" t="inlineStr">
         <is>
-          <t>A 55367-2024</t>
+          <t>A 9259-2026</t>
         </is>
       </c>
       <c r="B105" s="1" t="n">
-        <v>45621.87075231481</v>
+        <v>46070.51917824074</v>
       </c>
       <c r="C105" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D105" t="inlineStr">
         <is>
@@ -7963,7 +7948,7 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>0.7</v>
+        <v>1.6</v>
       </c>
       <c r="H105" t="n">
         <v>0</v>
@@ -8000,14 +7985,14 @@
     <row r="106" ht="15" customHeight="1">
       <c r="A106" t="inlineStr">
         <is>
-          <t>A 20287-2025</t>
+          <t>A 9905-2026</t>
         </is>
       </c>
       <c r="B106" s="1" t="n">
-        <v>45774.60741898148</v>
+        <v>46073.4108912037</v>
       </c>
       <c r="C106" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D106" t="inlineStr">
         <is>
@@ -8020,7 +8005,7 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>0.6</v>
+        <v>1.4</v>
       </c>
       <c r="H106" t="n">
         <v>0</v>
@@ -8057,14 +8042,14 @@
     <row r="107" ht="15" customHeight="1">
       <c r="A107" t="inlineStr">
         <is>
-          <t>A 9076-2025</t>
+          <t>A 13043-2024</t>
         </is>
       </c>
       <c r="B107" s="1" t="n">
-        <v>45713.6596875</v>
+        <v>45385.60111111111</v>
       </c>
       <c r="C107" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D107" t="inlineStr">
         <is>
@@ -8076,13 +8061,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F107" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>0.4</v>
       </c>
       <c r="H107" t="n">
         <v>0</v>
@@ -8119,14 +8099,14 @@
     <row r="108" ht="15" customHeight="1">
       <c r="A108" t="inlineStr">
         <is>
-          <t>A 32919-2023</t>
+          <t>A 34780-2022</t>
         </is>
       </c>
       <c r="B108" s="1" t="n">
-        <v>45125</v>
+        <v>44795</v>
       </c>
       <c r="C108" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D108" t="inlineStr">
         <is>
@@ -8138,8 +8118,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G108" t="n">
-        <v>2.7</v>
+        <v>6.7</v>
       </c>
       <c r="H108" t="n">
         <v>0</v>
@@ -8176,14 +8161,14 @@
     <row r="109" ht="15" customHeight="1">
       <c r="A109" t="inlineStr">
         <is>
-          <t>A 21908-2022</t>
+          <t>A 9044-2025</t>
         </is>
       </c>
       <c r="B109" s="1" t="n">
-        <v>44711</v>
+        <v>45713.6275</v>
       </c>
       <c r="C109" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D109" t="inlineStr">
         <is>
@@ -8195,8 +8180,13 @@
           <t>BORGHOLM</t>
         </is>
       </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
       <c r="G109" t="n">
-        <v>4.7</v>
+        <v>4</v>
       </c>
       <c r="H109" t="n">
         <v>0</v>
@@ -8233,14 +8223,14 @@
     <row r="110" ht="15" customHeight="1">
       <c r="A110" t="inlineStr">
         <is>
-          <t>A 34951-2022</t>
+          <t>A 20878-2024</t>
         </is>
       </c>
       <c r="B110" s="1" t="n">
-        <v>44796</v>
+        <v>45439.44748842593</v>
       </c>
       <c r="C110" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D110" t="inlineStr">
         <is>
@@ -8252,13 +8242,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F110" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G110" t="n">
-        <v>4.6</v>
+        <v>1.9</v>
       </c>
       <c r="H110" t="n">
         <v>0</v>
@@ -8295,14 +8280,14 @@
     <row r="111" ht="15" customHeight="1">
       <c r="A111" t="inlineStr">
         <is>
-          <t>A 9034-2025</t>
+          <t>A 17699-2025</t>
         </is>
       </c>
       <c r="B111" s="1" t="n">
-        <v>45713</v>
+        <v>45758.41846064815</v>
       </c>
       <c r="C111" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D111" t="inlineStr">
         <is>
@@ -8314,13 +8299,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F111" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G111" t="n">
-        <v>6.8</v>
+        <v>0.7</v>
       </c>
       <c r="H111" t="n">
         <v>0</v>
@@ -8357,14 +8337,14 @@
     <row r="112" ht="15" customHeight="1">
       <c r="A112" t="inlineStr">
         <is>
-          <t>A 5175-2024</t>
+          <t>A 20287-2025</t>
         </is>
       </c>
       <c r="B112" s="1" t="n">
-        <v>45330</v>
+        <v>45774.60741898148</v>
       </c>
       <c r="C112" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D112" t="inlineStr">
         <is>
@@ -8377,7 +8357,7 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>1.5</v>
+        <v>0.6</v>
       </c>
       <c r="H112" t="n">
         <v>0</v>
@@ -8414,14 +8394,14 @@
     <row r="113" ht="15" customHeight="1">
       <c r="A113" t="inlineStr">
         <is>
-          <t>A 3878-2023</t>
+          <t>A 26160-2024</t>
         </is>
       </c>
       <c r="B113" s="1" t="n">
-        <v>44951</v>
+        <v>45468</v>
       </c>
       <c r="C113" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D113" t="inlineStr">
         <is>
@@ -8434,7 +8414,7 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>1.7</v>
+        <v>0.4</v>
       </c>
       <c r="H113" t="n">
         <v>0</v>
@@ -8467,18 +8447,38 @@
         <v>0</v>
       </c>
       <c r="R113" s="2" t="inlineStr"/>
+      <c r="T113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/kartor/A 26160-2024 karta.png", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="V113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomål/A 26160-2024 FSC-klagomål.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="W113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/klagomålsmail/A 26160-2024 FSC-klagomål mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="X113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsyn/A 26160-2024 tillsynsbegäran.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
+      <c r="Y113">
+        <f>HYPERLINK("https://klasma.github.io/Logging_0885/tillsynsmail/A 26160-2024 tillsynsbegäran mail.docx", "A 26160-2024")</f>
+        <v/>
+      </c>
     </row>
     <row r="114" ht="15" customHeight="1">
       <c r="A114" t="inlineStr">
         <is>
-          <t>A 19867-2024</t>
+          <t>A 63075-2023</t>
         </is>
       </c>
       <c r="B114" s="1" t="n">
-        <v>45433</v>
+        <v>45273</v>
       </c>
       <c r="C114" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D114" t="inlineStr">
         <is>
@@ -8491,7 +8491,7 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>3.9</v>
+        <v>1.1</v>
       </c>
       <c r="H114" t="n">
         <v>0</v>
@@ -8528,14 +8528,14 @@
     <row r="115" ht="15" customHeight="1">
       <c r="A115" t="inlineStr">
         <is>
-          <t>A 13383-2023</t>
+          <t>A 17978-2021</t>
         </is>
       </c>
       <c r="B115" s="1" t="n">
-        <v>45005</v>
+        <v>44301</v>
       </c>
       <c r="C115" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D115" t="inlineStr">
         <is>
@@ -8548,7 +8548,7 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>0.8</v>
+        <v>6</v>
       </c>
       <c r="H115" t="n">
         <v>0</v>
@@ -8585,14 +8585,14 @@
     <row r="116" ht="15" customHeight="1">
       <c r="A116" t="inlineStr">
         <is>
-          <t>A 12937-2022</t>
+          <t>A 22785-2025</t>
         </is>
       </c>
       <c r="B116" s="1" t="n">
-        <v>44642</v>
+        <v>45789.64186342592</v>
       </c>
       <c r="C116" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D116" t="inlineStr">
         <is>
@@ -8604,13 +8604,8 @@
           <t>BORGHOLM</t>
         </is>
       </c>
-      <c r="F116" t="inlineStr">
-        <is>
-          <t>Sveaskog</t>
-        </is>
-      </c>
       <c r="G116" t="n">
-        <v>1.8</v>
+        <v>0.6</v>
       </c>
       <c r="H116" t="n">
         <v>0</v>
@@ -8647,14 +8642,14 @@
     <row r="117" ht="15" customHeight="1">
       <c r="A117" t="inlineStr">
         <is>
-          <t>A 7960-2023</t>
+          <t>A 12534-2022</t>
         </is>
       </c>
       <c r="B117" s="1" t="n">
-        <v>44973</v>
+        <v>44638</v>
       </c>
       <c r="C117" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D117" t="inlineStr">
         <is>
@@ -8667,7 +8662,7 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>2.1</v>
+        <v>8.6</v>
       </c>
       <c r="H117" t="n">
         <v>0</v>
@@ -8704,14 +8699,14 @@
     <row r="118" ht="15" customHeight="1">
       <c r="A118" t="inlineStr">
         <is>
-          <t>A 61438-2023</t>
+          <t>A 40339-2023</t>
         </is>
       </c>
       <c r="B118" s="1" t="n">
-        <v>45264</v>
+        <v>45169.62733796296</v>
       </c>
       <c r="C118" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D118" t="inlineStr">
         <is>
@@ -8724,7 +8719,7 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.1</v>
+        <v>3.8</v>
       </c>
       <c r="H118" t="n">
         <v>0</v>
@@ -8761,14 +8756,14 @@
     <row r="119" ht="15" customHeight="1">
       <c r="A119" t="inlineStr">
         <is>
-          <t>A 13041-2024</t>
+          <t>A 24166-2022</t>
         </is>
       </c>
       <c r="B119" s="1" t="n">
-        <v>45385.60065972222</v>
+        <v>44725</v>
       </c>
       <c r="C119" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D119" t="inlineStr">
         <is>
@@ -8781,7 +8776,7 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>0.5</v>
+        <v>10.7</v>
       </c>
       <c r="H119" t="n">
         <v>0</v>
@@ -8818,14 +8813,14 @@
     <row r="120" ht="15" customHeight="1">
       <c r="A120" t="inlineStr">
         <is>
-          <t>A 1614-2025</t>
+          <t>A 26190-2025</t>
         </is>
       </c>
       <c r="B120" s="1" t="n">
-        <v>45670.60094907408</v>
+        <v>45805.48349537037</v>
       </c>
       <c r="C120" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D120" t="inlineStr">
         <is>
@@ -8838,7 +8833,7 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>1.4</v>
+        <v>3.2</v>
       </c>
       <c r="H120" t="n">
         <v>0</v>
@@ -8875,14 +8870,14 @@
     <row r="121" ht="15" customHeight="1">
       <c r="A121" t="inlineStr">
         <is>
-          <t>A 63276-2023</t>
+          <t>A 26160-2025</t>
         </is>
       </c>
       <c r="B121" s="1" t="n">
-        <v>45273.82195601852</v>
+        <v>45805.4490162037</v>
       </c>
       <c r="C121" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D121" t="inlineStr">
         <is>
@@ -8895,7 +8890,7 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>5</v>
+        <v>3.7</v>
       </c>
       <c r="H121" t="n">
         <v>0</v>
@@ -8929,17 +8924,17 @@
       </c>
       <c r="R121" s="2" t="inlineStr"/>
     </row>
-    <row r="122">
+    <row r="122" ht="15" customHeight="1">
       <c r="A122" t="inlineStr">
         <is>
-          <t>A 9050-2025</t>
+          <t>A 27357-2025</t>
         </is>
       </c>
       <c r="B122" s="1" t="n">
-        <v>45713.63512731482</v>
+        <v>45812.63650462963</v>
       </c>
       <c r="C122" s="1" t="n">
-        <v>46073</v>
+        <v>46074</v>
       </c>
       <c r="D122" t="inlineStr">
         <is>
@@ -8957,39 +8952,101 @@
         </is>
       </c>
       <c r="G122" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="H122" t="n">
+        <v>0</v>
+      </c>
+      <c r="I122" t="n">
+        <v>0</v>
+      </c>
+      <c r="J122" t="n">
+        <v>0</v>
+      </c>
+      <c r="K122" t="n">
+        <v>0</v>
+      </c>
+      <c r="L122" t="n">
+        <v>0</v>
+      </c>
+      <c r="M122" t="n">
+        <v>0</v>
+      </c>
+      <c r="N122" t="n">
+        <v>0</v>
+      </c>
+      <c r="O122" t="n">
+        <v>0</v>
+      </c>
+      <c r="P122" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
+      <c r="R122" s="2" t="inlineStr"/>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>A 27366-2025</t>
+        </is>
+      </c>
+      <c r="B123" s="1" t="n">
+        <v>45812.64475694444</v>
+      </c>
+      <c r="C123" s="1" t="n">
+        <v>46074</v>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>KALMAR LÄN</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>BORGHOLM</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>Sveaskog</t>
+        </is>
+      </c>
+      <c r="G123" t="n">
         <v>2.5</v>
       </c>
-      <c r="H122" t="n">
-        <v>0</v>
-      </c>
-      <c r="I122" t="n">
-        <v>0</v>
-      </c>
-      <c r="J122" t="n">
-        <v>0</v>
-      </c>
-      <c r="K122" t="n">
-        <v>0</v>
-      </c>
-      <c r="L122" t="n">
-        <v>0</v>
-      </c>
-      <c r="M122" t="n">
-        <v>0</v>
-      </c>
-      <c r="N122" t="n">
-        <v>0</v>
-      </c>
-      <c r="O122" t="n">
-        <v>0</v>
-      </c>
-      <c r="P122" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q122" t="n">
-        <v>0</v>
-      </c>
-      <c r="R122" s="2" t="inlineStr"/>
+      <c r="H123" t="n">
+        <v>0</v>
+      </c>
+      <c r="I123" t="n">
+        <v>0</v>
+      </c>
+      <c r="J123" t="n">
+        <v>0</v>
+      </c>
+      <c r="K123" t="n">
+        <v>0</v>
+      </c>
+      <c r="L123" t="n">
+        <v>0</v>
+      </c>
+      <c r="M123" t="n">
+        <v>0</v>
+      </c>
+      <c r="N123" t="n">
+        <v>0</v>
+      </c>
+      <c r="O123" t="n">
+        <v>0</v>
+      </c>
+      <c r="P123" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
+      <c r="R123" s="2" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
